--- a/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\08.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBC58E-C82D-4301-8C46-F44F93A78599}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90566221-B821-4D90-8274-6A42E73A99B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3790" yWindow="5440" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="196">
   <si>
     <t>DATE</t>
   </si>
@@ -594,6 +594,33 @@
   </si>
   <si>
     <t>B11</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>29_08_2024_0722_C5_D1_LTPD5</t>
+  </si>
+  <si>
+    <t>REDO</t>
+  </si>
+  <si>
+    <t>29_08_2024_0728_C12_D2_LTPL4</t>
+  </si>
+  <si>
+    <t>29_08_2024_0744_CNEW_D3_LTPE4</t>
+  </si>
+  <si>
+    <t>BN2</t>
+  </si>
+  <si>
+    <t>29_08_2024_0749_C14_D4_LTPE6</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>29_08_2024_0800_C11_D5_LTPE5</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1265,10 @@
   <dimension ref="A1:CV22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4782,39 +4809,71 @@
       <c r="CV16" s="35"/>
     </row>
     <row r="17" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
       <c r="E17" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7" t="e">
+        <v>D5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="J17" s="7">
         <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="7" t="e">
+        <v>-5.4682649999999997</v>
+      </c>
+      <c r="K17" s="7">
         <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+        <v>119.30207900000001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>43</v>
+      </c>
+      <c r="M17" s="5">
+        <v>20</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" s="5">
+        <v>3</v>
+      </c>
       <c r="P17" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="8"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="V17" s="19"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
@@ -4967,37 +5026,67 @@
     <row r="18" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
       <c r="E18" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7" t="e">
+        <v>L4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="J18" s="7">
         <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K18" s="7" t="e">
+        <v>-5.4663769999999996</v>
+      </c>
+      <c r="K18" s="7">
         <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+        <v>119.30229</v>
+      </c>
+      <c r="L18" s="5">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5">
+        <v>24</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3</v>
+      </c>
       <c r="P18" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="8"/>
+        <v>9.9305555555555536E-2</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="V18" s="19"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
@@ -5150,36 +5239,64 @@
     <row r="19" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
       <c r="E19" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7" t="e">
+        <v>E4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="J19" s="7">
         <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="7" t="e">
+        <v>-5.4639509999999998</v>
+      </c>
+      <c r="K19" s="7">
         <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+        <v>119.287291</v>
+      </c>
+      <c r="L19" s="5">
+        <v>75</v>
+      </c>
+      <c r="M19" s="5">
+        <v>64</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="5">
+        <v>4</v>
+      </c>
       <c r="P19" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+        <v>5.8333333333333293E-2</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="U19" s="8"/>
       <c r="V19" s="19"/>
       <c r="W19" s="20"/>
@@ -5333,36 +5450,64 @@
     <row r="20" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6</v>
+      </c>
       <c r="E20" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7" t="e">
+        <v>E6</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5">
+        <v>14</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="J20" s="7">
         <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="7" t="e">
+        <v>-5.463902</v>
+      </c>
+      <c r="K20" s="7">
         <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+        <v>119.28802</v>
+      </c>
+      <c r="L20" s="5">
+        <v>50</v>
+      </c>
+      <c r="M20" s="5">
+        <v>40</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3</v>
+      </c>
       <c r="P20" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="19"/>
       <c r="W20" s="20"/>
@@ -5516,36 +5661,64 @@
     <row r="21" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
       <c r="E21" s="76" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7" t="e">
+        <v>E5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="J21" s="7">
         <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K21" s="7" t="e">
+        <v>-5.4620889999999997</v>
+      </c>
+      <c r="K21" s="7">
         <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+        <v>119.286874</v>
+      </c>
+      <c r="L21" s="5">
+        <v>70</v>
+      </c>
+      <c r="M21" s="5">
+        <v>60</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" s="5">
+        <v>3</v>
+      </c>
       <c r="P21" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+        <v>5.6250000000000022E-2</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="U21" s="8"/>
       <c r="V21" s="78"/>
       <c r="W21" s="79"/>

--- a/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\08.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90566221-B821-4D90-8274-6A42E73A99B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F103A-7F8D-4BB5-A5ED-11FBF6AE0A53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="198">
   <si>
     <t>DATE</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>29_08_2024_0800_C11_D5_LTPE5</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
   </si>
 </sst>
 </file>
@@ -1262,4795 +1268,4897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CV22"/>
+  <dimension ref="A1:CW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="6" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="35" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.7265625" style="73"/>
-    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="7" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="29" width="8.7265625" style="1" customWidth="1"/>
+    <col min="30" max="36" width="8.7265625" customWidth="1"/>
+    <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.7265625" style="73"/>
+    <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AK1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="83" t="s">
+      <c r="AL1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="60" t="s">
+      <c r="AN1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="83" t="s">
+      <c r="AO1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AQ1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="83" t="s">
+      <c r="AR1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="60" t="s">
+      <c r="AT1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="83" t="s">
+      <c r="AU1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="60" t="s">
+      <c r="AW1" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="83" t="s">
+      <c r="AX1" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="60" t="s">
+      <c r="AZ1" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="83" t="s">
+      <c r="BA1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="60" t="s">
+      <c r="BC1" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="83" t="s">
+      <c r="BD1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="60" t="s">
+      <c r="BF1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="83" t="s">
+      <c r="BG1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="60" t="s">
+      <c r="BI1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="83" t="s">
+      <c r="BJ1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="60" t="s">
+      <c r="BL1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="83" t="s">
+      <c r="BM1" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="BN1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="60" t="s">
+      <c r="BO1" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="83" t="s">
+      <c r="BP1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="27" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="60" t="s">
+      <c r="BR1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="83" t="s">
+      <c r="BS1" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="27" t="s">
+      <c r="BT1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="60" t="s">
+      <c r="BU1" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="83" t="s">
+      <c r="BV1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="27" t="s">
+      <c r="BW1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="60" t="s">
+      <c r="BX1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="84" t="s">
+      <c r="BY1" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="BY1" s="27" t="s">
+      <c r="BZ1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="60" t="s">
+      <c r="CA1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="CA1" s="83" t="s">
+      <c r="CB1" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="CB1" s="27" t="s">
+      <c r="CC1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CC1" s="60" t="s">
+      <c r="CD1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="CD1" s="83" t="s">
+      <c r="CE1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="CE1" s="27" t="s">
+      <c r="CF1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CF1" s="60" t="s">
+      <c r="CG1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="CG1" s="83" t="s">
+      <c r="CH1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CI1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CJ1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CK1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CL1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CM1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CN1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CO1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CP1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CQ1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CR1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CS1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CT1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CU1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CV1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="CV1" s="28" t="s">
+      <c r="CW1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="76" t="str">
-        <f>C2&amp;""&amp;D2</f>
+      <c r="F2" s="76" t="str">
+        <f>D2&amp;""&amp;E2</f>
         <v>E2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>12</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>0.27013888888888887</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>0.34861111111111115</v>
       </c>
-      <c r="J2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
+      <c r="K2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,2)</f>
         <v>-5.491987</v>
       </c>
-      <c r="K2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,3)</f>
+      <c r="L2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,3)</f>
         <v>119.312573</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>75</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>55</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>2</v>
       </c>
-      <c r="P2" s="6">
-        <f>I2-H2</f>
+      <c r="Q2" s="6">
+        <f>J2-I2</f>
         <v>7.8472222222222276E-2</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S2" s="5">
+      <c r="T2" s="5">
         <v>0.4</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="19"/>
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
-      <c r="AB2" s="20">
-        <f>SUM(V2:AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <f>SUM(W2:AB2)</f>
+        <v>0</v>
+      </c>
       <c r="AD2" s="20"/>
-      <c r="AE2" s="20">
-        <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="21"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20">
+        <f t="shared" ref="AF2:AF13" si="0">AC2-AD2-AE2</f>
+        <v>0</v>
+      </c>
       <c r="AG2" s="21"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="33" t="str">
-        <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="33" t="str">
-        <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="33" t="str">
-        <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="33" t="str">
-        <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="33" t="str">
-        <f t="shared" ref="AY2:AY22" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="33" t="str">
-        <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="33" t="str">
-        <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="33" t="str">
-        <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="33" t="str">
-        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="33" t="str">
-        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="33" t="str">
-        <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="33" t="str">
-        <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="33" t="str">
-        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="72"/>
-      <c r="CC2" s="33" t="str">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="72"/>
-      <c r="CF2" s="33" t="str">
-        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="72"/>
-      <c r="CI2" s="33" t="str">
-        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CJ2" s="59"/>
-      <c r="CK2" s="72"/>
-      <c r="CL2" s="33" t="str">
-        <f t="shared" ref="CL2:CL22" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="72"/>
-      <c r="CO2" s="33" t="str">
-        <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="72"/>
-      <c r="CR2" s="33" t="str">
-        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CS2" s="59"/>
-      <c r="CT2" s="72"/>
-      <c r="CU2" s="33" t="str">
-        <f t="shared" ref="CU2:CU13" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV2" s="35"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="33" t="str">
+        <f t="shared" ref="AN2:AN13" si="1">IF(AL2=0,"NA",AM2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="33" t="str">
+        <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="33" t="str">
+        <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="33" t="str">
+        <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="33" t="str">
+        <f t="shared" ref="AZ2:AZ22" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="33" t="str">
+        <f t="shared" ref="BC2:BC13" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="33" t="str">
+        <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="33" t="str">
+        <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="33" t="str">
+        <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="33" t="str">
+        <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="33" t="str">
+        <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="33" t="str">
+        <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="33" t="str">
+        <f t="shared" ref="BX2:BX22" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY2" s="41"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="33" t="str">
+        <f t="shared" ref="CA2:CA22" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="33" t="str">
+        <f t="shared" ref="CD2:CD22" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="33" t="str">
+        <f t="shared" ref="CG2:CG22" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="33" t="str">
+        <f t="shared" ref="CJ2:CJ22" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CK2" s="59"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="33" t="str">
+        <f t="shared" ref="CM2:CM22" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="33" t="str">
+        <f t="shared" ref="CP2:CP22" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="33" t="str">
+        <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="33" t="str">
+        <f t="shared" ref="CV2:CV13" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW2" s="35"/>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="22">C3&amp;""&amp;D3</f>
+      <c r="F3" s="76" t="str">
+        <f t="shared" ref="F3:F22" si="22">D3&amp;""&amp;E3</f>
         <v>E3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>14</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>0.27430555555555552</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>0.35069444444444442</v>
       </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,2)</f>
+      <c r="K3" s="7">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,2)</f>
         <v>-5.49282</v>
       </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,3)</f>
+      <c r="L3" s="7">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,3)</f>
         <v>119.31198000000001</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>55</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>35</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>3</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="23">I3-H3</f>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q22" si="23">J3-I3</f>
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>0.4</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="24">SUM(V3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20">
+        <f t="shared" ref="AC3:AC22" si="24">SUM(W3:AB3)</f>
+        <v>0</v>
+      </c>
       <c r="AD3" s="20"/>
-      <c r="AE3" s="20">
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="33" t="str">
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="33" t="str">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="33" t="str">
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="33" t="str">
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="33" t="str">
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="33" t="str">
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="33" t="str">
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="33" t="str">
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="33" t="str">
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="33" t="str">
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="33" t="str">
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33" t="str">
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="33" t="str">
+      <c r="BV3" s="31"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="57"/>
-      <c r="BZ3" s="33" t="str">
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="33" t="str">
+      <c r="CB3" s="31"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="33" t="str">
+      <c r="CE3" s="31"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="32"/>
-      <c r="CI3" s="33" t="str">
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="33" t="str">
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM3" s="31"/>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="33" t="str">
+      <c r="CN3" s="31"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="33" t="str">
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="33" t="str">
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="35"/>
+      <c r="CW3" s="35"/>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="76" t="str">
+      <c r="F4" s="76" t="str">
         <f t="shared" si="22"/>
         <v>E1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>11</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>0.28125</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.35486111111111113</v>
       </c>
-      <c r="J4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
+      <c r="K4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4901910000000003</v>
       </c>
-      <c r="K4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
+      <c r="L4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,3)</f>
         <v>119.311859</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>75</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>50</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>3</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <f t="shared" si="23"/>
         <v>7.3611111111111127E-2</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>0.32</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="20">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="33" t="str">
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="33" t="str">
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="33" t="str">
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="33" t="str">
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="33" t="str">
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33" t="str">
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="33" t="str">
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="33" t="str">
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="33" t="str">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="33" t="str">
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="33" t="str">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="33" t="str">
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="33" t="str">
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="33" t="str">
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="33" t="str">
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="33" t="str">
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="33" t="str">
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="34"/>
-      <c r="CL4" s="33" t="str">
+      <c r="CK4" s="31"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="33" t="str">
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="34"/>
-      <c r="CR4" s="33" t="str">
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="34"/>
-      <c r="CU4" s="33" t="str">
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="76" t="str">
+      <c r="F5" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.28541666666666665</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.35833333333333334</v>
       </c>
-      <c r="J5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
+      <c r="K5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4880659999999999</v>
       </c>
-      <c r="K5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
+      <c r="L5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,3)</f>
         <v>119.31312699999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>45</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>15</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>3</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <f t="shared" si="23"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>0.32</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="20">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
-      <c r="AE5" s="20">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="33" t="str">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="33" t="str">
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="33" t="str">
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="33" t="str">
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="33" t="str">
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="33" t="str">
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="33" t="str">
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="33" t="str">
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="33" t="str">
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="33" t="str">
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="33" t="str">
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="33" t="str">
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="33" t="str">
+      <c r="BV5" s="31"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="57"/>
-      <c r="BZ5" s="33" t="str">
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="57"/>
+      <c r="CA5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="33" t="str">
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="33" t="str">
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="33" t="str">
+      <c r="CH5" s="31"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="33" t="str">
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="33" t="str">
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="33" t="str">
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="33" t="str">
+      <c r="CT5" s="31"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="35"/>
+      <c r="CW5" s="35"/>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="76" t="str">
+      <c r="F6" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.2902777777777778</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.3611111111111111</v>
       </c>
-      <c r="J6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
+      <c r="K6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4889159999999997</v>
       </c>
-      <c r="K6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
+      <c r="L6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,3)</f>
         <v>119.309448</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>55</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>23</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>6</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <f t="shared" si="23"/>
         <v>7.0833333333333304E-2</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>0.32</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="19"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="20"/>
       <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="33" t="str">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="33" t="str">
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="33" t="str">
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="33" t="str">
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="33" t="str">
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="33" t="str">
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="33" t="str">
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="33" t="str">
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33" t="str">
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="33" t="str">
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="33" t="str">
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="33" t="str">
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="33" t="str">
+      <c r="BV6" s="31"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="57"/>
-      <c r="BZ6" s="33" t="str">
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="57"/>
+      <c r="CA6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA6" s="31"/>
-      <c r="CB6" s="32"/>
-      <c r="CC6" s="33" t="str">
+      <c r="CB6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="31"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="33" t="str">
+      <c r="CE6" s="31"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG6" s="31"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="33" t="str">
+      <c r="CH6" s="31"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ6" s="31"/>
-      <c r="CK6" s="32"/>
-      <c r="CL6" s="33" t="str">
+      <c r="CK6" s="31"/>
+      <c r="CL6" s="32"/>
+      <c r="CM6" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM6" s="31"/>
-      <c r="CN6" s="32"/>
-      <c r="CO6" s="33" t="str">
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="32"/>
+      <c r="CP6" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="33" t="str">
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="32"/>
+      <c r="CS6" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS6" s="31"/>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="33" t="str">
+      <c r="CT6" s="31"/>
+      <c r="CU6" s="32"/>
+      <c r="CV6" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="35"/>
+      <c r="CW6" s="35"/>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="76" t="str">
+      <c r="F7" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>11</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>0.30277777777777776</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.38194444444444442</v>
       </c>
-      <c r="J7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
+      <c r="K7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4811319999999997</v>
       </c>
-      <c r="K7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
+      <c r="L7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,3)</f>
         <v>119.31211</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>65</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>30</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <f t="shared" si="23"/>
         <v>7.9166666666666663E-2</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>0.38</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
-      <c r="AE7" s="20">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="33" t="str">
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="33" t="str">
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="33" t="str">
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="33" t="str">
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="33" t="str">
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="33" t="str">
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33" t="str">
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="33" t="str">
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="33" t="str">
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="33" t="str">
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="33" t="str">
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="31"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="33" t="str">
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="31"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="33" t="str">
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="57"/>
-      <c r="BZ7" s="33" t="str">
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="57"/>
+      <c r="CA7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="33" t="str">
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD7" s="31"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="33" t="str">
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="32"/>
+      <c r="CG7" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="33" t="str">
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="32"/>
+      <c r="CJ7" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="31"/>
-      <c r="CK7" s="32"/>
-      <c r="CL7" s="33" t="str">
+      <c r="CK7" s="31"/>
+      <c r="CL7" s="32"/>
+      <c r="CM7" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM7" s="31"/>
-      <c r="CN7" s="32"/>
-      <c r="CO7" s="33" t="str">
+      <c r="CN7" s="31"/>
+      <c r="CO7" s="32"/>
+      <c r="CP7" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP7" s="31"/>
-      <c r="CQ7" s="32"/>
-      <c r="CR7" s="33" t="str">
+      <c r="CQ7" s="31"/>
+      <c r="CR7" s="32"/>
+      <c r="CS7" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS7" s="31"/>
-      <c r="CT7" s="32"/>
-      <c r="CU7" s="33" t="str">
+      <c r="CT7" s="31"/>
+      <c r="CU7" s="32"/>
+      <c r="CV7" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="35"/>
+      <c r="CW7" s="35"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="76" t="str">
+      <c r="F8" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>0.30763888888888891</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.38541666666666669</v>
       </c>
-      <c r="J8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
+      <c r="K8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4810160000000003</v>
       </c>
-      <c r="K8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
+      <c r="L8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,3)</f>
         <v>119.31128099999999</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>62</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>30</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>3</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <f t="shared" si="23"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>0.38</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="20"/>
       <c r="AD8" s="20"/>
-      <c r="AE8" s="20">
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="33" t="str">
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="33" t="str">
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="33" t="str">
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="33" t="str">
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="33" t="str">
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="33" t="str">
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="33" t="str">
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="33" t="str">
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="33" t="str">
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="33" t="str">
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO8" s="31"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="33" t="str">
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="31"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="33" t="str">
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="31"/>
-      <c r="BV8" s="32"/>
-      <c r="BW8" s="33" t="str">
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="33" t="str">
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="33" t="str">
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="32"/>
-      <c r="CF8" s="33" t="str">
+      <c r="CE8" s="31"/>
+      <c r="CF8" s="32"/>
+      <c r="CG8" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG8" s="31"/>
-      <c r="CH8" s="32"/>
-      <c r="CI8" s="33" t="str">
+      <c r="CH8" s="31"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ8" s="31"/>
-      <c r="CK8" s="32"/>
-      <c r="CL8" s="33" t="str">
+      <c r="CK8" s="31"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM8" s="31"/>
-      <c r="CN8" s="32"/>
-      <c r="CO8" s="33" t="str">
+      <c r="CN8" s="31"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="71"/>
-      <c r="CR8" s="33" t="str">
+      <c r="CQ8" s="31"/>
+      <c r="CR8" s="71"/>
+      <c r="CS8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="31"/>
-      <c r="CT8" s="71"/>
-      <c r="CU8" s="33" t="str">
+      <c r="CT8" s="31"/>
+      <c r="CU8" s="71"/>
+      <c r="CV8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="35"/>
+      <c r="CW8" s="35"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="76" t="str">
+      <c r="F9" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>0.31597222222222221</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.3743055555555555</v>
       </c>
-      <c r="J9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
+      <c r="K9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793599999999998</v>
       </c>
-      <c r="K9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
+      <c r="L9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,3)</f>
         <v>119.312033</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>54</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>29</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>3</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <f t="shared" si="23"/>
         <v>5.8333333333333293E-2</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>0.38</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="20">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="20"/>
       <c r="AD9" s="20"/>
-      <c r="AE9" s="20">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="33" t="str">
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="33" t="str">
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="33" t="str">
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="33" t="str">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="33" t="str">
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="33" t="str">
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="33" t="str">
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="33" t="str">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="33" t="str">
+      <c r="BJ9" s="31"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="33" t="str">
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="33" t="str">
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="31"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="33" t="str">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="33" t="str">
+      <c r="BV9" s="31"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="57"/>
-      <c r="BZ9" s="33" t="str">
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="57"/>
+      <c r="CA9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="33" t="str">
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="33" t="str">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="33" t="str">
+      <c r="CH9" s="31"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="33" t="str">
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="33" t="str">
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP9" s="31"/>
-      <c r="CQ9" s="57"/>
-      <c r="CR9" s="33" t="str">
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="57"/>
+      <c r="CS9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="31"/>
-      <c r="CT9" s="57"/>
-      <c r="CU9" s="33" t="str">
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="57"/>
+      <c r="CV9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="76" t="str">
+      <c r="F10" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>0.31944444444444448</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.37638888888888888</v>
       </c>
-      <c r="J10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
+      <c r="K10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793240000000001</v>
       </c>
-      <c r="K10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
+      <c r="L10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,3)</f>
         <v>119.31157399999999</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>67</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>44</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>3</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <f t="shared" si="23"/>
         <v>5.6944444444444409E-2</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>0.38</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AE10" s="20">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="33" t="str">
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="33" t="str">
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="33" t="str">
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33" t="str">
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="33" t="str">
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="33" t="str">
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="32"/>
-      <c r="BE10" s="33" t="str">
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="33" t="str">
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="32"/>
-      <c r="BK10" s="33" t="str">
+      <c r="BJ10" s="31"/>
+      <c r="BK10" s="32"/>
+      <c r="BL10" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL10" s="31"/>
-      <c r="BM10" s="32"/>
-      <c r="BN10" s="33" t="str">
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO10" s="31"/>
-      <c r="BP10" s="32"/>
-      <c r="BQ10" s="33" t="str">
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="31"/>
-      <c r="BS10" s="32"/>
-      <c r="BT10" s="33" t="str">
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="31"/>
-      <c r="BV10" s="32"/>
-      <c r="BW10" s="33" t="str">
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="41"/>
-      <c r="BY10" s="57"/>
-      <c r="BZ10" s="33" t="str">
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="57"/>
+      <c r="CA10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="31"/>
-      <c r="CB10" s="34"/>
-      <c r="CC10" s="33" t="str">
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="34"/>
+      <c r="CD10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="31"/>
-      <c r="CE10" s="34"/>
-      <c r="CF10" s="33" t="str">
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG10" s="31"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="33" t="str">
+      <c r="CH10" s="31"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ10" s="31"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="33" t="str">
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM10" s="31"/>
-      <c r="CN10" s="34"/>
-      <c r="CO10" s="33" t="str">
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP10" s="31"/>
-      <c r="CQ10" s="34"/>
-      <c r="CR10" s="33" t="str">
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="34"/>
+      <c r="CS10" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="31"/>
-      <c r="CT10" s="34"/>
-      <c r="CU10" s="33" t="str">
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="34"/>
+      <c r="CV10" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="35"/>
+      <c r="CW10" s="35"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="76" t="str">
+      <c r="F11" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>0.31111111111111112</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.3972222222222222</v>
       </c>
-      <c r="J11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
+      <c r="K11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,2)</f>
         <v>-5.468826</v>
       </c>
-      <c r="K11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
+      <c r="L11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,3)</f>
         <v>119.300459</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>50</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>18</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>5</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <f t="shared" si="23"/>
         <v>8.6111111111111083E-2</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>0.5</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="20">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="20"/>
       <c r="AD11" s="20"/>
-      <c r="AE11" s="20">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="33" t="str">
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="33" t="str">
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="33" t="str">
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33" t="str">
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="33" t="str">
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="33" t="str">
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33" t="str">
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="33" t="str">
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="33" t="str">
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="32"/>
+      <c r="BL11" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="33" t="str">
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO11" s="31"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="33" t="str">
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="33" t="str">
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="33" t="str">
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="41"/>
-      <c r="BY11" s="57"/>
-      <c r="BZ11" s="33" t="str">
+      <c r="BY11" s="41"/>
+      <c r="BZ11" s="57"/>
+      <c r="CA11" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="33" t="str">
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="34"/>
-      <c r="CF11" s="33" t="str">
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG11" s="31"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="33" t="str">
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="34"/>
-      <c r="CL11" s="33" t="str">
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM11" s="31"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="33" t="str">
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="34"/>
-      <c r="CR11" s="33" t="str">
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="33" t="str">
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="35"/>
+      <c r="CW11" s="35"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="76" t="str">
+      <c r="F12" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L6</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>11</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>0.3125</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.3972222222222222</v>
       </c>
-      <c r="J12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
+      <c r="K12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4686510000000004</v>
       </c>
-      <c r="K12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
+      <c r="L12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,3)</f>
         <v>119.300428</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>50</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>22</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>4</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <f t="shared" si="23"/>
         <v>8.4722222222222199E-2</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="R12" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>0.5</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="20"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="20">
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="33" t="str">
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="33" t="str">
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="33" t="str">
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33" t="str">
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="33" t="str">
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="33" t="str">
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="33" t="str">
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="33" t="str">
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="33" t="str">
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="33" t="str">
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="33" t="str">
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="33" t="str">
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="32"/>
-      <c r="BW12" s="33" t="str">
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="57"/>
-      <c r="BZ12" s="33" t="str">
+      <c r="BY12" s="41"/>
+      <c r="BZ12" s="57"/>
+      <c r="CA12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="71"/>
-      <c r="CC12" s="33" t="str">
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="71"/>
+      <c r="CD12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="71"/>
-      <c r="CF12" s="33" t="str">
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="71"/>
+      <c r="CG12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="33" t="str">
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="71"/>
+      <c r="CJ12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ12" s="31"/>
-      <c r="CK12" s="71"/>
-      <c r="CL12" s="33" t="str">
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="71"/>
+      <c r="CM12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="33" t="str">
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="71"/>
+      <c r="CP12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP12" s="31"/>
-      <c r="CQ12" s="71"/>
-      <c r="CR12" s="33" t="str">
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="71"/>
+      <c r="CS12" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS12" s="31"/>
-      <c r="CT12" s="71"/>
-      <c r="CU12" s="33" t="str">
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="71"/>
+      <c r="CV12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="35"/>
+      <c r="CW12" s="35"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="76" t="str">
+      <c r="F13" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>0.31805555555555554</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.39097222222222222</v>
       </c>
-      <c r="J13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
+      <c r="K13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682649999999997</v>
       </c>
-      <c r="K13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
+      <c r="L13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,3)</f>
         <v>119.30207900000001</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>40</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>15</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>3</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <f t="shared" si="23"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>0.5</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="V13" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="20"/>
       <c r="AD13" s="20"/>
-      <c r="AE13" s="20">
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="33" t="str">
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33" t="str">
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33" t="str">
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33" t="str">
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="33" t="str">
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33" t="str">
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33" t="str">
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="33" t="str">
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="33" t="str">
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="33" t="str">
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="33" t="str">
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="33" t="str">
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="32"/>
-      <c r="BW13" s="33" t="str">
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="57"/>
-      <c r="BZ13" s="33" t="str">
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="57"/>
+      <c r="CA13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="32"/>
-      <c r="CC13" s="33" t="str">
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="32"/>
-      <c r="CF13" s="33" t="str">
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="32"/>
+      <c r="CG13" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG13" s="31"/>
-      <c r="CH13" s="32"/>
-      <c r="CI13" s="33" t="str">
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="32"/>
+      <c r="CJ13" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="31"/>
-      <c r="CK13" s="34"/>
-      <c r="CL13" s="33" t="str">
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="34"/>
+      <c r="CM13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM13" s="31"/>
-      <c r="CN13" s="34"/>
-      <c r="CO13" s="33" t="str">
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="34"/>
+      <c r="CP13" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP13" s="31"/>
-      <c r="CQ13" s="32"/>
-      <c r="CR13" s="33" t="str">
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="32"/>
+      <c r="CS13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS13" s="31"/>
-      <c r="CT13" s="32"/>
-      <c r="CU13" s="33" t="str">
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="32"/>
+      <c r="CV13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="35"/>
+      <c r="CW13" s="35"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="76" t="str">
+      <c r="F14" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>12</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.32013888888888892</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.39097222222222222</v>
       </c>
-      <c r="J14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
+      <c r="K14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682510000000004</v>
       </c>
-      <c r="K14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
+      <c r="L14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,3)</f>
         <v>119.301957</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>40</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>11</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>3</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <f t="shared" si="23"/>
         <v>7.0833333333333304E-2</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>0.5</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
-      <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="25">AB14-AC14-AD14</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="21"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20">
+        <f t="shared" ref="AF14:AF22" si="25">AC14-AD14-AE14</f>
+        <v>0</v>
+      </c>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM22" si="26">IF(AK14=0,"NA",AL14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="27">IF(AN14=0,"NA",AO14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="28">IF(AQ14=0,"NA",AR14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="29">IF(AT14=0,"NA",AU14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="33" t="str">
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="33" t="str">
+        <f t="shared" ref="AN14:AN22" si="26">IF(AL14=0,"NA",AM14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="33" t="str">
+        <f t="shared" ref="AQ14:AQ22" si="27">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33" t="str">
+        <f t="shared" ref="AT14:AT22" si="28">IF(AR14=0,"NA",AS14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="33" t="str">
+        <f t="shared" ref="AW14:AW22" si="29">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="30">IF(AZ14=0,"NA",BA14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="32"/>
-      <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="31">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="32">IF(BF14=0,"NA",BG14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK22" si="33">IF(BI14=0,"NA",BJ14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="34">IF(BL14=0,"NA",BM14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="35">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="36">IF(BR14=0,"NA",BS14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="33" t="str">
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="33" t="str">
+        <f t="shared" ref="BC14:BC22" si="30">IF(BA14=0,"NA",BB14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="33" t="str">
+        <f t="shared" ref="BF14:BF22" si="31">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="33" t="str">
+        <f t="shared" ref="BI14:BI22" si="32">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="33" t="str">
+        <f t="shared" ref="BL14:BL22" si="33">IF(BJ14=0,"NA",BK14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="33" t="str">
+        <f t="shared" ref="BO14:BO22" si="34">IF(BM14=0,"NA",BN14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="33" t="str">
+        <f t="shared" ref="BR14:BR22" si="35">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="33" t="str">
+        <f t="shared" ref="BU14:BU22" si="36">IF(BS14=0,"NA",BT14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="57"/>
-      <c r="BZ14" s="33" t="str">
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="57"/>
+      <c r="CA14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="32"/>
-      <c r="CC14" s="33" t="str">
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="32"/>
-      <c r="CF14" s="33" t="str">
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="32"/>
+      <c r="CG14" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG14" s="31"/>
-      <c r="CH14" s="32"/>
-      <c r="CI14" s="33" t="str">
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="32"/>
+      <c r="CJ14" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ14" s="31"/>
-      <c r="CK14" s="32"/>
-      <c r="CL14" s="33" t="str">
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM14" s="31"/>
-      <c r="CN14" s="32"/>
-      <c r="CO14" s="33" t="str">
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="32"/>
+      <c r="CP14" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="32"/>
-      <c r="CR14" s="33" t="str">
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="32"/>
+      <c r="CS14" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="32"/>
-      <c r="CU14" s="33" t="str">
-        <f t="shared" ref="CU14:CU22" si="37">IF(CS14=0,"NA",CT14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV14" s="35"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="32"/>
+      <c r="CV14" s="33" t="str">
+        <f t="shared" ref="CV14:CV22" si="37">IF(CT14=0,"NA",CU14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW14" s="35"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="76" t="str">
+      <c r="F15" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L4</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>14</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>0.32569444444444445</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>0.3840277777777778</v>
       </c>
-      <c r="J15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
+      <c r="K15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4663769999999996</v>
       </c>
-      <c r="K15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
+      <c r="L15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,3)</f>
         <v>119.30229</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>50</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>23</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>4</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <f t="shared" si="23"/>
         <v>5.8333333333333348E-2</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="R15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>0.43</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U15" s="8" t="s">
+      <c r="V15" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="V15" s="19"/>
-      <c r="W15" s="20"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
-      <c r="AE15" s="20">
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="33" t="str">
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33" t="str">
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="33" t="str">
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33" t="str">
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="33" t="str">
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="33" t="str">
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="33" t="str">
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="33" t="str">
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="33" t="str">
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="33" t="str">
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="33" t="str">
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="33" t="str">
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="71"/>
-      <c r="BW15" s="33" t="str">
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="71"/>
+      <c r="BX15" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="57"/>
-      <c r="BZ15" s="33" t="str">
+      <c r="BY15" s="41"/>
+      <c r="BZ15" s="57"/>
+      <c r="CA15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="71"/>
-      <c r="CC15" s="33" t="str">
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="71"/>
+      <c r="CD15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="71"/>
-      <c r="CF15" s="33" t="str">
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="71"/>
+      <c r="CG15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="32"/>
-      <c r="CI15" s="33" t="str">
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="32"/>
+      <c r="CJ15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ15" s="31"/>
-      <c r="CK15" s="32"/>
-      <c r="CL15" s="33" t="str">
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="32"/>
+      <c r="CM15" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM15" s="31"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="33" t="str">
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="32"/>
+      <c r="CP15" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP15" s="31"/>
-      <c r="CQ15" s="32"/>
-      <c r="CR15" s="33" t="str">
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="32"/>
+      <c r="CS15" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS15" s="31"/>
-      <c r="CT15" s="32"/>
-      <c r="CU15" s="33" t="str">
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="32"/>
+      <c r="CV15" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="35"/>
+      <c r="CW15" s="35"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="76" t="str">
+      <c r="F16" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D6</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>0.32916666666666666</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>0.38680555555555557</v>
       </c>
-      <c r="J16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
+      <c r="K16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4671349999999999</v>
       </c>
-      <c r="K16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
+      <c r="L16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,3)</f>
         <v>119.302812</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>42</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>18</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>3</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <f t="shared" si="23"/>
         <v>5.7638888888888906E-2</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>0.43</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="20">
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
-      <c r="AE16" s="20">
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="33" t="str">
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="33" t="str">
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="33" t="str">
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="33" t="str">
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="33" t="str">
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="33" t="str">
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="33" t="str">
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="57" t="str">
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="57" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="41"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="33" t="str">
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="33" t="str">
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="33" t="str">
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="57"/>
-      <c r="BT16" s="33" t="str">
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="57"/>
+      <c r="BU16" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="32"/>
-      <c r="BW16" s="33" t="str">
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="57"/>
-      <c r="BZ16" s="33" t="str">
+      <c r="BY16" s="41"/>
+      <c r="BZ16" s="57"/>
+      <c r="CA16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="33" t="str">
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="34"/>
-      <c r="CF16" s="33" t="str">
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="34"/>
+      <c r="CG16" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG16" s="31"/>
-      <c r="CH16" s="34"/>
-      <c r="CI16" s="33" t="str">
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="34"/>
+      <c r="CJ16" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ16" s="31"/>
-      <c r="CK16" s="34"/>
-      <c r="CL16" s="33" t="str">
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="34"/>
+      <c r="CM16" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM16" s="31"/>
-      <c r="CN16" s="34"/>
-      <c r="CO16" s="33" t="str">
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="34"/>
+      <c r="CP16" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP16" s="31"/>
-      <c r="CQ16" s="34"/>
-      <c r="CR16" s="33" t="str">
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="34"/>
+      <c r="CS16" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS16" s="31"/>
-      <c r="CT16" s="34"/>
-      <c r="CU16" s="33" t="str">
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="34"/>
+      <c r="CV16" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV16" s="35"/>
+      <c r="CW16" s="35"/>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="76" t="str">
+      <c r="F17" s="76" t="str">
         <f t="shared" si="22"/>
         <v>D5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>0.30694444444444441</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>0.4069444444444445</v>
       </c>
-      <c r="J17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
+      <c r="K17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682649999999997</v>
       </c>
-      <c r="K17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
+      <c r="L17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,3)</f>
         <v>119.30207900000001</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>43</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>20</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>3</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <f t="shared" si="23"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="V17" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="20"/>
       <c r="AD17" s="20"/>
-      <c r="AE17" s="20">
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="33" t="str">
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="33" t="str">
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="33" t="str">
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="33" t="str">
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="33" t="str">
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="33" t="str">
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="33" t="str">
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="33" t="str">
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI17" s="41"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="33" t="str">
+      <c r="BJ17" s="41"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL17" s="41"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="33" t="str">
+      <c r="BM17" s="41"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO17" s="41"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="33" t="str">
+      <c r="BP17" s="41"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="32"/>
-      <c r="BT17" s="33" t="str">
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="32"/>
+      <c r="BU17" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="32"/>
-      <c r="BW17" s="33" t="str">
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="32"/>
+      <c r="BX17" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="41"/>
-      <c r="BY17" s="57"/>
-      <c r="BZ17" s="33" t="str">
+      <c r="BY17" s="41"/>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="34"/>
-      <c r="CC17" s="33" t="str">
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="34"/>
-      <c r="CF17" s="33" t="str">
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="34"/>
+      <c r="CG17" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="34"/>
-      <c r="CI17" s="33" t="str">
+      <c r="CH17" s="31"/>
+      <c r="CI17" s="34"/>
+      <c r="CJ17" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ17" s="31"/>
-      <c r="CK17" s="34"/>
-      <c r="CL17" s="33" t="str">
+      <c r="CK17" s="31"/>
+      <c r="CL17" s="34"/>
+      <c r="CM17" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM17" s="31"/>
-      <c r="CN17" s="34"/>
-      <c r="CO17" s="33" t="str">
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="34"/>
+      <c r="CP17" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP17" s="31"/>
-      <c r="CQ17" s="34"/>
-      <c r="CR17" s="33" t="str">
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="34"/>
+      <c r="CS17" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS17" s="31"/>
-      <c r="CT17" s="34"/>
-      <c r="CU17" s="33" t="str">
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="34"/>
+      <c r="CV17" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV17" s="35"/>
+      <c r="CW17" s="35"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="76" t="str">
+      <c r="F18" s="76" t="str">
         <f t="shared" si="22"/>
         <v>L4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>12</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>0.31111111111111112</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>0.41041666666666665</v>
       </c>
-      <c r="J18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
+      <c r="K18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4663769999999996</v>
       </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
+      <c r="L18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,3)</f>
         <v>119.30229</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>50</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>24</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>3</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <f t="shared" si="23"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="V18" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="20"/>
       <c r="AD18" s="20"/>
-      <c r="AE18" s="20">
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="33" t="str">
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="33" t="str">
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="33" t="str">
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="33" t="str">
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="33" t="str">
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="33" t="str">
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="33" t="str">
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="33" t="str">
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="33" t="str">
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="33" t="str">
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="33" t="str">
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="33" t="str">
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="33" t="str">
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX18" s="41"/>
-      <c r="BY18" s="57"/>
-      <c r="BZ18" s="33" t="str">
+      <c r="BY18" s="41"/>
+      <c r="BZ18" s="57"/>
+      <c r="CA18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="33" t="str">
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="33" t="str">
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="33" t="str">
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ18" s="31"/>
-      <c r="CK18" s="34"/>
-      <c r="CL18" s="33" t="str">
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="33" t="str">
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP18" s="31"/>
-      <c r="CQ18" s="34"/>
-      <c r="CR18" s="33" t="str">
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="34"/>
+      <c r="CS18" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="31"/>
-      <c r="CT18" s="34"/>
-      <c r="CU18" s="33" t="str">
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="34"/>
+      <c r="CV18" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV18" s="35"/>
+      <c r="CW18" s="35"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="76" t="str">
+      <c r="F19" s="76" t="str">
         <f t="shared" si="22"/>
         <v>E4</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>3</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>0.32222222222222224</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>0.38055555555555554</v>
       </c>
-      <c r="J19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
+      <c r="K19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4639509999999998</v>
       </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
+      <c r="L19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,3)</f>
         <v>119.287291</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>75</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>64</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>4</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <f t="shared" si="23"/>
         <v>5.8333333333333293E-2</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="R19" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="20">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
-      <c r="AE19" s="20">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="33" t="str">
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="33" t="str">
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="33" t="str">
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="33" t="str">
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="33" t="str">
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="33" t="str">
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="33" t="str">
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="33" t="str">
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="33" t="str">
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="33" t="str">
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="33" t="str">
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="34"/>
+      <c r="BR19" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="33" t="str">
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="33" t="str">
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="41"/>
-      <c r="BY19" s="57"/>
-      <c r="BZ19" s="33" t="str">
+      <c r="BY19" s="41"/>
+      <c r="BZ19" s="57"/>
+      <c r="CA19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="33" t="str">
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="34"/>
+      <c r="CD19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="34"/>
-      <c r="CF19" s="33" t="str">
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG19" s="31"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="33" t="str">
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="34"/>
+      <c r="CJ19" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ19" s="31"/>
-      <c r="CK19" s="34"/>
-      <c r="CL19" s="33" t="str">
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="34"/>
+      <c r="CM19" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM19" s="31"/>
-      <c r="CN19" s="34"/>
-      <c r="CO19" s="33" t="str">
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="34"/>
+      <c r="CP19" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="34"/>
-      <c r="CR19" s="33" t="str">
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="34"/>
+      <c r="CS19" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS19" s="31"/>
-      <c r="CT19" s="34"/>
-      <c r="CU19" s="33" t="str">
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="34"/>
+      <c r="CV19" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="35"/>
+      <c r="CW19" s="35"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="E20" s="76" t="str">
+      <c r="F20" s="76" t="str">
         <f t="shared" si="22"/>
         <v>E6</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>14</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>0.32569444444444445</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>0.38263888888888892</v>
       </c>
-      <c r="J20" s="7">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
+      <c r="K20" s="7">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,2)</f>
         <v>-5.463902</v>
       </c>
-      <c r="K20" s="7">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
+      <c r="L20" s="7">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,3)</f>
         <v>119.28802</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>50</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>40</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>3</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <f t="shared" si="23"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="R20" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <v>0.52</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="U20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="20">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
-      <c r="AE20" s="20">
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="33" t="str">
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="33" t="str">
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="33" t="str">
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="33" t="str">
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="33" t="str">
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="33" t="str">
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="34"/>
+      <c r="BC20" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="33" t="str">
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="33" t="str">
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="33" t="str">
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="33" t="str">
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="33" t="str">
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="34"/>
+      <c r="BR20" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="33" t="str">
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="34"/>
+      <c r="BU20" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="33" t="str">
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="34"/>
+      <c r="BX20" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="57"/>
-      <c r="BZ20" s="33" t="str">
+      <c r="BY20" s="41"/>
+      <c r="BZ20" s="57"/>
+      <c r="CA20" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="33" t="str">
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="34"/>
+      <c r="CD20" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="34"/>
-      <c r="CF20" s="33" t="str">
+      <c r="CE20" s="31"/>
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG20" s="31"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="33" t="str">
+      <c r="CH20" s="31"/>
+      <c r="CI20" s="34"/>
+      <c r="CJ20" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ20" s="31"/>
-      <c r="CK20" s="34"/>
-      <c r="CL20" s="33" t="str">
+      <c r="CK20" s="31"/>
+      <c r="CL20" s="34"/>
+      <c r="CM20" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM20" s="31"/>
-      <c r="CN20" s="34"/>
-      <c r="CO20" s="33" t="str">
+      <c r="CN20" s="31"/>
+      <c r="CO20" s="34"/>
+      <c r="CP20" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP20" s="31"/>
-      <c r="CQ20" s="34"/>
-      <c r="CR20" s="33" t="str">
+      <c r="CQ20" s="31"/>
+      <c r="CR20" s="34"/>
+      <c r="CS20" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS20" s="31"/>
-      <c r="CT20" s="34"/>
-      <c r="CU20" s="33" t="str">
+      <c r="CT20" s="31"/>
+      <c r="CU20" s="34"/>
+      <c r="CV20" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="35"/>
+      <c r="CW20" s="35"/>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5" t="s">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="76" t="str">
+      <c r="F21" s="76" t="str">
         <f t="shared" si="22"/>
         <v>E5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>11</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>0.38958333333333334</v>
       </c>
-      <c r="J21" s="7">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
+      <c r="K21" s="7">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4620889999999997</v>
       </c>
-      <c r="K21" s="7">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
+      <c r="L21" s="7">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,3)</f>
         <v>119.286874</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>70</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>60</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="O21" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>3</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <f t="shared" si="23"/>
         <v>5.6250000000000022E-2</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="R21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="S21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T21" s="5">
         <v>0.52</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="U21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U21" s="8"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="79"/>
       <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
-      <c r="AB21" s="20">
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="20">
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="33" t="str">
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="33" t="str">
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="33" t="str">
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33" t="str">
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="33" t="str">
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="33" t="str">
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="34"/>
+      <c r="BC21" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33" t="str">
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="33" t="str">
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="57"/>
-      <c r="BK21" s="33" t="str">
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="57"/>
+      <c r="BL21" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="33" t="str">
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="33" t="str">
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="33" t="str">
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="33" t="str">
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="32"/>
+      <c r="BX21" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX21" s="41"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="33" t="str">
+      <c r="BY21" s="41"/>
+      <c r="BZ21" s="34"/>
+      <c r="CA21" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="33" t="str">
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="32"/>
-      <c r="CF21" s="33" t="str">
+      <c r="CE21" s="31"/>
+      <c r="CF21" s="32"/>
+      <c r="CG21" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG21" s="31"/>
-      <c r="CH21" s="32"/>
-      <c r="CI21" s="33" t="str">
+      <c r="CH21" s="31"/>
+      <c r="CI21" s="32"/>
+      <c r="CJ21" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ21" s="31"/>
-      <c r="CK21" s="32"/>
-      <c r="CL21" s="33" t="str">
+      <c r="CK21" s="31"/>
+      <c r="CL21" s="32"/>
+      <c r="CM21" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM21" s="31"/>
-      <c r="CN21" s="32"/>
-      <c r="CO21" s="33" t="str">
+      <c r="CN21" s="31"/>
+      <c r="CO21" s="32"/>
+      <c r="CP21" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP21" s="31"/>
-      <c r="CQ21" s="32"/>
-      <c r="CR21" s="33" t="str">
+      <c r="CQ21" s="31"/>
+      <c r="CR21" s="32"/>
+      <c r="CS21" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS21" s="31"/>
-      <c r="CT21" s="57"/>
-      <c r="CU21" s="33" t="str">
+      <c r="CT21" s="31"/>
+      <c r="CU21" s="57"/>
+      <c r="CV21" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV21" s="35"/>
+      <c r="CW21" s="35"/>
     </row>
-    <row r="22" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="77" t="str">
+      <c r="E22" s="11"/>
+      <c r="F22" s="77" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13" t="e">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="K22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
+      <c r="L22" s="13" t="e">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,3)</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="12">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="81"/>
       <c r="X22" s="70"/>
       <c r="Y22" s="70"/>
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
-      <c r="AB22" s="23">
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="23">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
-      <c r="AE22" s="23">
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="23">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="24"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="42" t="str">
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="42" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="42" t="str">
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="42" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="42" t="str">
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="42" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="42" t="str">
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="42" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="42" t="str">
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="42" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="42" t="str">
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="42" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="42" t="str">
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="85"/>
+      <c r="BF22" s="42" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="42" t="str">
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="85"/>
+      <c r="BI22" s="42" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI22" s="38"/>
-      <c r="BJ22" s="40"/>
-      <c r="BK22" s="42" t="str">
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="40"/>
+      <c r="BL22" s="42" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL22" s="38"/>
-      <c r="BM22" s="85"/>
-      <c r="BN22" s="42" t="str">
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="85"/>
+      <c r="BO22" s="42" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO22" s="38"/>
-      <c r="BP22" s="85"/>
-      <c r="BQ22" s="42" t="str">
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="85"/>
+      <c r="BR22" s="42" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR22" s="38"/>
-      <c r="BS22" s="85"/>
-      <c r="BT22" s="42" t="str">
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="85"/>
+      <c r="BU22" s="42" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU22" s="38"/>
-      <c r="BV22" s="85"/>
-      <c r="BW22" s="42" t="str">
+      <c r="BV22" s="38"/>
+      <c r="BW22" s="85"/>
+      <c r="BX22" s="42" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX22" s="86"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="42" t="str">
+      <c r="BY22" s="86"/>
+      <c r="BZ22" s="85"/>
+      <c r="CA22" s="42" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA22" s="38"/>
-      <c r="CB22" s="85"/>
-      <c r="CC22" s="42" t="str">
+      <c r="CB22" s="38"/>
+      <c r="CC22" s="85"/>
+      <c r="CD22" s="42" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="38"/>
-      <c r="CE22" s="85"/>
-      <c r="CF22" s="42" t="str">
+      <c r="CE22" s="38"/>
+      <c r="CF22" s="85"/>
+      <c r="CG22" s="42" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG22" s="38"/>
-      <c r="CH22" s="85"/>
-      <c r="CI22" s="42" t="str">
+      <c r="CH22" s="38"/>
+      <c r="CI22" s="85"/>
+      <c r="CJ22" s="42" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ22" s="38"/>
-      <c r="CK22" s="85"/>
-      <c r="CL22" s="42" t="str">
+      <c r="CK22" s="38"/>
+      <c r="CL22" s="85"/>
+      <c r="CM22" s="42" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM22" s="38"/>
-      <c r="CN22" s="85"/>
-      <c r="CO22" s="42" t="str">
+      <c r="CN22" s="38"/>
+      <c r="CO22" s="85"/>
+      <c r="CP22" s="42" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP22" s="38"/>
-      <c r="CQ22" s="40"/>
-      <c r="CR22" s="42" t="str">
+      <c r="CQ22" s="38"/>
+      <c r="CR22" s="40"/>
+      <c r="CS22" s="42" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS22" s="38"/>
-      <c r="CT22" s="40"/>
-      <c r="CU22" s="42" t="str">
+      <c r="CT22" s="38"/>
+      <c r="CU22" s="40"/>
+      <c r="CV22" s="42" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\08.2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swulfing\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\08.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F103A-7F8D-4BB5-A5ED-11FBF6AE0A53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A42FD38-6CD6-4D46-A24E-EC17D1B8F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadata" sheetId="6" r:id="rId3"/>
     <sheet name="LATLON" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="210">
   <si>
     <t>DATE</t>
   </si>
@@ -627,6 +633,42 @@
   </si>
   <si>
     <t>AUGUST</t>
+  </si>
+  <si>
+    <t>MAXN_GARONGGONG</t>
+  </si>
+  <si>
+    <t>TIME_1STGARONGGONG</t>
+  </si>
+  <si>
+    <t>T1_GARONGGONG</t>
+  </si>
+  <si>
+    <t>MAXN_SANDFISH</t>
+  </si>
+  <si>
+    <t>TIME_1STSANDFISH</t>
+  </si>
+  <si>
+    <t>T1_SANDFISH</t>
+  </si>
+  <si>
+    <t>MAXN_FISHR</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHR</t>
+  </si>
+  <si>
+    <t>T1_FISHR</t>
+  </si>
+  <si>
+    <t>MAXN_BIGBOI</t>
+  </si>
+  <si>
+    <t>TIME_1STBIGBOI</t>
+  </si>
+  <si>
+    <t>T1_BIGBOI</t>
   </si>
 </sst>
 </file>
@@ -867,15 +909,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -888,8 +930,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -900,16 +942,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -917,13 +958,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,10 +973,10 @@
     <xf numFmtId="46" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,11 +988,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -965,29 +1006,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,21 +1304,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CW22"/>
+  <dimension ref="A1:DI22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="22" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="9" max="22" width="8.7265625" customWidth="1"/>
     <col min="23" max="29" width="8.7265625" style="1" customWidth="1"/>
     <col min="30" max="36" width="8.7265625" customWidth="1"/>
     <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
@@ -1292,16 +1330,18 @@
     <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.7265625" style="73"/>
-    <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:113" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
@@ -1317,7 +1357,7 @@
       <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1410,203 +1450,239 @@
       <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="60" t="s">
+      <c r="AK1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="83" t="s">
+      <c r="AL1" s="81" t="s">
         <v>48</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="60" t="s">
+      <c r="AN1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="83" t="s">
+      <c r="AO1" s="81" t="s">
         <v>55</v>
       </c>
       <c r="AP1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="60" t="s">
+      <c r="AQ1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="83" t="s">
+      <c r="AR1" s="81" t="s">
         <v>39</v>
       </c>
       <c r="AS1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="60" t="s">
+      <c r="AT1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="83" t="s">
+      <c r="AU1" s="81" t="s">
         <v>52</v>
       </c>
       <c r="AV1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="60" t="s">
+      <c r="AW1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="83" t="s">
+      <c r="AX1" s="81" t="s">
         <v>129</v>
       </c>
       <c r="AY1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="60" t="s">
+      <c r="AZ1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="BA1" s="83" t="s">
+      <c r="BA1" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB1" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC1" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BC1" s="60" t="s">
+      <c r="BF1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="BD1" s="83" t="s">
+      <c r="BG1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="60" t="s">
+      <c r="BI1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="83" t="s">
+      <c r="BJ1" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="BH1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" s="60" t="s">
+      <c r="BL1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="BJ1" s="83" t="s">
+      <c r="BM1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="27" t="s">
+      <c r="BN1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="60" t="s">
+      <c r="BO1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" s="83" t="s">
+      <c r="BP1" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="27" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" s="60" t="s">
+      <c r="BR1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" s="83" t="s">
+      <c r="BS1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" s="27" t="s">
+      <c r="BT1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" s="60" t="s">
+      <c r="BU1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="BS1" s="83" t="s">
+      <c r="BV1" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="27" t="s">
+      <c r="BW1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="60" t="s">
+      <c r="BX1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="BV1" s="83" t="s">
+      <c r="BY1" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="BW1" s="27" t="s">
+      <c r="BZ1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BX1" s="60" t="s">
+      <c r="CA1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" s="84" t="s">
+      <c r="CB1" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="BZ1" s="27" t="s">
+      <c r="CC1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="CA1" s="60" t="s">
+      <c r="CD1" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="CB1" s="83" t="s">
+      <c r="CE1" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="CC1" s="27" t="s">
+      <c r="CF1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CD1" s="60" t="s">
+      <c r="CG1" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="CE1" s="83" t="s">
+      <c r="CH1" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI1" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ1" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK1" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="CF1" s="27" t="s">
+      <c r="CL1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CG1" s="60" t="s">
+      <c r="CM1" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="CH1" s="83" t="s">
+      <c r="CN1" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="CI1" s="27" t="s">
+      <c r="CO1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CJ1" s="60" t="s">
+      <c r="CP1" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="CK1" s="83" t="s">
+      <c r="CQ1" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="CL1" s="27" t="s">
+      <c r="CR1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CM1" s="60" t="s">
+      <c r="CS1" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="CN1" s="83" t="s">
+      <c r="CT1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="CO1" s="27" t="s">
+      <c r="CU1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CP1" s="60" t="s">
+      <c r="CV1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="CQ1" s="83" t="s">
+      <c r="CW1" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="CR1" s="27" t="s">
+      <c r="CX1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CS1" s="60" t="s">
+      <c r="CY1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="CT1" s="83" t="s">
+      <c r="CZ1" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="DA1" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="DB1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC1" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="DD1" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="DE1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="CU1" s="27" t="s">
+      <c r="DG1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CV1" s="60" t="s">
+      <c r="DH1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="CW1" s="28" t="s">
+      <c r="DI1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>197</v>
       </c>
@@ -1622,7 +1698,7 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="76" t="str">
+      <c r="F2" s="74" t="str">
         <f>D2&amp;""&amp;E2</f>
         <v>E2</v>
       </c>
@@ -1703,128 +1779,152 @@
         <v>NA</v>
       </c>
       <c r="AO2" s="31"/>
-      <c r="AP2" s="57"/>
+      <c r="AP2" s="56"/>
       <c r="AQ2" s="33" t="str">
         <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="57"/>
       <c r="AT2" s="33" t="str">
         <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="57"/>
       <c r="AW2" s="33" t="str">
         <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="57"/>
       <c r="AZ2" s="33" t="str">
         <f t="shared" ref="AZ2:AZ22" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="57"/>
       <c r="BC2" s="33" t="str">
-        <f t="shared" ref="BC2:BC13" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="58"/>
+        <f t="shared" ref="BC2:BC22" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="57"/>
       <c r="BF2" s="33" t="str">
         <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="57"/>
       <c r="BI2" s="33" t="str">
         <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="57"/>
       <c r="BL2" s="33" t="str">
         <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="57"/>
       <c r="BO2" s="33" t="str">
         <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="57"/>
       <c r="BR2" s="33" t="str">
         <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="74"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="57"/>
       <c r="BU2" s="33" t="str">
         <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="72"/>
       <c r="BX2" s="33" t="str">
-        <f t="shared" ref="BX2:BX22" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BY2" s="41"/>
+        <f t="shared" ref="BX2:BX13" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY2" s="58"/>
       <c r="BZ2" s="57"/>
       <c r="CA2" s="33" t="str">
         <f t="shared" ref="CA2:CA22" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="72"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="56"/>
       <c r="CD2" s="33" t="str">
         <f t="shared" ref="CD2:CD22" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="72"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="71"/>
       <c r="CG2" s="33" t="str">
         <f t="shared" ref="CG2:CG22" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="72"/>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="71"/>
       <c r="CJ2" s="33" t="str">
         <f t="shared" ref="CJ2:CJ22" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CK2" s="59"/>
-      <c r="CL2" s="72"/>
+      <c r="CK2" s="58"/>
+      <c r="CL2" s="71"/>
       <c r="CM2" s="33" t="str">
         <f t="shared" ref="CM2:CM22" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CN2" s="59"/>
-      <c r="CO2" s="72"/>
+      <c r="CN2" s="58"/>
+      <c r="CO2" s="71"/>
       <c r="CP2" s="33" t="str">
         <f t="shared" ref="CP2:CP22" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CQ2" s="59"/>
-      <c r="CR2" s="72"/>
+      <c r="CQ2" s="58"/>
+      <c r="CR2" s="71"/>
       <c r="CS2" s="33" t="str">
         <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CT2" s="59"/>
-      <c r="CU2" s="72"/>
+      <c r="CT2" s="58"/>
+      <c r="CU2" s="71"/>
       <c r="CV2" s="33" t="str">
-        <f t="shared" ref="CV2:CV13" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CW2" s="35"/>
+        <f t="shared" ref="CV2:CV22" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW2" s="58"/>
+      <c r="CX2" s="71"/>
+      <c r="CY2" s="33" t="str">
+        <f t="shared" ref="CY2:CY22" si="22">IF(CW2=0,"NA",CX2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CZ2" s="58"/>
+      <c r="DA2" s="71"/>
+      <c r="DB2" s="33" t="str">
+        <f t="shared" ref="DB2:DB22" si="23">IF(CZ2=0,"NA",DA2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DC2" s="58"/>
+      <c r="DD2" s="71"/>
+      <c r="DE2" s="33" t="str">
+        <f t="shared" ref="DE2:DE22" si="24">IF(DC2=0,"NA",DD2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DF2" s="58"/>
+      <c r="DG2" s="71"/>
+      <c r="DH2" s="33" t="str">
+        <f t="shared" ref="DH2:DH13" si="25">IF(DF2=0,"NA",DG2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DI2" s="35"/>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>197</v>
       </c>
@@ -1840,8 +1940,8 @@
       <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="76" t="str">
-        <f t="shared" ref="F3:F22" si="22">D3&amp;""&amp;E3</f>
+      <c r="F3" s="74" t="str">
+        <f t="shared" ref="F3:F22" si="26">D3&amp;""&amp;E3</f>
         <v>E3</v>
       </c>
       <c r="G3" s="5">
@@ -1877,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q22" si="23">J3-I3</f>
+        <f t="shared" ref="Q3:Q22" si="27">J3-I3</f>
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -1902,7 +2002,7 @@
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20">
-        <f t="shared" ref="AC3:AC22" si="24">SUM(W3:AB3)</f>
+        <f t="shared" ref="AC3:AC22" si="28">SUM(W3:AB3)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="20"/>
@@ -1994,14 +2094,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="57"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="32"/>
       <c r="CA3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB3" s="31"/>
-      <c r="CC3" s="32"/>
+      <c r="CC3" s="56"/>
       <c r="CD3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2042,9 +2142,33 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW3" s="35"/>
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC3" s="31"/>
+      <c r="DD3" s="32"/>
+      <c r="DE3" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF3" s="31"/>
+      <c r="DG3" s="32"/>
+      <c r="DH3" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI3" s="35"/>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>197</v>
       </c>
@@ -2060,8 +2184,8 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F4" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>E1</v>
       </c>
       <c r="G4" s="5">
@@ -2097,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.3611111111111127E-2</v>
       </c>
       <c r="R4" s="6" t="s">
@@ -2120,7 +2244,7 @@
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
       <c r="AC4" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD4" s="20"/>
@@ -2177,7 +2301,7 @@
         <v>NA</v>
       </c>
       <c r="BG4" s="31"/>
-      <c r="BH4" s="34"/>
+      <c r="BH4" s="32"/>
       <c r="BI4" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -2189,7 +2313,7 @@
         <v>NA</v>
       </c>
       <c r="BM4" s="31"/>
-      <c r="BN4" s="32"/>
+      <c r="BN4" s="34"/>
       <c r="BO4" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
@@ -2212,14 +2336,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="57"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="32"/>
       <c r="CA4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB4" s="31"/>
-      <c r="CC4" s="34"/>
+      <c r="CC4" s="56"/>
       <c r="CD4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2260,9 +2384,33 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW4" s="35"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="34"/>
+      <c r="CY4" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ4" s="31"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC4" s="31"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF4" s="31"/>
+      <c r="DG4" s="34"/>
+      <c r="DH4" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI4" s="35"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>197</v>
       </c>
@@ -2278,8 +2426,8 @@
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F5" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D2</v>
       </c>
       <c r="G5" s="5">
@@ -2315,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -2338,7 +2486,7 @@
       <c r="AA5" s="20"/>
       <c r="AB5" s="20"/>
       <c r="AC5" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD5" s="20"/>
@@ -2430,14 +2578,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="57"/>
+      <c r="BY5" s="31"/>
+      <c r="BZ5" s="32"/>
       <c r="CA5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB5" s="31"/>
-      <c r="CC5" s="32"/>
+      <c r="CC5" s="56"/>
       <c r="CD5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2478,9 +2626,33 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW5" s="35"/>
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF5" s="31"/>
+      <c r="DG5" s="32"/>
+      <c r="DH5" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI5" s="35"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>197</v>
       </c>
@@ -2496,8 +2668,8 @@
       <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F6" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D3</v>
       </c>
       <c r="G6" s="5">
@@ -2533,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.0833333333333304E-2</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -2556,7 +2728,7 @@
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD6" s="20"/>
@@ -2648,14 +2820,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY6" s="41"/>
-      <c r="BZ6" s="57"/>
+      <c r="BY6" s="31"/>
+      <c r="BZ6" s="32"/>
       <c r="CA6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB6" s="31"/>
-      <c r="CC6" s="32"/>
+      <c r="CC6" s="56"/>
       <c r="CD6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2696,9 +2868,33 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW6" s="35"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ6" s="31"/>
+      <c r="DA6" s="32"/>
+      <c r="DB6" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC6" s="31"/>
+      <c r="DD6" s="32"/>
+      <c r="DE6" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF6" s="31"/>
+      <c r="DG6" s="32"/>
+      <c r="DH6" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI6" s="35"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>197</v>
       </c>
@@ -2714,8 +2910,8 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F7" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L2</v>
       </c>
       <c r="G7" s="5">
@@ -2751,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="R7" s="6" t="s">
@@ -2774,7 +2970,7 @@
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD7" s="20"/>
@@ -2866,14 +3062,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="57"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="32"/>
       <c r="CA7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB7" s="31"/>
-      <c r="CC7" s="32"/>
+      <c r="CC7" s="56"/>
       <c r="CD7" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2914,9 +3110,33 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW7" s="35"/>
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="32"/>
+      <c r="CY7" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ7" s="31"/>
+      <c r="DA7" s="32"/>
+      <c r="DB7" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC7" s="31"/>
+      <c r="DD7" s="32"/>
+      <c r="DE7" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF7" s="31"/>
+      <c r="DG7" s="32"/>
+      <c r="DH7" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI7" s="35"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>197</v>
       </c>
@@ -2932,8 +3152,8 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F8" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L1</v>
       </c>
       <c r="G8" s="5">
@@ -2969,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="R8" s="6" t="s">
@@ -2992,7 +3212,7 @@
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD8" s="20"/>
@@ -3013,7 +3233,7 @@
         <v>NA</v>
       </c>
       <c r="AO8" s="31"/>
-      <c r="AP8" s="71"/>
+      <c r="AP8" s="70"/>
       <c r="AQ8" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -3084,14 +3304,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="57"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="32"/>
       <c r="CA8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB8" s="31"/>
-      <c r="CC8" s="32"/>
+      <c r="CC8" s="56"/>
       <c r="CD8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3121,20 +3341,44 @@
         <v>NA</v>
       </c>
       <c r="CQ8" s="31"/>
-      <c r="CR8" s="71"/>
+      <c r="CR8" s="32"/>
       <c r="CS8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT8" s="31"/>
-      <c r="CU8" s="71"/>
+      <c r="CU8" s="32"/>
       <c r="CV8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW8" s="35"/>
+      <c r="CW8" s="31"/>
+      <c r="CX8" s="70"/>
+      <c r="CY8" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ8" s="31"/>
+      <c r="DA8" s="70"/>
+      <c r="DB8" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC8" s="31"/>
+      <c r="DD8" s="70"/>
+      <c r="DE8" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF8" s="31"/>
+      <c r="DG8" s="70"/>
+      <c r="DH8" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI8" s="35"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
@@ -3150,8 +3394,8 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F9" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L3</v>
       </c>
       <c r="G9" s="5">
@@ -3187,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.8333333333333293E-2</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -3210,7 +3454,7 @@
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD9" s="20"/>
@@ -3273,13 +3517,13 @@
         <v>NA</v>
       </c>
       <c r="BJ9" s="31"/>
-      <c r="BK9" s="34"/>
+      <c r="BK9" s="32"/>
       <c r="BL9" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BM9" s="31"/>
-      <c r="BN9" s="32"/>
+      <c r="BN9" s="34"/>
       <c r="BO9" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
@@ -3302,14 +3546,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="57"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="32"/>
       <c r="CA9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB9" s="31"/>
-      <c r="CC9" s="32"/>
+      <c r="CC9" s="56"/>
       <c r="CD9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3339,20 +3583,44 @@
         <v>NA</v>
       </c>
       <c r="CQ9" s="31"/>
-      <c r="CR9" s="57"/>
+      <c r="CR9" s="32"/>
       <c r="CS9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT9" s="31"/>
-      <c r="CU9" s="57"/>
+      <c r="CU9" s="32"/>
       <c r="CV9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW9" s="35"/>
+      <c r="CW9" s="31"/>
+      <c r="CX9" s="56"/>
+      <c r="CY9" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ9" s="31"/>
+      <c r="DA9" s="56"/>
+      <c r="DB9" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC9" s="31"/>
+      <c r="DD9" s="56"/>
+      <c r="DE9" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF9" s="31"/>
+      <c r="DG9" s="56"/>
+      <c r="DH9" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI9" s="35"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>197</v>
       </c>
@@ -3368,8 +3636,8 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F10" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D1</v>
       </c>
       <c r="G10" s="5">
@@ -3405,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.6944444444444409E-2</v>
       </c>
       <c r="R10" s="6" t="s">
@@ -3421,38 +3689,54 @@
         <v>157</v>
       </c>
       <c r="V10" s="8"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
+      <c r="W10" s="19">
+        <v>1.4965277777777777E-2</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>1.150462962962963E-2</v>
+      </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="20"/>
+        <f t="shared" si="28"/>
+        <v>4.1331018518518517E-2</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>4.5138888888888885E-3</v>
+      </c>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="21"/>
+        <v>3.681712962962963E-2</v>
+      </c>
+      <c r="AG10" s="78"/>
       <c r="AH10" s="21"/>
       <c r="AI10" s="22"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="30"/>
+      <c r="AJ10" s="29">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="30">
+        <v>2</v>
+      </c>
       <c r="AL10" s="31"/>
       <c r="AM10" s="34"/>
       <c r="AN10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="33" t="str">
+      <c r="AO10" s="31">
+        <v>4</v>
+      </c>
+      <c r="AP10" s="34">
+        <v>8.5879629629629622E-3</v>
+      </c>
+      <c r="AQ10" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>4.0740740740740737E-3</v>
       </c>
       <c r="AR10" s="31"/>
       <c r="AS10" s="32"/>
@@ -3496,11 +3780,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM10" s="31"/>
-      <c r="BN10" s="32"/>
-      <c r="BO10" s="33" t="str">
+      <c r="BM10" s="31">
+        <v>3</v>
+      </c>
+      <c r="BN10" s="34">
+        <v>4.6759259259259263E-3</v>
+      </c>
+      <c r="BO10" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>1.6203703703703779E-4</v>
       </c>
       <c r="BP10" s="31"/>
       <c r="BQ10" s="32"/>
@@ -3520,14 +3808,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="57"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="32"/>
       <c r="CA10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB10" s="31"/>
-      <c r="CC10" s="34"/>
+      <c r="CC10" s="56"/>
       <c r="CD10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3568,9 +3856,33 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW10" s="35"/>
+      <c r="CW10" s="31"/>
+      <c r="CX10" s="34"/>
+      <c r="CY10" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ10" s="31"/>
+      <c r="DA10" s="34"/>
+      <c r="DB10" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC10" s="31"/>
+      <c r="DD10" s="34"/>
+      <c r="DE10" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF10" s="31"/>
+      <c r="DG10" s="34"/>
+      <c r="DH10" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI10" s="35"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>197</v>
       </c>
@@ -3586,8 +3898,8 @@
       <c r="E11" s="5">
         <v>4</v>
       </c>
-      <c r="F11" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F11" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D4</v>
       </c>
       <c r="G11" s="5">
@@ -3623,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>8.6111111111111083E-2</v>
       </c>
       <c r="R11" s="6" t="s">
@@ -3639,27 +3951,49 @@
         <v>157</v>
       </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
+      <c r="W11" s="19">
+        <v>2.1076388888888888E-2</v>
+      </c>
+      <c r="X11" s="20">
+        <v>1.4907407407407407E-2</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>1.4849537037037038E-2</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>4.6064814814814814E-3</v>
+      </c>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+        <f t="shared" si="28"/>
+        <v>7.0300925925925919E-2</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>4.178240740740741E-3</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>2.3020833333333334E-2</v>
+      </c>
       <c r="AF11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
+        <v>4.3101851851851836E-2</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>90</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>80</v>
+      </c>
       <c r="AI11" s="22"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="30"/>
+      <c r="AJ11" s="29">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="30">
+        <v>2</v>
+      </c>
       <c r="AL11" s="31"/>
       <c r="AM11" s="34"/>
       <c r="AN11" s="33" t="str">
@@ -3697,31 +4031,35 @@
         <v>NA</v>
       </c>
       <c r="BD11" s="31"/>
-      <c r="BE11" s="32"/>
+      <c r="BE11" s="34"/>
       <c r="BF11" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BG11" s="31"/>
-      <c r="BH11" s="34"/>
+      <c r="BH11" s="32"/>
       <c r="BI11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BJ11" s="31"/>
-      <c r="BK11" s="32"/>
+      <c r="BK11" s="34"/>
       <c r="BL11" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM11" s="31"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="33" t="str">
+      <c r="BM11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="34">
+        <v>1.3425925925925926E-2</v>
+      </c>
+      <c r="BO11" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>9.2476851851851852E-3</v>
       </c>
       <c r="BP11" s="31"/>
-      <c r="BQ11" s="32"/>
+      <c r="BQ11" s="34"/>
       <c r="BR11" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -3738,14 +4076,14 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY11" s="41"/>
-      <c r="BZ11" s="57"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="32"/>
       <c r="CA11" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB11" s="31"/>
-      <c r="CC11" s="34"/>
+      <c r="CC11" s="56"/>
       <c r="CD11" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3786,9 +4124,37 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW11" s="35"/>
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="34"/>
+      <c r="DB11" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC11" s="31">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="34">
+        <v>2.5601851851851851E-2</v>
+      </c>
+      <c r="DE11" s="33">
+        <f t="shared" si="24"/>
+        <v>2.1423611111111109E-2</v>
+      </c>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="34"/>
+      <c r="DH11" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI11" s="35"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>197</v>
       </c>
@@ -3804,8 +4170,8 @@
       <c r="E12" s="5">
         <v>6</v>
       </c>
-      <c r="F12" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F12" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L6</v>
       </c>
       <c r="G12" s="5">
@@ -3841,7 +4207,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>8.4722222222222199E-2</v>
       </c>
       <c r="R12" s="6" t="s">
@@ -3857,38 +4223,62 @@
         <v>157</v>
       </c>
       <c r="V12" s="8"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="W12" s="19">
+        <v>2.7523148148148147E-2</v>
+      </c>
+      <c r="X12" s="20">
+        <v>2.1006944444444446E-2</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>1.787037037037037E-2</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>2.6041666666666665E-3</v>
+      </c>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
+        <f t="shared" si="28"/>
+        <v>6.9004629629629638E-2</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>4.1898148148148146E-3</v>
+      </c>
+      <c r="AE12" s="87">
+        <v>2.255787037037037E-2</v>
+      </c>
       <c r="AF12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
+        <v>4.2256944444444458E-2</v>
+      </c>
+      <c r="AG12" s="21">
+        <v>50</v>
+      </c>
+      <c r="AH12" s="21">
+        <v>100</v>
+      </c>
       <c r="AI12" s="22"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="30"/>
+      <c r="AJ12" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="30">
+        <v>4</v>
+      </c>
       <c r="AL12" s="31"/>
       <c r="AM12" s="34"/>
       <c r="AN12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="33" t="str">
+      <c r="AO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="34">
+        <v>1.8263888888888889E-2</v>
+      </c>
+      <c r="AQ12" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>1.4074074074074074E-2</v>
       </c>
       <c r="AR12" s="31"/>
       <c r="AS12" s="32"/>
@@ -3908,17 +4298,25 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="32"/>
-      <c r="BC12" s="33" t="str">
+      <c r="BA12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="34">
+        <v>3.2418981481481479E-2</v>
+      </c>
+      <c r="BC12" s="33">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="33" t="str">
+        <v>2.8229166666666666E-2</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="34">
+        <v>1.3773148148148149E-2</v>
+      </c>
+      <c r="BF12" s="33">
         <f t="shared" si="7"/>
-        <v>NA</v>
+        <v>9.5833333333333343E-3</v>
       </c>
       <c r="BG12" s="31"/>
       <c r="BH12" s="32"/>
@@ -3932,11 +4330,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM12" s="31"/>
-      <c r="BN12" s="32"/>
-      <c r="BO12" s="33" t="str">
+      <c r="BM12" s="31">
+        <v>3</v>
+      </c>
+      <c r="BN12" s="34">
+        <v>1.9965277777777776E-2</v>
+      </c>
+      <c r="BO12" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>1.5775462962962963E-2</v>
       </c>
       <c r="BP12" s="31"/>
       <c r="BQ12" s="32"/>
@@ -3956,57 +4358,81 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY12" s="41"/>
-      <c r="BZ12" s="57"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="32"/>
       <c r="CA12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB12" s="31"/>
-      <c r="CC12" s="71"/>
+      <c r="CC12" s="56"/>
       <c r="CD12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CE12" s="31"/>
-      <c r="CF12" s="71"/>
+      <c r="CF12" s="70"/>
       <c r="CG12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CH12" s="31"/>
-      <c r="CI12" s="71"/>
+      <c r="CI12" s="70"/>
       <c r="CJ12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
       <c r="CK12" s="31"/>
-      <c r="CL12" s="71"/>
+      <c r="CL12" s="70"/>
       <c r="CM12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="CN12" s="31"/>
-      <c r="CO12" s="71"/>
+      <c r="CO12" s="70"/>
       <c r="CP12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CQ12" s="31"/>
-      <c r="CR12" s="71"/>
+      <c r="CR12" s="70"/>
       <c r="CS12" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT12" s="31"/>
-      <c r="CU12" s="71"/>
+      <c r="CU12" s="70"/>
       <c r="CV12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW12" s="35"/>
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="70"/>
+      <c r="CY12" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="70"/>
+      <c r="DB12" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="70"/>
+      <c r="DE12" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF12" s="31"/>
+      <c r="DG12" s="70"/>
+      <c r="DH12" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI12" s="35"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>197</v>
       </c>
@@ -4022,8 +4448,8 @@
       <c r="E13" s="5">
         <v>5</v>
       </c>
-      <c r="F13" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F13" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="G13" s="5">
@@ -4059,7 +4485,7 @@
         <v>3</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="R13" s="6" t="s">
@@ -4084,7 +4510,7 @@
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD13" s="20"/>
@@ -4141,13 +4567,13 @@
         <v>NA</v>
       </c>
       <c r="BG13" s="31"/>
-      <c r="BH13" s="34"/>
+      <c r="BH13" s="32"/>
       <c r="BI13" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BJ13" s="31"/>
-      <c r="BK13" s="32"/>
+      <c r="BK13" s="34"/>
       <c r="BL13" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
@@ -4165,25 +4591,25 @@
         <v>NA</v>
       </c>
       <c r="BS13" s="31"/>
-      <c r="BT13" s="34"/>
+      <c r="BT13" s="32"/>
       <c r="BU13" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BV13" s="31"/>
-      <c r="BW13" s="32"/>
+      <c r="BW13" s="34"/>
       <c r="BX13" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="57"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="32"/>
       <c r="CA13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB13" s="31"/>
-      <c r="CC13" s="32"/>
+      <c r="CC13" s="56"/>
       <c r="CD13" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -4201,32 +4627,56 @@
         <v>NA</v>
       </c>
       <c r="CK13" s="31"/>
-      <c r="CL13" s="34"/>
+      <c r="CL13" s="32"/>
       <c r="CM13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="CN13" s="31"/>
-      <c r="CO13" s="34"/>
+      <c r="CO13" s="32"/>
       <c r="CP13" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CQ13" s="31"/>
-      <c r="CR13" s="32"/>
+      <c r="CR13" s="34"/>
       <c r="CS13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT13" s="31"/>
-      <c r="CU13" s="32"/>
+      <c r="CU13" s="34"/>
       <c r="CV13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW13" s="35"/>
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="32"/>
+      <c r="CY13" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ13" s="31"/>
+      <c r="DA13" s="32"/>
+      <c r="DB13" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC13" s="31"/>
+      <c r="DD13" s="32"/>
+      <c r="DE13" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF13" s="31"/>
+      <c r="DG13" s="32"/>
+      <c r="DH13" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI13" s="35"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>197</v>
       </c>
@@ -4242,8 +4692,8 @@
       <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F14" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F14" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L5</v>
       </c>
       <c r="G14" s="5">
@@ -4279,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7.0833333333333304E-2</v>
       </c>
       <c r="R14" s="6" t="s">
@@ -4295,49 +4745,67 @@
         <v>157</v>
       </c>
       <c r="V14" s="8"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
+      <c r="W14" s="19">
+        <v>2.0324074074074074E-2</v>
+      </c>
+      <c r="X14" s="20">
+        <v>1.9409722222222221E-2</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>1.0925925925925926E-2</v>
+      </c>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
+        <f t="shared" si="28"/>
+        <v>5.0659722222222217E-2</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>4.7453703703703703E-3</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>3.9814814814814817E-3</v>
+      </c>
       <c r="AF14" s="20">
-        <f t="shared" ref="AF14:AF22" si="25">AC14-AD14-AE14</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
+        <f t="shared" ref="AF14:AF22" si="29">AC14-AD14-AE14</f>
+        <v>4.1932870370370363E-2</v>
+      </c>
+      <c r="AG14" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH14" s="21">
+        <v>40</v>
+      </c>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="30"/>
+      <c r="AJ14" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="30">
+        <v>3</v>
+      </c>
       <c r="AL14" s="31"/>
       <c r="AM14" s="32"/>
       <c r="AN14" s="33" t="str">
-        <f t="shared" ref="AN14:AN22" si="26">IF(AL14=0,"NA",AM14-$AD14)</f>
+        <f t="shared" ref="AN14:AN22" si="30">IF(AL14=0,"NA",AM14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AO14" s="31"/>
       <c r="AP14" s="32"/>
       <c r="AQ14" s="33" t="str">
-        <f t="shared" ref="AQ14:AQ22" si="27">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <f t="shared" ref="AQ14:AQ22" si="31">IF(AO14=0,"NA",AP14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AR14" s="31"/>
       <c r="AS14" s="32"/>
       <c r="AT14" s="33" t="str">
-        <f t="shared" ref="AT14:AT22" si="28">IF(AR14=0,"NA",AS14-$AD14)</f>
+        <f t="shared" ref="AT14:AT22" si="32">IF(AR14=0,"NA",AS14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AU14" s="31"/>
       <c r="AV14" s="32"/>
       <c r="AW14" s="33" t="str">
-        <f t="shared" ref="AW14:AW22" si="29">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <f t="shared" ref="AW14:AW22" si="33">IF(AU14=0,"NA",AV14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AX14" s="31"/>
@@ -4349,59 +4817,63 @@
       <c r="BA14" s="31"/>
       <c r="BB14" s="34"/>
       <c r="BC14" s="33" t="str">
-        <f t="shared" ref="BC14:BC22" si="30">IF(BA14=0,"NA",BB14-$AD14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="32"/>
-      <c r="BF14" s="33" t="str">
-        <f t="shared" ref="BF14:BF22" si="31">IF(BD14=0,"NA",BE14-$AD14)</f>
-        <v>NA</v>
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="BD14" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="34">
+        <v>2.8958333333333332E-2</v>
+      </c>
+      <c r="BF14" s="33">
+        <f t="shared" ref="BF14:BF22" si="34">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <v>2.4212962962962964E-2</v>
       </c>
       <c r="BG14" s="31"/>
-      <c r="BH14" s="34"/>
+      <c r="BH14" s="32"/>
       <c r="BI14" s="33" t="str">
-        <f t="shared" ref="BI14:BI22" si="32">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <f t="shared" ref="BI14:BI22" si="35">IF(BG14=0,"NA",BH14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BJ14" s="31"/>
       <c r="BK14" s="34"/>
       <c r="BL14" s="33" t="str">
-        <f t="shared" ref="BL14:BL22" si="33">IF(BJ14=0,"NA",BK14-$AD14)</f>
+        <f t="shared" ref="BL14:BL22" si="36">IF(BJ14=0,"NA",BK14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BM14" s="31"/>
-      <c r="BN14" s="32"/>
+      <c r="BN14" s="34"/>
       <c r="BO14" s="33" t="str">
-        <f t="shared" ref="BO14:BO22" si="34">IF(BM14=0,"NA",BN14-$AD14)</f>
+        <f t="shared" ref="BO14:BO22" si="37">IF(BM14=0,"NA",BN14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BP14" s="31"/>
       <c r="BQ14" s="32"/>
       <c r="BR14" s="33" t="str">
-        <f t="shared" ref="BR14:BR22" si="35">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <f t="shared" ref="BR14:BR22" si="38">IF(BP14=0,"NA",BQ14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BS14" s="31"/>
-      <c r="BT14" s="34"/>
+      <c r="BT14" s="32"/>
       <c r="BU14" s="33" t="str">
-        <f t="shared" ref="BU14:BU22" si="36">IF(BS14=0,"NA",BT14-$AD14)</f>
+        <f t="shared" ref="BU14:BU22" si="39">IF(BS14=0,"NA",BT14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BV14" s="31"/>
       <c r="BW14" s="34"/>
       <c r="BX14" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="57"/>
+        <f t="shared" ref="BX14:BX22" si="40">IF(BV14=0,"NA",BW14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="34"/>
       <c r="CA14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB14" s="31"/>
-      <c r="CC14" s="32"/>
+      <c r="CC14" s="56"/>
       <c r="CD14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -4439,12 +4911,44 @@
       <c r="CT14" s="31"/>
       <c r="CU14" s="32"/>
       <c r="CV14" s="33" t="str">
-        <f t="shared" ref="CV14:CV22" si="37">IF(CT14=0,"NA",CU14-$AD14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CW14" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="32"/>
+      <c r="CY14" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ14" s="31">
+        <v>1</v>
+      </c>
+      <c r="DA14" s="34">
+        <v>3.9733796296296295E-2</v>
+      </c>
+      <c r="DB14" s="33">
+        <f t="shared" si="23"/>
+        <v>3.4988425925925923E-2</v>
+      </c>
+      <c r="DC14" s="31"/>
+      <c r="DD14" s="32"/>
+      <c r="DE14" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF14" s="31">
+        <v>5</v>
+      </c>
+      <c r="DG14" s="34">
+        <v>3.3321759259259259E-2</v>
+      </c>
+      <c r="DH14" s="33">
+        <f t="shared" ref="DH14:DH22" si="41">IF(DF14=0,"NA",DG14-$AD14)</f>
+        <v>2.8576388888888887E-2</v>
+      </c>
+      <c r="DI14" s="35"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>197</v>
       </c>
@@ -4460,8 +4964,8 @@
       <c r="E15" s="5">
         <v>4</v>
       </c>
-      <c r="F15" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F15" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L4</v>
       </c>
       <c r="G15" s="5">
@@ -4497,7 +5001,7 @@
         <v>4</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="R15" s="6" t="s">
@@ -4522,13 +5026,13 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG15" s="21"/>
@@ -4539,25 +5043,25 @@
       <c r="AL15" s="31"/>
       <c r="AM15" s="34"/>
       <c r="AN15" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AO15" s="31"/>
       <c r="AP15" s="32"/>
       <c r="AQ15" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AR15" s="31"/>
       <c r="AS15" s="32"/>
       <c r="AT15" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AU15" s="31"/>
       <c r="AV15" s="32"/>
       <c r="AW15" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AX15" s="31"/>
@@ -4569,77 +5073,77 @@
       <c r="BA15" s="31"/>
       <c r="BB15" s="32"/>
       <c r="BC15" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BD15" s="31"/>
       <c r="BE15" s="32"/>
       <c r="BF15" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BG15" s="31"/>
-      <c r="BH15" s="34"/>
+      <c r="BH15" s="32"/>
       <c r="BI15" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BJ15" s="31"/>
-      <c r="BK15" s="32"/>
+      <c r="BK15" s="34"/>
       <c r="BL15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BM15" s="31"/>
       <c r="BN15" s="32"/>
       <c r="BO15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BP15" s="31"/>
       <c r="BQ15" s="32"/>
       <c r="BR15" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS15" s="31"/>
-      <c r="BT15" s="34"/>
+      <c r="BT15" s="32"/>
       <c r="BU15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BV15" s="31"/>
-      <c r="BW15" s="71"/>
+      <c r="BW15" s="34"/>
       <c r="BX15" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="57"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="70"/>
       <c r="CA15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB15" s="31"/>
-      <c r="CC15" s="71"/>
+      <c r="CC15" s="56"/>
       <c r="CD15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CE15" s="31"/>
-      <c r="CF15" s="71"/>
+      <c r="CF15" s="70"/>
       <c r="CG15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CH15" s="31"/>
-      <c r="CI15" s="32"/>
+      <c r="CI15" s="70"/>
       <c r="CJ15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
       <c r="CK15" s="31"/>
-      <c r="CL15" s="32"/>
+      <c r="CL15" s="70"/>
       <c r="CM15" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
@@ -4659,12 +5163,36 @@
       <c r="CT15" s="31"/>
       <c r="CU15" s="32"/>
       <c r="CV15" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW15" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="32"/>
+      <c r="CY15" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ15" s="31"/>
+      <c r="DA15" s="32"/>
+      <c r="DB15" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC15" s="31"/>
+      <c r="DD15" s="32"/>
+      <c r="DE15" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF15" s="31"/>
+      <c r="DG15" s="32"/>
+      <c r="DH15" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI15" s="35"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>197</v>
       </c>
@@ -4680,8 +5208,8 @@
       <c r="E16" s="5">
         <v>6</v>
       </c>
-      <c r="F16" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F16" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D6</v>
       </c>
       <c r="G16" s="5">
@@ -4717,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.7638888888888906E-2</v>
       </c>
       <c r="R16" s="6" t="s">
@@ -4740,13 +5268,13 @@
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD16" s="20"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG16" s="21"/>
@@ -4757,25 +5285,25 @@
       <c r="AL16" s="31"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AO16" s="31"/>
       <c r="AP16" s="34"/>
       <c r="AQ16" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AR16" s="31"/>
       <c r="AS16" s="34"/>
       <c r="AT16" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AU16" s="31"/>
       <c r="AV16" s="34"/>
       <c r="AW16" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AX16" s="31"/>
@@ -4787,59 +5315,59 @@
       <c r="BA16" s="31"/>
       <c r="BB16" s="34"/>
       <c r="BC16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BD16" s="31"/>
       <c r="BE16" s="34"/>
       <c r="BF16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BG16" s="31"/>
       <c r="BH16" s="34"/>
-      <c r="BI16" s="57" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="BJ16" s="41"/>
+      <c r="BI16" s="33" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BJ16" s="31"/>
       <c r="BK16" s="34"/>
-      <c r="BL16" s="33" t="str">
-        <f t="shared" si="33"/>
+      <c r="BL16" s="56" t="str">
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BM16" s="31"/>
-      <c r="BN16" s="32"/>
+      <c r="BN16" s="34"/>
       <c r="BO16" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BP16" s="31"/>
       <c r="BQ16" s="32"/>
       <c r="BR16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS16" s="31"/>
-      <c r="BT16" s="57"/>
+      <c r="BT16" s="32"/>
       <c r="BU16" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BV16" s="31"/>
-      <c r="BW16" s="32"/>
+      <c r="BW16" s="56"/>
       <c r="BX16" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY16" s="41"/>
-      <c r="BZ16" s="57"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="32"/>
       <c r="CA16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB16" s="31"/>
-      <c r="CC16" s="34"/>
+      <c r="CC16" s="56"/>
       <c r="CD16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -4877,12 +5405,36 @@
       <c r="CT16" s="31"/>
       <c r="CU16" s="34"/>
       <c r="CV16" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW16" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW16" s="31"/>
+      <c r="CX16" s="34"/>
+      <c r="CY16" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ16" s="31"/>
+      <c r="DA16" s="34"/>
+      <c r="DB16" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC16" s="31"/>
+      <c r="DD16" s="34"/>
+      <c r="DE16" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF16" s="31"/>
+      <c r="DG16" s="34"/>
+      <c r="DH16" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI16" s="35"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -4898,8 +5450,8 @@
       <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="F17" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F17" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="G17" s="5">
@@ -4935,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R17" s="6" t="s">
@@ -4953,49 +5505,65 @@
       <c r="V17" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
+      <c r="W17" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X17" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Y17" s="20">
+        <v>5.6597222222222222E-3</v>
+      </c>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="20"/>
+        <f t="shared" si="28"/>
+        <v>4.1377314814814811E-2</v>
+      </c>
+      <c r="AD17" s="20">
+        <v>5.138888888888889E-3</v>
+      </c>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
+        <f t="shared" si="29"/>
+        <v>3.6238425925925924E-2</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH17" s="21">
+        <v>100</v>
+      </c>
       <c r="AI17" s="22"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="30"/>
+      <c r="AJ17" s="29">
+        <v>4</v>
+      </c>
+      <c r="AK17" s="30">
+        <v>2</v>
+      </c>
       <c r="AL17" s="31"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AO17" s="31"/>
       <c r="AP17" s="34"/>
       <c r="AQ17" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AR17" s="31"/>
       <c r="AS17" s="34"/>
       <c r="AT17" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AU17" s="31"/>
       <c r="AV17" s="34"/>
       <c r="AW17" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AX17" s="31"/>
@@ -5007,59 +5575,67 @@
       <c r="BA17" s="31"/>
       <c r="BB17" s="34"/>
       <c r="BC17" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="BD17" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="34">
+        <v>1.0462962962962962E-2</v>
+      </c>
+      <c r="BF17" s="33">
+        <f t="shared" si="34"/>
+        <v>5.3240740740740731E-3</v>
       </c>
       <c r="BG17" s="31"/>
       <c r="BH17" s="34"/>
       <c r="BI17" s="33" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
-      </c>
-      <c r="BJ17" s="41"/>
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BJ17" s="31"/>
       <c r="BK17" s="34"/>
       <c r="BL17" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BM17" s="41"/>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BM17" s="31"/>
       <c r="BN17" s="34"/>
       <c r="BO17" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BP17" s="41"/>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BP17" s="31"/>
       <c r="BQ17" s="34"/>
       <c r="BR17" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS17" s="31"/>
-      <c r="BT17" s="32"/>
+      <c r="BT17" s="34"/>
       <c r="BU17" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BV17" s="31"/>
-      <c r="BW17" s="32"/>
-      <c r="BX17" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY17" s="41"/>
-      <c r="BZ17" s="57"/>
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BV17" s="31">
+        <v>1</v>
+      </c>
+      <c r="BW17" s="34">
+        <v>6.7592592592592591E-3</v>
+      </c>
+      <c r="BX17" s="33">
+        <f t="shared" si="40"/>
+        <v>1.6203703703703701E-3</v>
+      </c>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="32"/>
       <c r="CA17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB17" s="31"/>
-      <c r="CC17" s="34"/>
+      <c r="CC17" s="56"/>
       <c r="CD17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5097,12 +5673,36 @@
       <c r="CT17" s="31"/>
       <c r="CU17" s="34"/>
       <c r="CV17" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW17" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW17" s="31"/>
+      <c r="CX17" s="34"/>
+      <c r="CY17" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ17" s="31"/>
+      <c r="DA17" s="34"/>
+      <c r="DB17" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC17" s="31"/>
+      <c r="DD17" s="34"/>
+      <c r="DE17" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF17" s="31"/>
+      <c r="DG17" s="34"/>
+      <c r="DH17" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI17" s="35"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>197</v>
       </c>
@@ -5118,8 +5718,8 @@
       <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="F18" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F18" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>L4</v>
       </c>
       <c r="G18" s="5">
@@ -5155,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.9305555555555536E-2</v>
       </c>
       <c r="R18" s="6" t="s">
@@ -5173,50 +5773,74 @@
       <c r="V18" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
+      <c r="W18" s="19">
+        <v>1.787037037037037E-2</v>
+      </c>
+      <c r="X18" s="20">
+        <v>1.787037037037037E-2</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>6.5277777777777782E-3</v>
+      </c>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="20"/>
+        <f t="shared" si="28"/>
+        <v>4.2268518518518518E-2</v>
+      </c>
+      <c r="AD18" s="20">
+        <v>3.7847222222222223E-3</v>
+      </c>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
+        <f t="shared" si="29"/>
+        <v>3.8483796296296294E-2</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH18" s="21">
+        <v>100</v>
+      </c>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="30"/>
+      <c r="AJ18" s="29">
+        <v>7</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>5</v>
+      </c>
       <c r="AL18" s="31"/>
       <c r="AM18" s="34"/>
       <c r="AN18" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>NA</v>
+        <f t="shared" si="30"/>
+        <v>NA</v>
+      </c>
+      <c r="AO18" s="31">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="34">
+        <v>6.4004629629629628E-3</v>
+      </c>
+      <c r="AQ18" s="33">
+        <f t="shared" si="31"/>
+        <v>2.6157407407407405E-3</v>
       </c>
       <c r="AR18" s="31"/>
       <c r="AS18" s="34"/>
       <c r="AT18" s="33" t="str">
-        <f t="shared" si="28"/>
-        <v>NA</v>
-      </c>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
+        <f t="shared" si="32"/>
+        <v>NA</v>
+      </c>
+      <c r="AU18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="34">
+        <v>3.0254629629629631E-2</v>
+      </c>
+      <c r="AW18" s="33">
+        <f t="shared" si="33"/>
+        <v>2.6469907407407407E-2</v>
       </c>
       <c r="AX18" s="31"/>
       <c r="AY18" s="34"/>
@@ -5224,62 +5848,74 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+      <c r="BA18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="34">
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="BC18" s="33">
+        <f t="shared" si="6"/>
+        <v>1.4270833333333332E-2</v>
+      </c>
+      <c r="BD18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="34">
+        <v>1.3020833333333334E-2</v>
+      </c>
+      <c r="BF18" s="33">
+        <f t="shared" si="34"/>
+        <v>9.2361111111111116E-3</v>
       </c>
       <c r="BG18" s="31"/>
       <c r="BH18" s="34"/>
       <c r="BI18" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BJ18" s="31"/>
       <c r="BK18" s="34"/>
       <c r="BL18" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BM18" s="31">
+        <v>5</v>
+      </c>
+      <c r="BN18" s="34">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="BO18" s="33">
+        <f t="shared" si="37"/>
+        <v>8.564814814814815E-4</v>
       </c>
       <c r="BP18" s="31"/>
       <c r="BQ18" s="34"/>
       <c r="BR18" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS18" s="31"/>
-      <c r="BT18" s="32"/>
+      <c r="BT18" s="34"/>
       <c r="BU18" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BV18" s="31"/>
       <c r="BW18" s="32"/>
       <c r="BX18" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY18" s="41"/>
-      <c r="BZ18" s="57"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="32"/>
       <c r="CA18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB18" s="31"/>
-      <c r="CC18" s="34"/>
+      <c r="CC18" s="56"/>
       <c r="CD18" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5317,12 +5953,36 @@
       <c r="CT18" s="31"/>
       <c r="CU18" s="34"/>
       <c r="CV18" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW18" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="34"/>
+      <c r="CY18" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ18" s="31"/>
+      <c r="DA18" s="34"/>
+      <c r="DB18" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC18" s="31"/>
+      <c r="DD18" s="34"/>
+      <c r="DE18" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF18" s="31"/>
+      <c r="DG18" s="34"/>
+      <c r="DH18" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI18" s="35"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>197</v>
       </c>
@@ -5338,8 +5998,8 @@
       <c r="E19" s="5">
         <v>4</v>
       </c>
-      <c r="F19" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F19" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>E4</v>
       </c>
       <c r="G19" s="5">
@@ -5375,7 +6035,7 @@
         <v>4</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.8333333333333293E-2</v>
       </c>
       <c r="R19" s="6" t="s">
@@ -5391,50 +6051,86 @@
         <v>157</v>
       </c>
       <c r="V19" s="8"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
+      <c r="W19" s="19">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="X19" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>1.4965277777777777E-2</v>
+      </c>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
+        <f t="shared" si="28"/>
+        <v>6.204861111111111E-2</v>
+      </c>
+      <c r="AD19" s="20">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="AE19" s="20">
+        <v>1.5659722222222221E-2</v>
+      </c>
       <c r="AF19" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
+        <f t="shared" si="29"/>
+        <v>4.2048611111111113E-2</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>100</v>
+      </c>
       <c r="AI19" s="22"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>NA</v>
-      </c>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="33" t="str">
-        <f t="shared" si="28"/>
-        <v>NA</v>
-      </c>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
+      <c r="AJ19" s="29">
+        <v>7</v>
+      </c>
+      <c r="AK19" s="30">
+        <v>5</v>
+      </c>
+      <c r="AL19" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="34">
+        <v>4.4675925925925924E-3</v>
+      </c>
+      <c r="AN19" s="33">
+        <f t="shared" si="30"/>
+        <v>1.2731481481481448E-4</v>
+      </c>
+      <c r="AO19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="34">
+        <v>3.1550925925925927E-2</v>
+      </c>
+      <c r="AQ19" s="33">
+        <f t="shared" si="31"/>
+        <v>2.721064814814815E-2</v>
+      </c>
+      <c r="AR19" s="31">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="34">
+        <v>4.417824074074074E-2</v>
+      </c>
+      <c r="AT19" s="33">
+        <f t="shared" si="32"/>
+        <v>3.9837962962962964E-2</v>
+      </c>
+      <c r="AU19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="34">
+        <v>7.2106481481481483E-3</v>
+      </c>
+      <c r="AW19" s="33">
+        <f t="shared" si="33"/>
+        <v>2.8703703703703703E-3</v>
       </c>
       <c r="AX19" s="31"/>
       <c r="AY19" s="34"/>
@@ -5445,59 +6141,67 @@
       <c r="BA19" s="31"/>
       <c r="BB19" s="34"/>
       <c r="BC19" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="BD19" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="34">
+        <v>3.9594907407407405E-2</v>
+      </c>
+      <c r="BF19" s="33">
+        <f t="shared" si="34"/>
+        <v>3.5254629629629629E-2</v>
       </c>
       <c r="BG19" s="31"/>
       <c r="BH19" s="34"/>
       <c r="BI19" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BJ19" s="31"/>
       <c r="BK19" s="34"/>
       <c r="BL19" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BM19" s="31">
+        <v>6</v>
+      </c>
+      <c r="BN19" s="34">
+        <v>1.125E-2</v>
+      </c>
+      <c r="BO19" s="33">
+        <f t="shared" si="37"/>
+        <v>6.9097222222222216E-3</v>
       </c>
       <c r="BP19" s="31"/>
       <c r="BQ19" s="34"/>
       <c r="BR19" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="32"/>
+      <c r="BT19" s="34"/>
       <c r="BU19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BV19" s="31"/>
       <c r="BW19" s="32"/>
       <c r="BX19" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY19" s="41"/>
-      <c r="BZ19" s="57"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="32"/>
       <c r="CA19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB19" s="31"/>
-      <c r="CC19" s="34"/>
+      <c r="CC19" s="56"/>
       <c r="CD19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5514,11 +6218,15 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CK19" s="31"/>
-      <c r="CL19" s="34"/>
-      <c r="CM19" s="33" t="str">
+      <c r="CK19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CL19" s="34">
+        <v>8.6574074074074071E-3</v>
+      </c>
+      <c r="CM19" s="33">
         <f t="shared" si="18"/>
-        <v>NA</v>
+        <v>4.3171296296296291E-3</v>
       </c>
       <c r="CN19" s="31"/>
       <c r="CO19" s="34"/>
@@ -5535,12 +6243,40 @@
       <c r="CT19" s="31"/>
       <c r="CU19" s="34"/>
       <c r="CV19" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW19" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="34"/>
+      <c r="CY19" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ19" s="31"/>
+      <c r="DA19" s="34"/>
+      <c r="DB19" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC19" s="31">
+        <v>1</v>
+      </c>
+      <c r="DD19" s="34">
+        <v>9.8379629629629633E-3</v>
+      </c>
+      <c r="DE19" s="33">
+        <f t="shared" si="24"/>
+        <v>5.4976851851851853E-3</v>
+      </c>
+      <c r="DF19" s="31"/>
+      <c r="DG19" s="34"/>
+      <c r="DH19" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI19" s="35"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>197</v>
       </c>
@@ -5556,8 +6292,8 @@
       <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="F20" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F20" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>E6</v>
       </c>
       <c r="G20" s="5">
@@ -5593,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="R20" s="6" t="s">
@@ -5609,49 +6345,69 @@
         <v>157</v>
       </c>
       <c r="V20" s="8"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
+      <c r="W20" s="19">
+        <v>2.045138888888889E-2</v>
+      </c>
+      <c r="X20" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>5.4513888888888893E-3</v>
+      </c>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="20"/>
+        <f t="shared" si="28"/>
+        <v>4.3761574074074071E-2</v>
+      </c>
+      <c r="AD20" s="20">
+        <v>4.7222222222222223E-3</v>
+      </c>
       <c r="AE20" s="20"/>
       <c r="AF20" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
+        <f t="shared" si="29"/>
+        <v>3.9039351851851846E-2</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>80</v>
+      </c>
       <c r="AI20" s="22"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="30"/>
+      <c r="AJ20" s="29">
+        <v>6</v>
+      </c>
+      <c r="AK20" s="30">
+        <v>5</v>
+      </c>
       <c r="AL20" s="31"/>
       <c r="AM20" s="34"/>
       <c r="AN20" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AO20" s="31"/>
       <c r="AP20" s="34"/>
       <c r="AQ20" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>NA</v>
-      </c>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="33" t="str">
-        <f t="shared" si="28"/>
-        <v>NA</v>
+        <f t="shared" si="31"/>
+        <v>NA</v>
+      </c>
+      <c r="AR20" s="31">
+        <v>4</v>
+      </c>
+      <c r="AS20" s="34">
+        <v>2.78125E-2</v>
+      </c>
+      <c r="AT20" s="33">
+        <f t="shared" si="32"/>
+        <v>2.3090277777777779E-2</v>
       </c>
       <c r="AU20" s="31"/>
       <c r="AV20" s="34"/>
       <c r="AW20" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AX20" s="31"/>
@@ -5663,59 +6419,67 @@
       <c r="BA20" s="31"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BD20" s="31"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BG20" s="31"/>
       <c r="BH20" s="34"/>
       <c r="BI20" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BJ20" s="31"/>
       <c r="BK20" s="34"/>
       <c r="BL20" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BM20" s="31"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BM20" s="31">
+        <v>14</v>
+      </c>
+      <c r="BN20" s="34">
+        <v>3.5439814814814813E-2</v>
+      </c>
+      <c r="BO20" s="33">
+        <f t="shared" si="37"/>
+        <v>3.0717592592592591E-2</v>
       </c>
       <c r="BP20" s="31"/>
       <c r="BQ20" s="34"/>
       <c r="BR20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS20" s="31"/>
       <c r="BT20" s="34"/>
       <c r="BU20" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BV20" s="31"/>
-      <c r="BW20" s="34"/>
-      <c r="BX20" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY20" s="41"/>
-      <c r="BZ20" s="57"/>
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BV20" s="31">
+        <v>1</v>
+      </c>
+      <c r="BW20" s="34">
+        <v>1.2314814814814815E-2</v>
+      </c>
+      <c r="BX20" s="33">
+        <f t="shared" si="40"/>
+        <v>7.5925925925925926E-3</v>
+      </c>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="34"/>
       <c r="CA20" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB20" s="31"/>
-      <c r="CC20" s="34"/>
+      <c r="CC20" s="56"/>
       <c r="CD20" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5732,11 +6496,15 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CK20" s="31"/>
-      <c r="CL20" s="34"/>
-      <c r="CM20" s="33" t="str">
+      <c r="CK20" s="31">
+        <v>1</v>
+      </c>
+      <c r="CL20" s="34">
+        <v>8.1597222222222227E-3</v>
+      </c>
+      <c r="CM20" s="33">
         <f t="shared" si="18"/>
-        <v>NA</v>
+        <v>3.4375000000000005E-3</v>
       </c>
       <c r="CN20" s="31"/>
       <c r="CO20" s="34"/>
@@ -5753,12 +6521,40 @@
       <c r="CT20" s="31"/>
       <c r="CU20" s="34"/>
       <c r="CV20" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW20" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW20" s="31"/>
+      <c r="CX20" s="34"/>
+      <c r="CY20" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ20" s="31"/>
+      <c r="DA20" s="34"/>
+      <c r="DB20" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC20" s="31">
+        <v>1</v>
+      </c>
+      <c r="DD20" s="34">
+        <v>1.5868055555555555E-2</v>
+      </c>
+      <c r="DE20" s="33">
+        <f t="shared" si="24"/>
+        <v>1.1145833333333334E-2</v>
+      </c>
+      <c r="DF20" s="31"/>
+      <c r="DG20" s="34"/>
+      <c r="DH20" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI20" s="35"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:113" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>197</v>
       </c>
@@ -5774,8 +6570,8 @@
       <c r="E21" s="5">
         <v>5</v>
       </c>
-      <c r="F21" s="76" t="str">
-        <f t="shared" si="22"/>
+      <c r="F21" s="74" t="str">
+        <f t="shared" si="26"/>
         <v>E5</v>
       </c>
       <c r="G21" s="5">
@@ -5811,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -5827,49 +6623,67 @@
         <v>157</v>
       </c>
       <c r="V21" s="8"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
+      <c r="W21" s="76">
+        <v>1.8587962962962962E-2</v>
+      </c>
+      <c r="X21" s="77">
+        <v>1.787037037037037E-2</v>
+      </c>
+      <c r="Y21" s="77">
+        <v>1.1759259259259259E-2</v>
+      </c>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
       <c r="AC21" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
+        <f t="shared" si="28"/>
+        <v>4.821759259259259E-2</v>
+      </c>
+      <c r="AD21" s="78">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="AE21" s="78">
+        <v>1.2731481481481483E-3</v>
+      </c>
       <c r="AF21" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
+        <f t="shared" si="29"/>
+        <v>4.2604166666666665E-2</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH21" s="21">
+        <v>100</v>
+      </c>
       <c r="AI21" s="22"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="30"/>
+      <c r="AJ21" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="30">
+        <v>3</v>
+      </c>
       <c r="AL21" s="31"/>
       <c r="AM21" s="32"/>
       <c r="AN21" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AO21" s="31"/>
       <c r="AP21" s="32"/>
       <c r="AQ21" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AR21" s="31"/>
       <c r="AS21" s="32"/>
       <c r="AT21" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AU21" s="31"/>
       <c r="AV21" s="32"/>
       <c r="AW21" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AX21" s="31"/>
@@ -5881,59 +6695,63 @@
       <c r="BA21" s="31"/>
       <c r="BB21" s="34"/>
       <c r="BC21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BD21" s="31"/>
-      <c r="BE21" s="32"/>
+      <c r="BE21" s="34"/>
       <c r="BF21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BG21" s="31"/>
       <c r="BH21" s="32"/>
       <c r="BI21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BJ21" s="31"/>
-      <c r="BK21" s="57"/>
+      <c r="BK21" s="32"/>
       <c r="BL21" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="32"/>
-      <c r="BO21" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BM21" s="31">
+        <v>9</v>
+      </c>
+      <c r="BN21" s="56">
+        <v>1.0254629629629629E-2</v>
+      </c>
+      <c r="BO21" s="33">
+        <f t="shared" si="37"/>
+        <v>5.9143518518518512E-3</v>
       </c>
       <c r="BP21" s="31"/>
       <c r="BQ21" s="32"/>
       <c r="BR21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS21" s="31"/>
       <c r="BT21" s="32"/>
       <c r="BU21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BV21" s="31"/>
       <c r="BW21" s="32"/>
       <c r="BX21" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY21" s="41"/>
-      <c r="BZ21" s="34"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BY21" s="31"/>
+      <c r="BZ21" s="32"/>
       <c r="CA21" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB21" s="31"/>
-      <c r="CC21" s="32"/>
+      <c r="CC21" s="34"/>
       <c r="CD21" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5969,21 +6787,53 @@
         <v>NA</v>
       </c>
       <c r="CT21" s="31"/>
-      <c r="CU21" s="57"/>
+      <c r="CU21" s="32"/>
       <c r="CV21" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW21" s="35"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW21" s="31"/>
+      <c r="CX21" s="32"/>
+      <c r="CY21" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ21" s="31"/>
+      <c r="DA21" s="32"/>
+      <c r="DB21" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC21" s="31">
+        <v>1</v>
+      </c>
+      <c r="DD21" s="56">
+        <v>1.361111111111111E-2</v>
+      </c>
+      <c r="DE21" s="33">
+        <f t="shared" si="24"/>
+        <v>9.2708333333333323E-3</v>
+      </c>
+      <c r="DF21" s="31">
+        <v>2</v>
+      </c>
+      <c r="DG21" s="56">
+        <v>3.005787037037037E-2</v>
+      </c>
+      <c r="DH21" s="33">
+        <f t="shared" si="41"/>
+        <v>2.5717592592592591E-2</v>
+      </c>
+      <c r="DI21" s="35"/>
     </row>
-    <row r="22" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:113" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="77" t="str">
-        <f t="shared" si="22"/>
+      <c r="F22" s="75" t="str">
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G22" s="11"/>
@@ -6003,7 +6853,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R22" s="11"/>
@@ -6011,20 +6861,20 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
       <c r="AC22" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
       <c r="AF22" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG22" s="24"/>
@@ -6034,131 +6884,155 @@
       <c r="AK22" s="37"/>
       <c r="AL22" s="38"/>
       <c r="AM22" s="40"/>
-      <c r="AN22" s="42" t="str">
-        <f t="shared" si="26"/>
+      <c r="AN22" s="41" t="str">
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AO22" s="38"/>
       <c r="AP22" s="40"/>
-      <c r="AQ22" s="42" t="str">
-        <f t="shared" si="27"/>
+      <c r="AQ22" s="41" t="str">
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AR22" s="38"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="42" t="str">
-        <f t="shared" si="28"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="41" t="str">
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AU22" s="38"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="42" t="str">
-        <f t="shared" si="29"/>
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="41" t="str">
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AX22" s="38"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="42" t="str">
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="41" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="BA22" s="38"/>
       <c r="BB22" s="40"/>
-      <c r="BC22" s="42" t="str">
-        <f t="shared" si="30"/>
+      <c r="BC22" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BD22" s="38"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="42" t="str">
-        <f t="shared" si="31"/>
+      <c r="BE22" s="40"/>
+      <c r="BF22" s="41" t="str">
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BG22" s="38"/>
-      <c r="BH22" s="85"/>
-      <c r="BI22" s="42" t="str">
-        <f t="shared" si="32"/>
+      <c r="BH22" s="82"/>
+      <c r="BI22" s="41" t="str">
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BJ22" s="38"/>
-      <c r="BK22" s="40"/>
-      <c r="BL22" s="42" t="str">
-        <f t="shared" si="33"/>
+      <c r="BK22" s="82"/>
+      <c r="BL22" s="41" t="str">
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BM22" s="38"/>
-      <c r="BN22" s="85"/>
-      <c r="BO22" s="42" t="str">
-        <f t="shared" si="34"/>
+      <c r="BN22" s="40"/>
+      <c r="BO22" s="41" t="str">
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BP22" s="38"/>
-      <c r="BQ22" s="85"/>
-      <c r="BR22" s="42" t="str">
-        <f t="shared" si="35"/>
+      <c r="BQ22" s="82"/>
+      <c r="BR22" s="41" t="str">
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BS22" s="38"/>
-      <c r="BT22" s="85"/>
-      <c r="BU22" s="42" t="str">
-        <f t="shared" si="36"/>
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="41" t="str">
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BV22" s="38"/>
-      <c r="BW22" s="85"/>
-      <c r="BX22" s="42" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BY22" s="86"/>
-      <c r="BZ22" s="85"/>
-      <c r="CA22" s="42" t="str">
+      <c r="BW22" s="82"/>
+      <c r="BX22" s="41" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BY22" s="38"/>
+      <c r="BZ22" s="82"/>
+      <c r="CA22" s="41" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CB22" s="38"/>
-      <c r="CC22" s="85"/>
-      <c r="CD22" s="42" t="str">
+      <c r="CC22" s="82"/>
+      <c r="CD22" s="41" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="CE22" s="38"/>
-      <c r="CF22" s="85"/>
-      <c r="CG22" s="42" t="str">
+      <c r="CF22" s="82"/>
+      <c r="CG22" s="41" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
       <c r="CH22" s="38"/>
-      <c r="CI22" s="85"/>
-      <c r="CJ22" s="42" t="str">
+      <c r="CI22" s="82"/>
+      <c r="CJ22" s="41" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
       <c r="CK22" s="38"/>
-      <c r="CL22" s="85"/>
-      <c r="CM22" s="42" t="str">
+      <c r="CL22" s="82"/>
+      <c r="CM22" s="41" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="CN22" s="38"/>
-      <c r="CO22" s="85"/>
-      <c r="CP22" s="42" t="str">
+      <c r="CO22" s="82"/>
+      <c r="CP22" s="41" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CQ22" s="38"/>
-      <c r="CR22" s="40"/>
-      <c r="CS22" s="42" t="str">
+      <c r="CR22" s="82"/>
+      <c r="CS22" s="41" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CT22" s="38"/>
-      <c r="CU22" s="40"/>
-      <c r="CV22" s="42" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CW22" s="39"/>
+      <c r="CU22" s="82"/>
+      <c r="CV22" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CW22" s="38"/>
+      <c r="CX22" s="40"/>
+      <c r="CY22" s="41" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CZ22" s="38"/>
+      <c r="DA22" s="40"/>
+      <c r="DB22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC22" s="38"/>
+      <c r="DD22" s="40"/>
+      <c r="DE22" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF22" s="38"/>
+      <c r="DG22" s="40"/>
+      <c r="DH22" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DI22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6201,7 +7075,7 @@
       <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -6210,10 +7084,10 @@
       <c r="B3">
         <v>988</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="86">
         <v>45531</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>0.38958333333333334</v>
       </c>
       <c r="E3" t="s">
@@ -6224,10 +7098,10 @@
       <c r="A4" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="86">
         <v>45531</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>0.38472222222222219</v>
       </c>
     </row>
@@ -6238,7 +7112,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D226-4FD3-43E7-AD2C-117D056F41E4}">
-  <dimension ref="A1:CW22"/>
+  <dimension ref="A1:CU22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="AK2" sqref="AK2"/>
@@ -6250,30 +7124,17 @@
     <col min="22" max="28" width="8.7265625" style="1"/>
     <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.7265625" style="88"/>
-    <col min="42" max="42" width="14.453125" style="88" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="8.7265625" style="88"/>
-    <col min="45" max="45" width="10.7265625" style="88" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.7265625" style="88"/>
-    <col min="48" max="48" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="8.7265625" style="88"/>
-    <col min="51" max="51" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="8.7265625" style="88"/>
-    <col min="54" max="54" width="12.81640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="8.7265625" style="88"/>
-    <col min="57" max="57" width="8.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="58" max="75" width="8.7265625" style="88"/>
-    <col min="76" max="76" width="8.7265625" style="89"/>
-    <col min="77" max="77" width="8.7265625" style="88"/>
-    <col min="78" max="78" width="9.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="79" max="83" width="8.7265625" style="88"/>
-    <col min="84" max="84" width="18.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="85" max="95" width="8.7265625" style="88"/>
-    <col min="96" max="96" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="8.7265625" style="88"/>
-    <col min="99" max="99" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.7265625" style="88"/>
+    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6289,7 +7150,7 @@
       <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="73" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -6382,7 +7243,7 @@
       <c r="AI1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AJ1" s="59" t="s">
         <v>11</v>
       </c>
       <c r="AK1" s="26" t="s">
@@ -6396,29 +7257,29 @@
       </c>
     </row>
     <row r="2" spans="1:99" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -6427,124 +7288,124 @@
       <c r="K2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="44" t="s">
         <v>75</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="X2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="49" t="s">
         <v>78</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="49" t="s">
         <v>80</v>
       </c>
       <c r="AE2" s="20" t="e">
         <f t="shared" ref="AE2:AE22" si="0">AB2-AC2-AD2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AF2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="51" t="s">
+      <c r="AG2" s="50" t="s">
         <v>81</v>
       </c>
       <c r="AH2" s="22"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AI2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="54" t="s">
+      <c r="AK2" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="BB2" s="90"/>
-      <c r="BE2" s="90"/>
-      <c r="BH2" s="90"/>
-      <c r="BK2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BQ2" s="90"/>
-      <c r="BS2" s="91"/>
-      <c r="BT2" s="90"/>
-      <c r="BW2" s="90"/>
-      <c r="BY2" s="90"/>
-      <c r="BZ2" s="90"/>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="90"/>
-      <c r="CE2" s="92"/>
-      <c r="CF2" s="90"/>
-      <c r="CH2" s="92"/>
-      <c r="CI2" s="90"/>
-      <c r="CK2" s="92"/>
-      <c r="CL2" s="90"/>
-      <c r="CN2" s="92"/>
-      <c r="CO2" s="90"/>
-      <c r="CQ2" s="92"/>
-      <c r="CR2" s="90"/>
-      <c r="CT2" s="92"/>
-      <c r="CU2" s="90"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BQ2" s="84"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="84"/>
+      <c r="BW2" s="84"/>
+      <c r="BY2" s="84"/>
+      <c r="BZ2" s="84"/>
+      <c r="CB2" s="85"/>
+      <c r="CC2" s="84"/>
+      <c r="CE2" s="85"/>
+      <c r="CF2" s="84"/>
+      <c r="CH2" s="85"/>
+      <c r="CI2" s="84"/>
+      <c r="CK2" s="85"/>
+      <c r="CL2" s="84"/>
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="84"/>
+      <c r="CQ2" s="85"/>
+      <c r="CR2" s="84"/>
+      <c r="CT2" s="85"/>
+      <c r="CU2" s="84"/>
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="76" t="str">
+      <c r="E3" s="74" t="str">
         <f t="shared" ref="E3:E22" si="1">C3&amp;""&amp;D3</f>
         <v/>
       </c>
@@ -6596,38 +7457,38 @@
       <c r="AJ3" s="30"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="34"/>
-      <c r="AM3" s="57" t="str">
+      <c r="AM3" s="56" t="str">
         <f t="shared" ref="AM3:AM22" si="4">IF(AK3=0,"NA",AL3-$AC3)</f>
         <v>NA</v>
       </c>
-      <c r="AP3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BW3" s="90"/>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CU3" s="90"/>
+      <c r="AP3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BT3" s="84"/>
+      <c r="BW3" s="84"/>
+      <c r="BY3" s="84"/>
+      <c r="BZ3" s="84"/>
+      <c r="CC3" s="84"/>
+      <c r="CF3" s="84"/>
+      <c r="CI3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CO3" s="84"/>
+      <c r="CR3" s="84"/>
+      <c r="CU3" s="84"/>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="76" t="str">
+      <c r="E4" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6679,47 +7540,47 @@
       <c r="AJ4" s="30"/>
       <c r="AK4" s="31"/>
       <c r="AL4" s="34"/>
-      <c r="AM4" s="57" t="str">
+      <c r="AM4" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="90"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="90"/>
-      <c r="BN4" s="90"/>
-      <c r="BQ4" s="90"/>
-      <c r="BT4" s="90"/>
-      <c r="BW4" s="90"/>
-      <c r="BY4" s="90"/>
-      <c r="BZ4" s="90"/>
-      <c r="CB4" s="92"/>
-      <c r="CC4" s="90"/>
-      <c r="CE4" s="92"/>
-      <c r="CF4" s="90"/>
-      <c r="CH4" s="92"/>
-      <c r="CI4" s="90"/>
-      <c r="CK4" s="92"/>
-      <c r="CL4" s="90"/>
-      <c r="CN4" s="92"/>
-      <c r="CO4" s="90"/>
-      <c r="CQ4" s="92"/>
-      <c r="CR4" s="90"/>
-      <c r="CT4" s="92"/>
-      <c r="CU4" s="90"/>
+      <c r="AP4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BE4" s="84"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="84"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="84"/>
+      <c r="BN4" s="84"/>
+      <c r="BQ4" s="84"/>
+      <c r="BT4" s="84"/>
+      <c r="BW4" s="84"/>
+      <c r="BY4" s="84"/>
+      <c r="BZ4" s="84"/>
+      <c r="CB4" s="85"/>
+      <c r="CC4" s="84"/>
+      <c r="CE4" s="85"/>
+      <c r="CF4" s="84"/>
+      <c r="CH4" s="85"/>
+      <c r="CI4" s="84"/>
+      <c r="CK4" s="85"/>
+      <c r="CL4" s="84"/>
+      <c r="CN4" s="85"/>
+      <c r="CO4" s="84"/>
+      <c r="CQ4" s="85"/>
+      <c r="CR4" s="84"/>
+      <c r="CT4" s="85"/>
+      <c r="CU4" s="84"/>
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="76" t="str">
+      <c r="E5" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6771,38 +7632,38 @@
       <c r="AJ5" s="30"/>
       <c r="AK5" s="31"/>
       <c r="AL5" s="34"/>
-      <c r="AM5" s="57" t="str">
+      <c r="AM5" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BK5" s="90"/>
-      <c r="BN5" s="90"/>
-      <c r="BQ5" s="90"/>
-      <c r="BT5" s="90"/>
-      <c r="BW5" s="90"/>
-      <c r="BY5" s="90"/>
-      <c r="BZ5" s="90"/>
-      <c r="CC5" s="90"/>
-      <c r="CF5" s="90"/>
-      <c r="CI5" s="90"/>
-      <c r="CL5" s="90"/>
-      <c r="CO5" s="90"/>
-      <c r="CR5" s="90"/>
-      <c r="CU5" s="90"/>
+      <c r="AP5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="BB5" s="84"/>
+      <c r="BE5" s="84"/>
+      <c r="BH5" s="84"/>
+      <c r="BK5" s="84"/>
+      <c r="BN5" s="84"/>
+      <c r="BQ5" s="84"/>
+      <c r="BT5" s="84"/>
+      <c r="BW5" s="84"/>
+      <c r="BY5" s="84"/>
+      <c r="BZ5" s="84"/>
+      <c r="CC5" s="84"/>
+      <c r="CF5" s="84"/>
+      <c r="CI5" s="84"/>
+      <c r="CL5" s="84"/>
+      <c r="CO5" s="84"/>
+      <c r="CR5" s="84"/>
+      <c r="CU5" s="84"/>
     </row>
     <row r="6" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="76" t="str">
+      <c r="E6" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6854,38 +7715,38 @@
       <c r="AJ6" s="30"/>
       <c r="AK6" s="31"/>
       <c r="AL6" s="34"/>
-      <c r="AM6" s="57" t="str">
+      <c r="AM6" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BQ6" s="90"/>
-      <c r="BT6" s="90"/>
-      <c r="BW6" s="90"/>
-      <c r="BY6" s="90"/>
-      <c r="BZ6" s="90"/>
-      <c r="CC6" s="90"/>
-      <c r="CF6" s="90"/>
-      <c r="CI6" s="90"/>
-      <c r="CL6" s="90"/>
-      <c r="CO6" s="90"/>
-      <c r="CR6" s="90"/>
-      <c r="CU6" s="90"/>
+      <c r="AP6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AV6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="BB6" s="84"/>
+      <c r="BE6" s="84"/>
+      <c r="BH6" s="84"/>
+      <c r="BK6" s="84"/>
+      <c r="BN6" s="84"/>
+      <c r="BQ6" s="84"/>
+      <c r="BT6" s="84"/>
+      <c r="BW6" s="84"/>
+      <c r="BY6" s="84"/>
+      <c r="BZ6" s="84"/>
+      <c r="CC6" s="84"/>
+      <c r="CF6" s="84"/>
+      <c r="CI6" s="84"/>
+      <c r="CL6" s="84"/>
+      <c r="CO6" s="84"/>
+      <c r="CR6" s="84"/>
+      <c r="CU6" s="84"/>
     </row>
     <row r="7" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="76" t="str">
+      <c r="E7" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6937,38 +7798,38 @@
       <c r="AJ7" s="30"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="34"/>
-      <c r="AM7" s="57" t="str">
+      <c r="AM7" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BK7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BQ7" s="90"/>
-      <c r="BT7" s="90"/>
-      <c r="BW7" s="90"/>
-      <c r="BY7" s="90"/>
-      <c r="BZ7" s="90"/>
-      <c r="CC7" s="90"/>
-      <c r="CF7" s="90"/>
-      <c r="CI7" s="90"/>
-      <c r="CL7" s="90"/>
-      <c r="CO7" s="90"/>
-      <c r="CR7" s="90"/>
-      <c r="CU7" s="90"/>
+      <c r="AP7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BE7" s="84"/>
+      <c r="BH7" s="84"/>
+      <c r="BK7" s="84"/>
+      <c r="BN7" s="84"/>
+      <c r="BQ7" s="84"/>
+      <c r="BT7" s="84"/>
+      <c r="BW7" s="84"/>
+      <c r="BY7" s="84"/>
+      <c r="BZ7" s="84"/>
+      <c r="CC7" s="84"/>
+      <c r="CF7" s="84"/>
+      <c r="CI7" s="84"/>
+      <c r="CL7" s="84"/>
+      <c r="CO7" s="84"/>
+      <c r="CR7" s="84"/>
+      <c r="CU7" s="84"/>
     </row>
     <row r="8" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="76" t="str">
+      <c r="E8" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7020,41 +7881,41 @@
       <c r="AJ8" s="30"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="34"/>
-      <c r="AM8" s="57" t="str">
+      <c r="AM8" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BK8" s="90"/>
-      <c r="BN8" s="90"/>
-      <c r="BQ8" s="90"/>
-      <c r="BT8" s="90"/>
-      <c r="BW8" s="90"/>
-      <c r="BY8" s="90"/>
-      <c r="BZ8" s="90"/>
-      <c r="CC8" s="90"/>
-      <c r="CF8" s="90"/>
-      <c r="CI8" s="90"/>
-      <c r="CL8" s="90"/>
-      <c r="CO8" s="90"/>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="90"/>
-      <c r="CT8" s="91"/>
-      <c r="CU8" s="90"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="84"/>
+      <c r="AS8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="BB8" s="84"/>
+      <c r="BE8" s="84"/>
+      <c r="BH8" s="84"/>
+      <c r="BK8" s="84"/>
+      <c r="BN8" s="84"/>
+      <c r="BQ8" s="84"/>
+      <c r="BT8" s="84"/>
+      <c r="BW8" s="84"/>
+      <c r="BY8" s="84"/>
+      <c r="BZ8" s="84"/>
+      <c r="CC8" s="84"/>
+      <c r="CF8" s="84"/>
+      <c r="CI8" s="84"/>
+      <c r="CL8" s="84"/>
+      <c r="CO8" s="84"/>
+      <c r="CQ8" s="55"/>
+      <c r="CR8" s="84"/>
+      <c r="CT8" s="55"/>
+      <c r="CU8" s="84"/>
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7106,41 +7967,41 @@
       <c r="AJ9" s="30"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="34"/>
-      <c r="AM9" s="57" t="str">
+      <c r="AM9" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="BB9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BH9" s="90"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BQ9" s="90"/>
-      <c r="BT9" s="90"/>
-      <c r="BW9" s="90"/>
-      <c r="BY9" s="90"/>
-      <c r="BZ9" s="90"/>
-      <c r="CC9" s="90"/>
-      <c r="CF9" s="90"/>
-      <c r="CI9" s="90"/>
-      <c r="CL9" s="90"/>
-      <c r="CO9" s="90"/>
-      <c r="CQ9" s="90"/>
-      <c r="CR9" s="90"/>
-      <c r="CT9" s="90"/>
-      <c r="CU9" s="90"/>
+      <c r="AP9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BE9" s="84"/>
+      <c r="BH9" s="84"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="84"/>
+      <c r="BN9" s="84"/>
+      <c r="BQ9" s="84"/>
+      <c r="BT9" s="84"/>
+      <c r="BW9" s="84"/>
+      <c r="BY9" s="84"/>
+      <c r="BZ9" s="84"/>
+      <c r="CC9" s="84"/>
+      <c r="CF9" s="84"/>
+      <c r="CI9" s="84"/>
+      <c r="CL9" s="84"/>
+      <c r="CO9" s="84"/>
+      <c r="CQ9" s="84"/>
+      <c r="CR9" s="84"/>
+      <c r="CT9" s="84"/>
+      <c r="CU9" s="84"/>
     </row>
     <row r="10" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="76" t="str">
+      <c r="E10" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7192,46 +8053,46 @@
       <c r="AJ10" s="30"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="34"/>
-      <c r="AM10" s="57" t="str">
+      <c r="AM10" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="BB10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BQ10" s="90"/>
-      <c r="BT10" s="90"/>
-      <c r="BW10" s="90"/>
-      <c r="BY10" s="90"/>
-      <c r="BZ10" s="90"/>
-      <c r="CB10" s="92"/>
-      <c r="CC10" s="90"/>
-      <c r="CE10" s="92"/>
-      <c r="CF10" s="90"/>
-      <c r="CH10" s="92"/>
-      <c r="CI10" s="90"/>
-      <c r="CK10" s="92"/>
-      <c r="CL10" s="90"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90"/>
-      <c r="CQ10" s="92"/>
-      <c r="CR10" s="90"/>
-      <c r="CT10" s="92"/>
-      <c r="CU10" s="90"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BE10" s="84"/>
+      <c r="BH10" s="84"/>
+      <c r="BK10" s="84"/>
+      <c r="BN10" s="84"/>
+      <c r="BQ10" s="84"/>
+      <c r="BT10" s="84"/>
+      <c r="BW10" s="84"/>
+      <c r="BY10" s="84"/>
+      <c r="BZ10" s="84"/>
+      <c r="CB10" s="85"/>
+      <c r="CC10" s="84"/>
+      <c r="CE10" s="85"/>
+      <c r="CF10" s="84"/>
+      <c r="CH10" s="85"/>
+      <c r="CI10" s="84"/>
+      <c r="CK10" s="85"/>
+      <c r="CL10" s="84"/>
+      <c r="CN10" s="85"/>
+      <c r="CO10" s="84"/>
+      <c r="CQ10" s="85"/>
+      <c r="CR10" s="84"/>
+      <c r="CT10" s="85"/>
+      <c r="CU10" s="84"/>
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="76" t="str">
+      <c r="E11" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7283,50 +8144,50 @@
       <c r="AJ11" s="30"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="34"/>
-      <c r="AM11" s="57" t="str">
+      <c r="AM11" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="90"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="90"/>
-      <c r="BQ11" s="90"/>
-      <c r="BT11" s="90"/>
-      <c r="BW11" s="90"/>
-      <c r="BY11" s="90"/>
-      <c r="BZ11" s="90"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="90"/>
-      <c r="CE11" s="92"/>
-      <c r="CF11" s="90"/>
-      <c r="CH11" s="92"/>
-      <c r="CI11" s="90"/>
-      <c r="CK11" s="92"/>
-      <c r="CL11" s="90"/>
-      <c r="CN11" s="92"/>
-      <c r="CO11" s="90"/>
-      <c r="CQ11" s="92"/>
-      <c r="CR11" s="90"/>
-      <c r="CT11" s="92"/>
-      <c r="CU11" s="90"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="84"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="84"/>
+      <c r="BE11" s="84"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="84"/>
+      <c r="BK11" s="84"/>
+      <c r="BM11" s="85"/>
+      <c r="BN11" s="84"/>
+      <c r="BQ11" s="84"/>
+      <c r="BT11" s="84"/>
+      <c r="BW11" s="84"/>
+      <c r="BY11" s="84"/>
+      <c r="BZ11" s="84"/>
+      <c r="CB11" s="85"/>
+      <c r="CC11" s="84"/>
+      <c r="CE11" s="85"/>
+      <c r="CF11" s="84"/>
+      <c r="CH11" s="85"/>
+      <c r="CI11" s="84"/>
+      <c r="CK11" s="85"/>
+      <c r="CL11" s="84"/>
+      <c r="CN11" s="85"/>
+      <c r="CO11" s="84"/>
+      <c r="CQ11" s="85"/>
+      <c r="CR11" s="84"/>
+      <c r="CT11" s="85"/>
+      <c r="CU11" s="84"/>
     </row>
     <row r="12" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="76" t="str">
+      <c r="E12" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7378,45 +8239,45 @@
       <c r="AJ12" s="30"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="34"/>
-      <c r="AM12" s="57" t="str">
+      <c r="AM12" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BK12" s="90"/>
-      <c r="BN12" s="90"/>
-      <c r="BQ12" s="90"/>
-      <c r="BT12" s="90"/>
-      <c r="BW12" s="90"/>
-      <c r="BY12" s="90"/>
-      <c r="BZ12" s="90"/>
-      <c r="CB12" s="91"/>
-      <c r="CC12" s="90"/>
-      <c r="CE12" s="91"/>
-      <c r="CF12" s="90"/>
-      <c r="CH12" s="91"/>
-      <c r="CI12" s="90"/>
-      <c r="CK12" s="91"/>
-      <c r="CL12" s="90"/>
-      <c r="CN12" s="91"/>
-      <c r="CO12" s="90"/>
-      <c r="CQ12" s="91"/>
-      <c r="CR12" s="90"/>
-      <c r="CT12" s="91"/>
-      <c r="CU12" s="90"/>
+      <c r="AP12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BE12" s="84"/>
+      <c r="BH12" s="84"/>
+      <c r="BK12" s="84"/>
+      <c r="BN12" s="84"/>
+      <c r="BQ12" s="84"/>
+      <c r="BT12" s="84"/>
+      <c r="BW12" s="84"/>
+      <c r="BY12" s="84"/>
+      <c r="BZ12" s="84"/>
+      <c r="CB12" s="55"/>
+      <c r="CC12" s="84"/>
+      <c r="CE12" s="55"/>
+      <c r="CF12" s="84"/>
+      <c r="CH12" s="55"/>
+      <c r="CI12" s="84"/>
+      <c r="CK12" s="55"/>
+      <c r="CL12" s="84"/>
+      <c r="CN12" s="55"/>
+      <c r="CO12" s="84"/>
+      <c r="CQ12" s="55"/>
+      <c r="CR12" s="84"/>
+      <c r="CT12" s="55"/>
+      <c r="CU12" s="84"/>
     </row>
     <row r="13" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="76" t="str">
+      <c r="E13" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7468,42 +8329,42 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="34"/>
-      <c r="AM13" s="57" t="str">
+      <c r="AM13" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="BB13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="90"/>
-      <c r="BK13" s="90"/>
-      <c r="BN13" s="90"/>
-      <c r="BQ13" s="90"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="90"/>
-      <c r="BW13" s="90"/>
-      <c r="BY13" s="90"/>
-      <c r="BZ13" s="90"/>
-      <c r="CC13" s="90"/>
-      <c r="CF13" s="90"/>
-      <c r="CI13" s="90"/>
-      <c r="CK13" s="92"/>
-      <c r="CL13" s="90"/>
-      <c r="CN13" s="92"/>
-      <c r="CO13" s="90"/>
-      <c r="CR13" s="90"/>
-      <c r="CU13" s="90"/>
+      <c r="AP13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AY13" s="84"/>
+      <c r="BB13" s="84"/>
+      <c r="BE13" s="84"/>
+      <c r="BG13" s="85"/>
+      <c r="BH13" s="84"/>
+      <c r="BK13" s="84"/>
+      <c r="BN13" s="84"/>
+      <c r="BQ13" s="84"/>
+      <c r="BS13" s="85"/>
+      <c r="BT13" s="84"/>
+      <c r="BW13" s="84"/>
+      <c r="BY13" s="84"/>
+      <c r="BZ13" s="84"/>
+      <c r="CC13" s="84"/>
+      <c r="CF13" s="84"/>
+      <c r="CI13" s="84"/>
+      <c r="CK13" s="85"/>
+      <c r="CL13" s="84"/>
+      <c r="CN13" s="85"/>
+      <c r="CO13" s="84"/>
+      <c r="CR13" s="84"/>
+      <c r="CU13" s="84"/>
     </row>
     <row r="14" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="76" t="str">
+      <c r="E14" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7555,44 +8416,44 @@
       <c r="AJ14" s="30"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="32"/>
-      <c r="AM14" s="57" t="str">
+      <c r="AM14" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="90"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="90"/>
-      <c r="BE14" s="90"/>
-      <c r="BG14" s="92"/>
-      <c r="BH14" s="90"/>
-      <c r="BJ14" s="92"/>
-      <c r="BK14" s="90"/>
-      <c r="BN14" s="90"/>
-      <c r="BQ14" s="90"/>
-      <c r="BS14" s="92"/>
-      <c r="BT14" s="90"/>
-      <c r="BV14" s="92"/>
-      <c r="BW14" s="90"/>
-      <c r="BY14" s="90"/>
-      <c r="BZ14" s="90"/>
-      <c r="CC14" s="90"/>
-      <c r="CF14" s="90"/>
-      <c r="CI14" s="90"/>
-      <c r="CL14" s="90"/>
-      <c r="CO14" s="90"/>
-      <c r="CR14" s="90"/>
-      <c r="CU14" s="90"/>
+      <c r="AP14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="84"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="84"/>
+      <c r="BE14" s="84"/>
+      <c r="BG14" s="85"/>
+      <c r="BH14" s="84"/>
+      <c r="BJ14" s="85"/>
+      <c r="BK14" s="84"/>
+      <c r="BN14" s="84"/>
+      <c r="BQ14" s="84"/>
+      <c r="BS14" s="85"/>
+      <c r="BT14" s="84"/>
+      <c r="BV14" s="85"/>
+      <c r="BW14" s="84"/>
+      <c r="BY14" s="84"/>
+      <c r="BZ14" s="84"/>
+      <c r="CC14" s="84"/>
+      <c r="CF14" s="84"/>
+      <c r="CI14" s="84"/>
+      <c r="CL14" s="84"/>
+      <c r="CO14" s="84"/>
+      <c r="CR14" s="84"/>
+      <c r="CU14" s="84"/>
     </row>
     <row r="15" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="76" t="str">
+      <c r="E15" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7644,43 +8505,43 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="34"/>
-      <c r="AM15" s="57" t="str">
+      <c r="AM15" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="BB15" s="90"/>
-      <c r="BE15" s="90"/>
-      <c r="BG15" s="92"/>
-      <c r="BH15" s="90"/>
-      <c r="BK15" s="90"/>
-      <c r="BN15" s="90"/>
-      <c r="BQ15" s="90"/>
-      <c r="BS15" s="92"/>
-      <c r="BT15" s="90"/>
-      <c r="BV15" s="91"/>
-      <c r="BW15" s="90"/>
-      <c r="BY15" s="90"/>
-      <c r="BZ15" s="90"/>
-      <c r="CB15" s="91"/>
-      <c r="CC15" s="90"/>
-      <c r="CE15" s="91"/>
-      <c r="CF15" s="90"/>
-      <c r="CI15" s="90"/>
-      <c r="CL15" s="90"/>
-      <c r="CO15" s="90"/>
-      <c r="CR15" s="90"/>
-      <c r="CU15" s="90"/>
+      <c r="AP15" s="84"/>
+      <c r="AS15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AY15" s="84"/>
+      <c r="BB15" s="84"/>
+      <c r="BE15" s="84"/>
+      <c r="BG15" s="85"/>
+      <c r="BH15" s="84"/>
+      <c r="BK15" s="84"/>
+      <c r="BN15" s="84"/>
+      <c r="BQ15" s="84"/>
+      <c r="BS15" s="85"/>
+      <c r="BT15" s="84"/>
+      <c r="BV15" s="55"/>
+      <c r="BW15" s="84"/>
+      <c r="BY15" s="84"/>
+      <c r="BZ15" s="84"/>
+      <c r="CB15" s="55"/>
+      <c r="CC15" s="84"/>
+      <c r="CE15" s="55"/>
+      <c r="CF15" s="84"/>
+      <c r="CI15" s="84"/>
+      <c r="CL15" s="84"/>
+      <c r="CO15" s="84"/>
+      <c r="CR15" s="84"/>
+      <c r="CU15" s="84"/>
     </row>
     <row r="16" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="76" t="str">
+      <c r="E16" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7732,55 +8593,54 @@
       <c r="AJ16" s="30"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
-      <c r="AM16" s="57" t="str">
+      <c r="AM16" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="90"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="90"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="90"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="90"/>
-      <c r="BA16" s="92"/>
-      <c r="BB16" s="90"/>
-      <c r="BD16" s="92"/>
-      <c r="BE16" s="90"/>
-      <c r="BG16" s="92"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="92"/>
-      <c r="BK16" s="90"/>
-      <c r="BN16" s="90"/>
-      <c r="BQ16" s="90"/>
-      <c r="BS16" s="90"/>
-      <c r="BT16" s="90"/>
-      <c r="BW16" s="90"/>
-      <c r="BY16" s="90"/>
-      <c r="BZ16" s="90"/>
-      <c r="CB16" s="92"/>
-      <c r="CC16" s="90"/>
-      <c r="CE16" s="92"/>
-      <c r="CF16" s="90"/>
-      <c r="CH16" s="92"/>
-      <c r="CI16" s="90"/>
-      <c r="CK16" s="92"/>
-      <c r="CL16" s="90"/>
-      <c r="CN16" s="92"/>
-      <c r="CO16" s="90"/>
-      <c r="CQ16" s="92"/>
-      <c r="CR16" s="90"/>
-      <c r="CT16" s="92"/>
-      <c r="CU16" s="90"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="84"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="84"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="84"/>
+      <c r="AX16" s="85"/>
+      <c r="AY16" s="84"/>
+      <c r="BA16" s="85"/>
+      <c r="BB16" s="84"/>
+      <c r="BD16" s="85"/>
+      <c r="BE16" s="84"/>
+      <c r="BG16" s="85"/>
+      <c r="BH16" s="84"/>
+      <c r="BJ16" s="85"/>
+      <c r="BK16" s="84"/>
+      <c r="BN16" s="84"/>
+      <c r="BQ16" s="84"/>
+      <c r="BS16" s="84"/>
+      <c r="BT16" s="84"/>
+      <c r="BW16" s="84"/>
+      <c r="BY16" s="84"/>
+      <c r="BZ16" s="84"/>
+      <c r="CB16" s="85"/>
+      <c r="CC16" s="84"/>
+      <c r="CE16" s="85"/>
+      <c r="CF16" s="84"/>
+      <c r="CH16" s="85"/>
+      <c r="CI16" s="84"/>
+      <c r="CK16" s="85"/>
+      <c r="CL16" s="84"/>
+      <c r="CN16" s="85"/>
+      <c r="CO16" s="84"/>
+      <c r="CQ16" s="85"/>
+      <c r="CR16" s="84"/>
+      <c r="CT16" s="85"/>
+      <c r="CU16" s="84"/>
     </row>
     <row r="17" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="76" t="str">
+      <c r="E17" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7832,58 +8692,55 @@
       <c r="AJ17" s="30"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
-      <c r="AM17" s="57" t="str">
+      <c r="AM17" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="90"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="90"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="90"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="90"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="90"/>
-      <c r="BD17" s="92"/>
-      <c r="BE17" s="90"/>
-      <c r="BG17" s="92"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="89"/>
-      <c r="BJ17" s="92"/>
-      <c r="BK17" s="90"/>
-      <c r="BL17" s="89"/>
-      <c r="BM17" s="92"/>
-      <c r="BN17" s="90"/>
-      <c r="BO17" s="89"/>
-      <c r="BP17" s="92"/>
-      <c r="BQ17" s="90"/>
-      <c r="BT17" s="90"/>
-      <c r="BW17" s="90"/>
-      <c r="BY17" s="90"/>
-      <c r="BZ17" s="90"/>
-      <c r="CB17" s="92"/>
-      <c r="CC17" s="90"/>
-      <c r="CE17" s="92"/>
-      <c r="CF17" s="90"/>
-      <c r="CH17" s="92"/>
-      <c r="CI17" s="90"/>
-      <c r="CK17" s="92"/>
-      <c r="CL17" s="90"/>
-      <c r="CN17" s="92"/>
-      <c r="CO17" s="90"/>
-      <c r="CQ17" s="92"/>
-      <c r="CR17" s="90"/>
-      <c r="CT17" s="92"/>
-      <c r="CU17" s="90"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="84"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="84"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="84"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="84"/>
+      <c r="BA17" s="85"/>
+      <c r="BB17" s="84"/>
+      <c r="BD17" s="85"/>
+      <c r="BE17" s="84"/>
+      <c r="BG17" s="85"/>
+      <c r="BH17" s="84"/>
+      <c r="BJ17" s="85"/>
+      <c r="BK17" s="84"/>
+      <c r="BM17" s="85"/>
+      <c r="BN17" s="84"/>
+      <c r="BP17" s="85"/>
+      <c r="BQ17" s="84"/>
+      <c r="BT17" s="84"/>
+      <c r="BW17" s="84"/>
+      <c r="BY17" s="84"/>
+      <c r="BZ17" s="84"/>
+      <c r="CB17" s="85"/>
+      <c r="CC17" s="84"/>
+      <c r="CE17" s="85"/>
+      <c r="CF17" s="84"/>
+      <c r="CH17" s="85"/>
+      <c r="CI17" s="84"/>
+      <c r="CK17" s="85"/>
+      <c r="CL17" s="84"/>
+      <c r="CN17" s="85"/>
+      <c r="CO17" s="84"/>
+      <c r="CQ17" s="85"/>
+      <c r="CR17" s="84"/>
+      <c r="CT17" s="85"/>
+      <c r="CU17" s="84"/>
     </row>
     <row r="18" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="76" t="str">
+      <c r="E18" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7935,55 +8792,55 @@
       <c r="AJ18" s="30"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="34"/>
-      <c r="AM18" s="57" t="str">
+      <c r="AM18" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="90"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="90"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="90"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="90"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="90"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="90"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="90"/>
-      <c r="BJ18" s="92"/>
-      <c r="BK18" s="90"/>
-      <c r="BM18" s="92"/>
-      <c r="BN18" s="90"/>
-      <c r="BP18" s="92"/>
-      <c r="BQ18" s="90"/>
-      <c r="BT18" s="90"/>
-      <c r="BW18" s="90"/>
-      <c r="BY18" s="90"/>
-      <c r="BZ18" s="90"/>
-      <c r="CB18" s="92"/>
-      <c r="CC18" s="90"/>
-      <c r="CE18" s="92"/>
-      <c r="CF18" s="90"/>
-      <c r="CH18" s="92"/>
-      <c r="CI18" s="90"/>
-      <c r="CK18" s="92"/>
-      <c r="CL18" s="90"/>
-      <c r="CN18" s="92"/>
-      <c r="CO18" s="90"/>
-      <c r="CQ18" s="92"/>
-      <c r="CR18" s="90"/>
-      <c r="CT18" s="92"/>
-      <c r="CU18" s="90"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="84"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="84"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="84"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="84"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="84"/>
+      <c r="BD18" s="85"/>
+      <c r="BE18" s="84"/>
+      <c r="BG18" s="85"/>
+      <c r="BH18" s="84"/>
+      <c r="BJ18" s="85"/>
+      <c r="BK18" s="84"/>
+      <c r="BM18" s="85"/>
+      <c r="BN18" s="84"/>
+      <c r="BP18" s="85"/>
+      <c r="BQ18" s="84"/>
+      <c r="BT18" s="84"/>
+      <c r="BW18" s="84"/>
+      <c r="BY18" s="84"/>
+      <c r="BZ18" s="84"/>
+      <c r="CB18" s="85"/>
+      <c r="CC18" s="84"/>
+      <c r="CE18" s="85"/>
+      <c r="CF18" s="84"/>
+      <c r="CH18" s="85"/>
+      <c r="CI18" s="84"/>
+      <c r="CK18" s="85"/>
+      <c r="CL18" s="84"/>
+      <c r="CN18" s="85"/>
+      <c r="CO18" s="84"/>
+      <c r="CQ18" s="85"/>
+      <c r="CR18" s="84"/>
+      <c r="CT18" s="85"/>
+      <c r="CU18" s="84"/>
     </row>
     <row r="19" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8035,55 +8892,55 @@
       <c r="AJ19" s="30"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
-      <c r="AM19" s="57" t="str">
+      <c r="AM19" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO19" s="92"/>
-      <c r="AP19" s="90"/>
-      <c r="AR19" s="92"/>
-      <c r="AS19" s="90"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="90"/>
-      <c r="AX19" s="92"/>
-      <c r="AY19" s="90"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="90"/>
-      <c r="BD19" s="92"/>
-      <c r="BE19" s="90"/>
-      <c r="BG19" s="92"/>
-      <c r="BH19" s="90"/>
-      <c r="BJ19" s="92"/>
-      <c r="BK19" s="90"/>
-      <c r="BM19" s="92"/>
-      <c r="BN19" s="90"/>
-      <c r="BP19" s="92"/>
-      <c r="BQ19" s="90"/>
-      <c r="BT19" s="90"/>
-      <c r="BW19" s="90"/>
-      <c r="BY19" s="90"/>
-      <c r="BZ19" s="90"/>
-      <c r="CB19" s="92"/>
-      <c r="CC19" s="90"/>
-      <c r="CE19" s="92"/>
-      <c r="CF19" s="90"/>
-      <c r="CH19" s="92"/>
-      <c r="CI19" s="90"/>
-      <c r="CK19" s="92"/>
-      <c r="CL19" s="90"/>
-      <c r="CN19" s="92"/>
-      <c r="CO19" s="90"/>
-      <c r="CQ19" s="92"/>
-      <c r="CR19" s="90"/>
-      <c r="CT19" s="92"/>
-      <c r="CU19" s="90"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="84"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="84"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="84"/>
+      <c r="AX19" s="85"/>
+      <c r="AY19" s="84"/>
+      <c r="BA19" s="85"/>
+      <c r="BB19" s="84"/>
+      <c r="BD19" s="85"/>
+      <c r="BE19" s="84"/>
+      <c r="BG19" s="85"/>
+      <c r="BH19" s="84"/>
+      <c r="BJ19" s="85"/>
+      <c r="BK19" s="84"/>
+      <c r="BM19" s="85"/>
+      <c r="BN19" s="84"/>
+      <c r="BP19" s="85"/>
+      <c r="BQ19" s="84"/>
+      <c r="BT19" s="84"/>
+      <c r="BW19" s="84"/>
+      <c r="BY19" s="84"/>
+      <c r="BZ19" s="84"/>
+      <c r="CB19" s="85"/>
+      <c r="CC19" s="84"/>
+      <c r="CE19" s="85"/>
+      <c r="CF19" s="84"/>
+      <c r="CH19" s="85"/>
+      <c r="CI19" s="84"/>
+      <c r="CK19" s="85"/>
+      <c r="CL19" s="84"/>
+      <c r="CN19" s="85"/>
+      <c r="CO19" s="84"/>
+      <c r="CQ19" s="85"/>
+      <c r="CR19" s="84"/>
+      <c r="CT19" s="85"/>
+      <c r="CU19" s="84"/>
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8135,57 +8992,57 @@
       <c r="AJ20" s="30"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
-      <c r="AM20" s="57" t="str">
+      <c r="AM20" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO20" s="92"/>
-      <c r="AP20" s="90"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="90"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="90"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="90"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="90"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="90"/>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="90"/>
-      <c r="BJ20" s="92"/>
-      <c r="BK20" s="90"/>
-      <c r="BM20" s="92"/>
-      <c r="BN20" s="90"/>
-      <c r="BP20" s="92"/>
-      <c r="BQ20" s="90"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="90"/>
-      <c r="BV20" s="92"/>
-      <c r="BW20" s="90"/>
-      <c r="BY20" s="90"/>
-      <c r="BZ20" s="90"/>
-      <c r="CB20" s="92"/>
-      <c r="CC20" s="90"/>
-      <c r="CE20" s="92"/>
-      <c r="CF20" s="90"/>
-      <c r="CH20" s="92"/>
-      <c r="CI20" s="90"/>
-      <c r="CK20" s="92"/>
-      <c r="CL20" s="90"/>
-      <c r="CN20" s="92"/>
-      <c r="CO20" s="90"/>
-      <c r="CQ20" s="92"/>
-      <c r="CR20" s="90"/>
-      <c r="CT20" s="92"/>
-      <c r="CU20" s="90"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="84"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="84"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="84"/>
+      <c r="AX20" s="85"/>
+      <c r="AY20" s="84"/>
+      <c r="BA20" s="85"/>
+      <c r="BB20" s="84"/>
+      <c r="BD20" s="85"/>
+      <c r="BE20" s="84"/>
+      <c r="BG20" s="85"/>
+      <c r="BH20" s="84"/>
+      <c r="BJ20" s="85"/>
+      <c r="BK20" s="84"/>
+      <c r="BM20" s="85"/>
+      <c r="BN20" s="84"/>
+      <c r="BP20" s="85"/>
+      <c r="BQ20" s="84"/>
+      <c r="BS20" s="85"/>
+      <c r="BT20" s="84"/>
+      <c r="BV20" s="85"/>
+      <c r="BW20" s="84"/>
+      <c r="BY20" s="84"/>
+      <c r="BZ20" s="84"/>
+      <c r="CB20" s="85"/>
+      <c r="CC20" s="84"/>
+      <c r="CE20" s="85"/>
+      <c r="CF20" s="84"/>
+      <c r="CH20" s="85"/>
+      <c r="CI20" s="84"/>
+      <c r="CK20" s="85"/>
+      <c r="CL20" s="84"/>
+      <c r="CN20" s="85"/>
+      <c r="CO20" s="84"/>
+      <c r="CQ20" s="85"/>
+      <c r="CR20" s="84"/>
+      <c r="CT20" s="85"/>
+      <c r="CU20" s="84"/>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="76" t="str">
+      <c r="E21" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8214,18 +9071,18 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
       <c r="AB21" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
       <c r="AE21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8237,41 +9094,41 @@
       <c r="AJ21" s="30"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
-      <c r="AM21" s="57" t="str">
+      <c r="AM21" s="56" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="AV21" s="90"/>
-      <c r="AY21" s="90"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="90"/>
-      <c r="BE21" s="90"/>
-      <c r="BH21" s="90"/>
-      <c r="BJ21" s="90"/>
-      <c r="BK21" s="90"/>
-      <c r="BN21" s="90"/>
-      <c r="BQ21" s="90"/>
-      <c r="BT21" s="90"/>
-      <c r="BW21" s="90"/>
-      <c r="BY21" s="92"/>
-      <c r="BZ21" s="90"/>
-      <c r="CC21" s="90"/>
-      <c r="CF21" s="90"/>
-      <c r="CI21" s="90"/>
-      <c r="CL21" s="90"/>
-      <c r="CO21" s="90"/>
-      <c r="CR21" s="90"/>
-      <c r="CT21" s="90"/>
-      <c r="CU21" s="90"/>
+      <c r="AP21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="BA21" s="85"/>
+      <c r="BB21" s="84"/>
+      <c r="BE21" s="84"/>
+      <c r="BH21" s="84"/>
+      <c r="BJ21" s="84"/>
+      <c r="BK21" s="84"/>
+      <c r="BN21" s="84"/>
+      <c r="BQ21" s="84"/>
+      <c r="BT21" s="84"/>
+      <c r="BW21" s="84"/>
+      <c r="BY21" s="85"/>
+      <c r="BZ21" s="84"/>
+      <c r="CC21" s="84"/>
+      <c r="CF21" s="84"/>
+      <c r="CI21" s="84"/>
+      <c r="CL21" s="84"/>
+      <c r="CO21" s="84"/>
+      <c r="CR21" s="84"/>
+      <c r="CT21" s="84"/>
+      <c r="CU21" s="84"/>
     </row>
     <row r="22" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="77" t="str">
+      <c r="E22" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -8300,18 +9157,18 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
       <c r="AB22" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
       <c r="AE22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8323,35 +9180,35 @@
       <c r="AJ22" s="37"/>
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
-      <c r="AM22" s="87" t="str">
+      <c r="AM22" s="83" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO22" s="92"/>
-      <c r="AP22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="90"/>
-      <c r="BE22" s="90"/>
-      <c r="BH22" s="90"/>
-      <c r="BJ22" s="92"/>
-      <c r="BK22" s="90"/>
-      <c r="BN22" s="90"/>
-      <c r="BQ22" s="90"/>
-      <c r="BT22" s="90"/>
-      <c r="BW22" s="90"/>
-      <c r="BZ22" s="90"/>
-      <c r="CC22" s="90"/>
-      <c r="CF22" s="90"/>
-      <c r="CI22" s="90"/>
-      <c r="CL22" s="90"/>
-      <c r="CO22" s="90"/>
-      <c r="CQ22" s="92"/>
-      <c r="CR22" s="90"/>
-      <c r="CT22" s="92"/>
-      <c r="CU22" s="90"/>
+      <c r="AO22" s="85"/>
+      <c r="AP22" s="84"/>
+      <c r="AS22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AY22" s="84"/>
+      <c r="BA22" s="85"/>
+      <c r="BB22" s="84"/>
+      <c r="BE22" s="84"/>
+      <c r="BH22" s="84"/>
+      <c r="BJ22" s="85"/>
+      <c r="BK22" s="84"/>
+      <c r="BN22" s="84"/>
+      <c r="BQ22" s="84"/>
+      <c r="BT22" s="84"/>
+      <c r="BW22" s="84"/>
+      <c r="BZ22" s="84"/>
+      <c r="CC22" s="84"/>
+      <c r="CF22" s="84"/>
+      <c r="CI22" s="84"/>
+      <c r="CL22" s="84"/>
+      <c r="CO22" s="84"/>
+      <c r="CQ22" s="85"/>
+      <c r="CR22" s="84"/>
+      <c r="CT22" s="85"/>
+      <c r="CU22" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8369,234 +9226,234 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="64">
         <v>-5.4793240000000001</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="64">
         <v>119.31157399999999</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>-5.4880659999999999</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="64">
         <v>119.31312699999999</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <v>-5.4889159999999997</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="64">
         <v>119.309448</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <v>-5.468826</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="64">
         <v>119.300459</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>-5.4682649999999997</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>119.30207900000001</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>-5.4671349999999999</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>119.302812</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>-5.4901910000000003</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>119.311859</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>-5.491987</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>119.312573</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>-5.49282</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>119.31198000000001</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <v>-5.4639509999999998</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>119.287291</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <v>-5.4620889999999997</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>119.286874</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="64">
         <v>-5.463902</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="64">
         <v>119.28802</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="64">
         <v>-5.4810160000000003</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="64">
         <v>119.31128099999999</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <v>-5.4811319999999997</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <v>119.31211</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <v>-5.4793599999999998</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>119.312033</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <v>-5.4663769999999996</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="64">
         <v>119.30229</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <v>-5.4682510000000004</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="64">
         <v>119.301957</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="67">
         <v>-5.4686510000000004</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="67">
         <v>119.300428</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/08.2024/August_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swulfing\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\08.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A42FD38-6CD6-4D46-A24E-EC17D1B8F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF159F98-A8DB-455C-BDA5-54734143DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="213">
   <si>
     <t>DATE</t>
   </si>
@@ -653,15 +653,6 @@
     <t>T1_SANDFISH</t>
   </si>
   <si>
-    <t>MAXN_FISHR</t>
-  </si>
-  <si>
-    <t>TIME_1STFISHR</t>
-  </si>
-  <si>
-    <t>T1_FISHR</t>
-  </si>
-  <si>
     <t>MAXN_BIGBOI</t>
   </si>
   <si>
@@ -669,6 +660,24 @@
   </si>
   <si>
     <t>T1_BIGBOI</t>
+  </si>
+  <si>
+    <t>MAXN_FISHO</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHO</t>
+  </si>
+  <si>
+    <t>T1_FISHO</t>
+  </si>
+  <si>
+    <t>MAXN_FISHCHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>TIME_1STCHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>T1_FISHCHEETAGIRLZ</t>
   </si>
 </sst>
 </file>
@@ -1304,18 +1313,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DI22"/>
+  <dimension ref="A1:DL22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG11" sqref="BG11"/>
+      <selection pane="bottomRight" activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
@@ -1338,10 +1347,11 @@
     <col min="106" max="106" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:116" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
@@ -1598,13 +1608,13 @@
         <v>140</v>
       </c>
       <c r="CH1" s="81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="CI1" s="27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CJ1" s="59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CK1" s="81" t="s">
         <v>123</v>
@@ -1643,46 +1653,55 @@
         <v>66</v>
       </c>
       <c r="CW1" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX1" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY1" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ1" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="CX1" s="27" t="s">
+      <c r="DA1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CY1" s="59" t="s">
+      <c r="DB1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="CZ1" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="DA1" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="DB1" s="59" t="s">
-        <v>209</v>
-      </c>
       <c r="DC1" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="DD1" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="DE1" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="DF1" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="DD1" s="27" t="s">
+      <c r="DG1" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="DE1" s="59" t="s">
+      <c r="DH1" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="DF1" s="81" t="s">
+      <c r="DI1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="DG1" s="27" t="s">
+      <c r="DJ1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DH1" s="59" t="s">
+      <c r="DK1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="DI1" s="28" t="s">
+      <c r="DL1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>197</v>
       </c>
@@ -1751,32 +1770,52 @@
         <v>157</v>
       </c>
       <c r="V2" s="8"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
+      <c r="W2" s="19">
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="X2" s="20">
+        <v>1.3090277777777777E-2</v>
+      </c>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="20">
         <f>SUM(W2:AB2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
+        <v>4.8645833333333333E-2</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="AF2" s="20">
         <f t="shared" ref="AF2:AF13" si="0">AC2-AD2-AE2</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+        <v>4.1701388888888885E-2</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>80</v>
+      </c>
       <c r="AI2" s="22"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="33" t="str">
+      <c r="AJ2" s="29">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="30">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="34">
+        <v>1.0138888888888888E-2</v>
+      </c>
+      <c r="AN2" s="33">
         <f t="shared" ref="AN2:AN13" si="1">IF(AL2=0,"NA",AM2-$AD2)</f>
-        <v>NA</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="AO2" s="31"/>
       <c r="AP2" s="56"/>
@@ -1808,11 +1847,15 @@
         <f t="shared" ref="BC2:BC22" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="33" t="str">
+      <c r="BD2" s="58">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="71">
+        <v>6.4236111111111108E-3</v>
+      </c>
+      <c r="BF2" s="33">
         <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
-        <v>NA</v>
+        <v>2.9513888888888888E-3</v>
       </c>
       <c r="BG2" s="58"/>
       <c r="BH2" s="57"/>
@@ -1820,17 +1863,25 @@
         <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="33" t="str">
+      <c r="BJ2" s="58">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="71">
+        <v>3.0960648148148147E-2</v>
+      </c>
+      <c r="BL2" s="33">
         <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="33" t="str">
+        <v>2.7488425925925923E-2</v>
+      </c>
+      <c r="BM2" s="58">
+        <v>2</v>
+      </c>
+      <c r="BN2" s="71">
+        <v>3.7905092592592594E-2</v>
+      </c>
+      <c r="BO2" s="33">
         <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
-        <v>NA</v>
+        <v>3.4432870370370371E-2</v>
       </c>
       <c r="BP2" s="58"/>
       <c r="BQ2" s="57"/>
@@ -1892,11 +1943,15 @@
         <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="CT2" s="58"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="33" t="str">
+      <c r="CT2" s="58">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="71">
+        <v>1.7592592592592594E-2</v>
+      </c>
+      <c r="CV2" s="33">
         <f t="shared" ref="CV2:CV22" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
-        <v>NA</v>
+        <v>1.4120370370370372E-2</v>
       </c>
       <c r="CW2" s="58"/>
       <c r="CX2" s="71"/>
@@ -1916,15 +1971,25 @@
         <f t="shared" ref="DE2:DE22" si="24">IF(DC2=0,"NA",DD2-$AD2)</f>
         <v>NA</v>
       </c>
-      <c r="DF2" s="58"/>
-      <c r="DG2" s="71"/>
-      <c r="DH2" s="33" t="str">
-        <f t="shared" ref="DH2:DH13" si="25">IF(DF2=0,"NA",DG2-$AD2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DI2" s="35"/>
+      <c r="DF2" s="58">
+        <v>1</v>
+      </c>
+      <c r="DG2" s="71">
+        <v>2.0532407407407409E-2</v>
+      </c>
+      <c r="DH2" s="33">
+        <f t="shared" ref="DH2:DH22" si="25">IF(DF2=0,"NA",DG2-$AD2)</f>
+        <v>1.7060185185185185E-2</v>
+      </c>
+      <c r="DI2" s="58"/>
+      <c r="DJ2" s="71"/>
+      <c r="DK2" s="33" t="str">
+        <f t="shared" ref="DK2:DK13" si="26">IF(DI2=0,"NA",DJ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DL2" s="35"/>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>197</v>
       </c>
@@ -1941,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="74" t="str">
-        <f t="shared" ref="F3:F22" si="26">D3&amp;""&amp;E3</f>
+        <f t="shared" ref="F3:F22" si="27">D3&amp;""&amp;E3</f>
         <v>E3</v>
       </c>
       <c r="G3" s="5">
@@ -1977,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q22" si="27">J3-I3</f>
+        <f t="shared" ref="Q3:Q22" si="28">J3-I3</f>
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -1995,38 +2060,58 @@
       <c r="V3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="W3" s="19">
+        <v>1.8935185185185187E-2</v>
+      </c>
+      <c r="X3" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>5.0115740740740737E-3</v>
+      </c>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20">
-        <f t="shared" ref="AC3:AC22" si="28">SUM(W3:AB3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="20"/>
+        <f t="shared" ref="AC3:AC22" si="29">SUM(W3:AB3)</f>
+        <v>4.1805555555555554E-2</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="AE3" s="20"/>
       <c r="AF3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>100</v>
+      </c>
       <c r="AI3" s="22"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="30"/>
+      <c r="AJ3" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="30">
+        <v>4</v>
+      </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="33" t="str">
+      <c r="AO3" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="34">
+        <v>5.6365740740740742E-3</v>
+      </c>
+      <c r="AQ3" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>2.1643518518518522E-3</v>
       </c>
       <c r="AR3" s="31"/>
       <c r="AS3" s="32"/>
@@ -2070,11 +2155,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="33" t="str">
+      <c r="BM3" s="31">
+        <v>6</v>
+      </c>
+      <c r="BN3" s="34">
+        <v>3.8888888888888888E-3</v>
+      </c>
+      <c r="BO3" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>4.1666666666666675E-4</v>
       </c>
       <c r="BP3" s="31"/>
       <c r="BQ3" s="32"/>
@@ -2112,11 +2201,15 @@
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CH3" s="31"/>
-      <c r="CI3" s="32"/>
-      <c r="CJ3" s="33" t="str">
+      <c r="CH3" s="31">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="34">
+        <v>3.667824074074074E-2</v>
+      </c>
+      <c r="CJ3" s="33">
         <f t="shared" si="17"/>
-        <v>NA</v>
+        <v>3.3206018518518517E-2</v>
       </c>
       <c r="CK3" s="31"/>
       <c r="CL3" s="32"/>
@@ -2160,15 +2253,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DF3" s="31"/>
-      <c r="DG3" s="32"/>
-      <c r="DH3" s="33" t="str">
+      <c r="DF3" s="31">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="34">
+        <v>2.5324074074074075E-2</v>
+      </c>
+      <c r="DH3" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DI3" s="35"/>
+        <v>2.1851851851851851E-2</v>
+      </c>
+      <c r="DI3" s="31"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL3" s="35"/>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>197</v>
       </c>
@@ -2185,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E1</v>
       </c>
       <c r="G4" s="5">
@@ -2221,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.3611111111111127E-2</v>
       </c>
       <c r="R4" s="6" t="s">
@@ -2237,27 +2340,45 @@
         <v>157</v>
       </c>
       <c r="V4" s="8"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
+      <c r="W4" s="19">
+        <v>2.6724537037037036E-2</v>
+      </c>
+      <c r="X4" s="20">
+        <v>2.7893518518518519E-2</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>1.5277777777777779E-3</v>
+      </c>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
       <c r="AC4" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
+        <f t="shared" si="29"/>
+        <v>5.6145833333333339E-2</v>
+      </c>
+      <c r="AD4" s="20">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>3.6111111111111109E-3</v>
+      </c>
       <c r="AF4" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
+        <v>4.2118055555555561E-2</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>75</v>
+      </c>
       <c r="AI4" s="22"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
+      <c r="AJ4" s="29">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="30">
+        <v>2</v>
+      </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="34"/>
       <c r="AN4" s="33" t="str">
@@ -2312,11 +2433,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="33" t="str">
+      <c r="BM4" s="31">
+        <v>85</v>
+      </c>
+      <c r="BN4" s="34">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="BO4" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="31"/>
       <c r="BQ4" s="32"/>
@@ -2384,11 +2509,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="34"/>
-      <c r="CY4" s="33" t="str">
+      <c r="CW4" s="31">
+        <v>1</v>
+      </c>
+      <c r="CX4" s="34">
+        <v>2.2037037037037036E-2</v>
+      </c>
+      <c r="CY4" s="33">
         <f t="shared" si="22"/>
-        <v>NA</v>
+        <v>1.1620370370370369E-2</v>
       </c>
       <c r="CZ4" s="31"/>
       <c r="DA4" s="34"/>
@@ -2408,9 +2537,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DI4" s="35"/>
+      <c r="DI4" s="31"/>
+      <c r="DJ4" s="34"/>
+      <c r="DK4" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL4" s="35"/>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>197</v>
       </c>
@@ -2427,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D2</v>
       </c>
       <c r="G5" s="5">
@@ -2463,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -2479,27 +2614,43 @@
         <v>157</v>
       </c>
       <c r="V5" s="8"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
+      <c r="W5" s="19">
+        <v>1.923611111111111E-2</v>
+      </c>
+      <c r="X5" s="20">
+        <v>4.0625000000000001E-3</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>5.0347222222222225E-3</v>
+      </c>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20"/>
       <c r="AC5" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="20"/>
+        <f t="shared" si="29"/>
+        <v>2.8333333333333332E-2</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>4.0625000000000001E-3</v>
+      </c>
       <c r="AE5" s="20"/>
       <c r="AF5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
+        <v>2.4270833333333332E-2</v>
+      </c>
+      <c r="AG5" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>100</v>
+      </c>
       <c r="AI5" s="22"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="30"/>
+      <c r="AJ5" s="29">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="30">
+        <v>6</v>
+      </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="34"/>
       <c r="AN5" s="33" t="str">
@@ -2560,11 +2711,15 @@
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="33" t="str">
+      <c r="BP5" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="34">
+        <v>1.2210648148148148E-2</v>
+      </c>
+      <c r="BR5" s="33">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>8.1481481481481474E-3</v>
       </c>
       <c r="BS5" s="31"/>
       <c r="BT5" s="32"/>
@@ -2572,11 +2727,15 @@
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BV5" s="31"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="33" t="str">
+      <c r="BV5" s="31">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="34">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="BX5" s="33">
         <f t="shared" si="13"/>
-        <v>NA</v>
+        <v>8.6689814814814806E-3</v>
       </c>
       <c r="BY5" s="31"/>
       <c r="BZ5" s="32"/>
@@ -2590,11 +2749,15 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="33" t="str">
+      <c r="CE5" s="31">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="34">
+        <v>1.8032407407407407E-2</v>
+      </c>
+      <c r="CG5" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>1.3969907407407407E-2</v>
       </c>
       <c r="CH5" s="31"/>
       <c r="CI5" s="32"/>
@@ -2602,11 +2765,15 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="32"/>
-      <c r="CM5" s="33" t="str">
+      <c r="CK5" s="31">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="34">
+        <v>4.4560185185185189E-3</v>
+      </c>
+      <c r="CM5" s="33">
         <f t="shared" si="18"/>
-        <v>NA</v>
+        <v>3.9351851851851874E-4</v>
       </c>
       <c r="CN5" s="31"/>
       <c r="CO5" s="32"/>
@@ -2644,15 +2811,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DF5" s="31"/>
-      <c r="DG5" s="32"/>
-      <c r="DH5" s="33" t="str">
+      <c r="DF5" s="31">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="34">
+        <v>2.1689814814814815E-2</v>
+      </c>
+      <c r="DH5" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DI5" s="35"/>
+        <v>1.7627314814814814E-2</v>
+      </c>
+      <c r="DI5" s="31"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL5" s="35"/>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>197</v>
       </c>
@@ -2669,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D3</v>
       </c>
       <c r="G6" s="5">
@@ -2705,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.0833333333333304E-2</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -2721,38 +2898,66 @@
         <v>157</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="W6" s="19">
+        <v>1.5648148148148147E-2</v>
+      </c>
+      <c r="X6" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>1.4976851851851852E-2</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>1.5277777777777779E-3</v>
+      </c>
       <c r="AC6" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
+        <f t="shared" si="29"/>
+        <v>7.6736111111111102E-2</v>
+      </c>
+      <c r="AD6" s="20">
+        <v>4.3287037037037035E-3</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>3.0254629629629631E-2</v>
+      </c>
       <c r="AF6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
+        <v>4.2152777777777761E-2</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>100</v>
+      </c>
       <c r="AI6" s="22"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="30"/>
+      <c r="AJ6" s="29">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="30">
+        <v>4</v>
+      </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="34"/>
       <c r="AN6" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="33" t="str">
+      <c r="AO6" s="31">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="34">
+        <v>2.056712962962963E-2</v>
+      </c>
+      <c r="AQ6" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>1.6238425925925927E-2</v>
       </c>
       <c r="AR6" s="31"/>
       <c r="AS6" s="32"/>
@@ -2796,11 +3001,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="33" t="str">
+      <c r="BM6" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN6" s="34">
+        <v>1.2141203703703704E-2</v>
+      </c>
+      <c r="BO6" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="BP6" s="31"/>
       <c r="BQ6" s="32"/>
@@ -2814,11 +3023,15 @@
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BV6" s="31"/>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="33" t="str">
+      <c r="BV6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="34">
+        <v>1.4016203703703704E-2</v>
+      </c>
+      <c r="BX6" s="33">
         <f t="shared" si="13"/>
-        <v>NA</v>
+        <v>9.6875000000000017E-3</v>
       </c>
       <c r="BY6" s="31"/>
       <c r="BZ6" s="32"/>
@@ -2838,11 +3051,15 @@
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CH6" s="31"/>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="33" t="str">
+      <c r="CH6" s="31">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="34">
+        <v>1.5474537037037037E-2</v>
+      </c>
+      <c r="CJ6" s="33">
         <f t="shared" si="17"/>
-        <v>NA</v>
+        <v>1.1145833333333334E-2</v>
       </c>
       <c r="CK6" s="31"/>
       <c r="CL6" s="32"/>
@@ -2892,9 +3109,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DI6" s="35"/>
+      <c r="DI6" s="31"/>
+      <c r="DJ6" s="32"/>
+      <c r="DK6" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL6" s="35"/>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>197</v>
       </c>
@@ -2911,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L2</v>
       </c>
       <c r="G7" s="5">
@@ -2947,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="R7" s="6" t="s">
@@ -2963,38 +3186,60 @@
         <v>157</v>
       </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
+      <c r="W7" s="19">
+        <v>2.0706018518518519E-2</v>
+      </c>
+      <c r="X7" s="20">
+        <v>1.8738425925925926E-2</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>1.6875000000000001E-2</v>
+      </c>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
+        <f t="shared" si="29"/>
+        <v>5.631944444444445E-2</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>4.6990740740740743E-3</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>9.2361111111111116E-3</v>
+      </c>
       <c r="AF7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
+        <v>4.238425925925926E-2</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>100</v>
+      </c>
       <c r="AI7" s="22"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="30"/>
+      <c r="AJ7" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="30">
+        <v>4</v>
+      </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="34"/>
       <c r="AN7" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="33" t="str">
+      <c r="AO7" s="31">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="34">
+        <v>5.9259259259259256E-3</v>
+      </c>
+      <c r="AQ7" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>1.2268518518518514E-3</v>
       </c>
       <c r="AR7" s="31"/>
       <c r="AS7" s="32"/>
@@ -3038,11 +3283,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="33" t="str">
+      <c r="BM7" s="31">
+        <v>7</v>
+      </c>
+      <c r="BN7" s="34">
+        <v>7.951388888888888E-3</v>
+      </c>
+      <c r="BO7" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>3.2523148148148138E-3</v>
       </c>
       <c r="BP7" s="31"/>
       <c r="BQ7" s="32"/>
@@ -3128,15 +3377,29 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DF7" s="31"/>
-      <c r="DG7" s="32"/>
-      <c r="DH7" s="33" t="str">
+      <c r="DF7" s="31">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="34">
+        <v>2.0648148148148148E-2</v>
+      </c>
+      <c r="DH7" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DI7" s="35"/>
+        <v>1.5949074074074074E-2</v>
+      </c>
+      <c r="DI7" s="31">
+        <v>3</v>
+      </c>
+      <c r="DJ7" s="34">
+        <v>1.1331018518518518E-2</v>
+      </c>
+      <c r="DK7" s="33">
+        <f t="shared" si="26"/>
+        <v>6.6319444444444438E-3</v>
+      </c>
+      <c r="DL7" s="35"/>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>197</v>
       </c>
@@ -3153,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L1</v>
       </c>
       <c r="G8" s="5">
@@ -3189,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="R8" s="6" t="s">
@@ -3205,38 +3468,60 @@
         <v>157</v>
       </c>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+      <c r="W8" s="19">
+        <v>2.568287037037037E-2</v>
+      </c>
+      <c r="X8" s="20">
+        <v>2.3171296296296297E-2</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>1.2106481481481482E-2</v>
+      </c>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
+        <f t="shared" si="29"/>
+        <v>6.0960648148148153E-2</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>4.7800925925925927E-3</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>1.4456018518518519E-2</v>
+      </c>
       <c r="AF8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
+        <v>4.1724537037037039E-2</v>
+      </c>
+      <c r="AG8" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>100</v>
+      </c>
       <c r="AI8" s="22"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30"/>
+      <c r="AJ8" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="30">
+        <v>3</v>
+      </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="34"/>
       <c r="AN8" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="33" t="str">
+      <c r="AO8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="70">
+        <v>2.2141203703703705E-2</v>
+      </c>
+      <c r="AQ8" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="AR8" s="31"/>
       <c r="AS8" s="32"/>
@@ -3280,11 +3565,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM8" s="31"/>
-      <c r="BN8" s="32"/>
-      <c r="BO8" s="33" t="str">
+      <c r="BM8" s="31">
+        <v>11</v>
+      </c>
+      <c r="BN8" s="34">
+        <v>3.0138888888888889E-2</v>
+      </c>
+      <c r="BO8" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>2.5358796296296296E-2</v>
       </c>
       <c r="BP8" s="31"/>
       <c r="BQ8" s="32"/>
@@ -3376,9 +3665,19 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DI8" s="35"/>
+      <c r="DI8" s="31">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="70">
+        <v>2.1030092592592593E-2</v>
+      </c>
+      <c r="DK8" s="33">
+        <f t="shared" si="26"/>
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="DL8" s="35"/>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
@@ -3395,7 +3694,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L3</v>
       </c>
       <c r="G9" s="5">
@@ -3431,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.8333333333333293E-2</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -3447,38 +3746,60 @@
         <v>157</v>
       </c>
       <c r="V9" s="8"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
+      <c r="W9" s="19">
+        <v>2.8136574074074074E-2</v>
+      </c>
+      <c r="X9" s="20">
+        <v>2.1261574074074075E-2</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>9.9074074074074082E-3</v>
+      </c>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
+        <f t="shared" si="29"/>
+        <v>5.9305555555555556E-2</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>4.6180555555555558E-3</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>1.2685185185185185E-2</v>
+      </c>
       <c r="AF9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
+        <v>4.2002314814814812E-2</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>100</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>100</v>
+      </c>
       <c r="AI9" s="22"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30"/>
+      <c r="AJ9" s="29">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="30">
+        <v>4</v>
+      </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="34"/>
       <c r="AN9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="33" t="str">
+      <c r="AO9" s="31">
+        <v>15</v>
+      </c>
+      <c r="AP9" s="34">
+        <v>5.2199074074074075E-3</v>
+      </c>
+      <c r="AQ9" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>6.0185185185185168E-4</v>
       </c>
       <c r="AR9" s="31"/>
       <c r="AS9" s="32"/>
@@ -3522,11 +3843,15 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="34"/>
-      <c r="BO9" s="33" t="str">
+      <c r="BM9" s="31">
+        <v>2</v>
+      </c>
+      <c r="BN9" s="34">
+        <v>2.5324074074074075E-2</v>
+      </c>
+      <c r="BO9" s="33">
         <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>2.0706018518518519E-2</v>
       </c>
       <c r="BP9" s="31"/>
       <c r="BQ9" s="32"/>
@@ -3612,15 +3937,29 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DF9" s="31"/>
-      <c r="DG9" s="56"/>
-      <c r="DH9" s="33" t="str">
+      <c r="DF9" s="31">
+        <v>1</v>
+      </c>
+      <c r="DG9" s="56">
+        <v>2.8668981481481483E-2</v>
+      </c>
+      <c r="DH9" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DI9" s="35"/>
+        <v>2.4050925925925927E-2</v>
+      </c>
+      <c r="DI9" s="31">
+        <v>3</v>
+      </c>
+      <c r="DJ9" s="56">
+        <v>5.2777777777777779E-3</v>
+      </c>
+      <c r="DK9" s="33">
+        <f t="shared" si="26"/>
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="DL9" s="35"/>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>197</v>
       </c>
@@ -3637,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D1</v>
       </c>
       <c r="G10" s="5">
@@ -3673,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.6944444444444409E-2</v>
       </c>
       <c r="R10" s="6" t="s">
@@ -3702,7 +4041,7 @@
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="AD10" s="20">
@@ -3713,8 +4052,12 @@
         <f t="shared" si="0"/>
         <v>3.681712962962963E-2</v>
       </c>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="21"/>
+      <c r="AG10" s="87">
+        <v>70</v>
+      </c>
+      <c r="AH10" s="21">
+        <v>100</v>
+      </c>
       <c r="AI10" s="22"/>
       <c r="AJ10" s="29">
         <v>3</v>
@@ -3880,9 +4223,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DI10" s="35"/>
+      <c r="DI10" s="31"/>
+      <c r="DJ10" s="34"/>
+      <c r="DK10" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL10" s="35"/>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>197</v>
       </c>
@@ -3899,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D4</v>
       </c>
       <c r="G11" s="5">
@@ -3935,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.6111111111111083E-2</v>
       </c>
       <c r="R11" s="6" t="s">
@@ -3968,7 +4317,7 @@
       </c>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.0300925925925919E-2</v>
       </c>
       <c r="AD11" s="20">
@@ -4136,25 +4485,31 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DC11" s="31">
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF11" s="31">
         <v>1</v>
       </c>
-      <c r="DD11" s="34">
+      <c r="DG11" s="34">
         <v>2.5601851851851851E-2</v>
       </c>
-      <c r="DE11" s="33">
-        <f t="shared" si="24"/>
+      <c r="DH11" s="33">
+        <f t="shared" si="25"/>
         <v>2.1423611111111109E-2</v>
       </c>
-      <c r="DF11" s="31"/>
-      <c r="DG11" s="34"/>
-      <c r="DH11" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DI11" s="35"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL11" s="35"/>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>197</v>
       </c>
@@ -4171,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L6</v>
       </c>
       <c r="G12" s="5">
@@ -4207,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.4722222222222199E-2</v>
       </c>
       <c r="R12" s="6" t="s">
@@ -4238,13 +4593,13 @@
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.9004629629629638E-2</v>
       </c>
       <c r="AD12" s="20">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="AE12" s="87">
+      <c r="AE12" s="21">
         <v>2.255787037037037E-2</v>
       </c>
       <c r="AF12" s="20">
@@ -4430,9 +4785,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DI12" s="35"/>
+      <c r="DI12" s="31"/>
+      <c r="DJ12" s="70"/>
+      <c r="DK12" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL12" s="35"/>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>197</v>
       </c>
@@ -4449,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D5</v>
       </c>
       <c r="G13" s="5">
@@ -4485,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.2916666666666685E-2</v>
       </c>
       <c r="R13" s="6" t="s">
@@ -4510,7 +4871,7 @@
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD13" s="20"/>
@@ -4674,9 +5035,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DI13" s="35"/>
+      <c r="DI13" s="31"/>
+      <c r="DJ13" s="32"/>
+      <c r="DK13" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DL13" s="35"/>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>197</v>
       </c>
@@ -4693,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L5</v>
       </c>
       <c r="G14" s="5">
@@ -4729,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.0833333333333304E-2</v>
       </c>
       <c r="R14" s="6" t="s">
@@ -4758,7 +5125,7 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.0659722222222217E-2</v>
       </c>
       <c r="AD14" s="20">
@@ -4768,7 +5135,7 @@
         <v>3.9814814814814817E-3</v>
       </c>
       <c r="AF14" s="20">
-        <f t="shared" ref="AF14:AF22" si="29">AC14-AD14-AE14</f>
+        <f t="shared" ref="AF14:AF22" si="30">AC14-AD14-AE14</f>
         <v>4.1932870370370363E-2</v>
       </c>
       <c r="AG14" s="21">
@@ -4787,25 +5154,25 @@
       <c r="AL14" s="31"/>
       <c r="AM14" s="32"/>
       <c r="AN14" s="33" t="str">
-        <f t="shared" ref="AN14:AN22" si="30">IF(AL14=0,"NA",AM14-$AD14)</f>
+        <f t="shared" ref="AN14:AN22" si="31">IF(AL14=0,"NA",AM14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AO14" s="31"/>
       <c r="AP14" s="32"/>
       <c r="AQ14" s="33" t="str">
-        <f t="shared" ref="AQ14:AQ22" si="31">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <f t="shared" ref="AQ14:AQ22" si="32">IF(AO14=0,"NA",AP14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AR14" s="31"/>
       <c r="AS14" s="32"/>
       <c r="AT14" s="33" t="str">
-        <f t="shared" ref="AT14:AT22" si="32">IF(AR14=0,"NA",AS14-$AD14)</f>
+        <f t="shared" ref="AT14:AT22" si="33">IF(AR14=0,"NA",AS14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AU14" s="31"/>
       <c r="AV14" s="32"/>
       <c r="AW14" s="33" t="str">
-        <f t="shared" ref="AW14:AW22" si="33">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <f t="shared" ref="AW14:AW22" si="34">IF(AU14=0,"NA",AV14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="AX14" s="31"/>
@@ -4827,43 +5194,43 @@
         <v>2.8958333333333332E-2</v>
       </c>
       <c r="BF14" s="33">
-        <f t="shared" ref="BF14:BF22" si="34">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <f t="shared" ref="BF14:BF22" si="35">IF(BD14=0,"NA",BE14-$AD14)</f>
         <v>2.4212962962962964E-2</v>
       </c>
       <c r="BG14" s="31"/>
       <c r="BH14" s="32"/>
       <c r="BI14" s="33" t="str">
-        <f t="shared" ref="BI14:BI22" si="35">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <f t="shared" ref="BI14:BI22" si="36">IF(BG14=0,"NA",BH14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BJ14" s="31"/>
       <c r="BK14" s="34"/>
       <c r="BL14" s="33" t="str">
-        <f t="shared" ref="BL14:BL22" si="36">IF(BJ14=0,"NA",BK14-$AD14)</f>
+        <f t="shared" ref="BL14:BL22" si="37">IF(BJ14=0,"NA",BK14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BM14" s="31"/>
       <c r="BN14" s="34"/>
       <c r="BO14" s="33" t="str">
-        <f t="shared" ref="BO14:BO22" si="37">IF(BM14=0,"NA",BN14-$AD14)</f>
+        <f t="shared" ref="BO14:BO22" si="38">IF(BM14=0,"NA",BN14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BP14" s="31"/>
       <c r="BQ14" s="32"/>
       <c r="BR14" s="33" t="str">
-        <f t="shared" ref="BR14:BR22" si="38">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <f t="shared" ref="BR14:BR22" si="39">IF(BP14=0,"NA",BQ14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BS14" s="31"/>
       <c r="BT14" s="32"/>
       <c r="BU14" s="33" t="str">
-        <f t="shared" ref="BU14:BU22" si="39">IF(BS14=0,"NA",BT14-$AD14)</f>
+        <f t="shared" ref="BU14:BU22" si="40">IF(BS14=0,"NA",BT14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BV14" s="31"/>
       <c r="BW14" s="34"/>
       <c r="BX14" s="33" t="str">
-        <f t="shared" ref="BX14:BX22" si="40">IF(BV14=0,"NA",BW14-$AD14)</f>
+        <f t="shared" ref="BX14:BX22" si="41">IF(BV14=0,"NA",BW14-$AD14)</f>
         <v>NA</v>
       </c>
       <c r="BY14" s="31"/>
@@ -4920,35 +5287,41 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CZ14" s="31">
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="32"/>
+      <c r="DB14" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DC14" s="31">
         <v>1</v>
       </c>
-      <c r="DA14" s="34">
+      <c r="DD14" s="34">
         <v>3.9733796296296295E-2</v>
       </c>
-      <c r="DB14" s="33">
-        <f t="shared" si="23"/>
+      <c r="DE14" s="33">
+        <f t="shared" si="24"/>
         <v>3.4988425925925923E-2</v>
       </c>
-      <c r="DC14" s="31"/>
-      <c r="DD14" s="32"/>
-      <c r="DE14" s="33" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="DF14" s="31">
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="32"/>
+      <c r="DH14" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI14" s="31">
         <v>5</v>
       </c>
-      <c r="DG14" s="34">
+      <c r="DJ14" s="34">
         <v>3.3321759259259259E-2</v>
       </c>
-      <c r="DH14" s="33">
-        <f t="shared" ref="DH14:DH22" si="41">IF(DF14=0,"NA",DG14-$AD14)</f>
+      <c r="DK14" s="33">
+        <f t="shared" ref="DK14:DK22" si="42">IF(DI14=0,"NA",DJ14-$AD14)</f>
         <v>2.8576388888888887E-2</v>
       </c>
-      <c r="DI14" s="35"/>
+      <c r="DL14" s="35"/>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>197</v>
       </c>
@@ -4965,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L4</v>
       </c>
       <c r="G15" s="5">
@@ -5001,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.8333333333333348E-2</v>
       </c>
       <c r="R15" s="6" t="s">
@@ -5026,13 +5399,13 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG15" s="21"/>
@@ -5043,25 +5416,25 @@
       <c r="AL15" s="31"/>
       <c r="AM15" s="34"/>
       <c r="AN15" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO15" s="31"/>
       <c r="AP15" s="32"/>
       <c r="AQ15" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AR15" s="31"/>
       <c r="AS15" s="32"/>
       <c r="AT15" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AU15" s="31"/>
       <c r="AV15" s="32"/>
       <c r="AW15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AX15" s="31"/>
@@ -5079,43 +5452,43 @@
       <c r="BD15" s="31"/>
       <c r="BE15" s="32"/>
       <c r="BF15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BG15" s="31"/>
       <c r="BH15" s="32"/>
       <c r="BI15" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ15" s="31"/>
       <c r="BK15" s="34"/>
       <c r="BL15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM15" s="31"/>
       <c r="BN15" s="32"/>
       <c r="BO15" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BP15" s="31"/>
       <c r="BQ15" s="32"/>
       <c r="BR15" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS15" s="31"/>
       <c r="BT15" s="32"/>
       <c r="BU15" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV15" s="31"/>
       <c r="BW15" s="34"/>
       <c r="BX15" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="BY15" s="31"/>
@@ -5187,12 +5560,18 @@
       <c r="DF15" s="31"/>
       <c r="DG15" s="32"/>
       <c r="DH15" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI15" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI15" s="31"/>
+      <c r="DJ15" s="32"/>
+      <c r="DK15" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL15" s="35"/>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>197</v>
       </c>
@@ -5209,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D6</v>
       </c>
       <c r="G16" s="5">
@@ -5245,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.7638888888888906E-2</v>
       </c>
       <c r="R16" s="6" t="s">
@@ -5261,49 +5640,61 @@
         <v>157</v>
       </c>
       <c r="V16" s="8"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
+      <c r="W16" s="19">
+        <v>1.9675925925925927E-2</v>
+      </c>
+      <c r="X16" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>2.0370370370370369E-3</v>
+      </c>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="20"/>
+        <f t="shared" si="29"/>
+        <v>3.9571759259259258E-2</v>
+      </c>
+      <c r="AD16" s="20">
+        <v>4.3287037037037035E-3</v>
+      </c>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
+        <f t="shared" si="30"/>
+        <v>3.5243055555555555E-2</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>50</v>
+      </c>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="29"/>
       <c r="AK16" s="30"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO16" s="31"/>
       <c r="AP16" s="34"/>
       <c r="AQ16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AR16" s="31"/>
       <c r="AS16" s="34"/>
       <c r="AT16" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AU16" s="31"/>
       <c r="AV16" s="34"/>
       <c r="AW16" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AX16" s="31"/>
@@ -5321,43 +5712,43 @@
       <c r="BD16" s="31"/>
       <c r="BE16" s="34"/>
       <c r="BF16" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BG16" s="31"/>
       <c r="BH16" s="34"/>
       <c r="BI16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ16" s="31"/>
       <c r="BK16" s="34"/>
       <c r="BL16" s="56" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM16" s="31"/>
       <c r="BN16" s="34"/>
       <c r="BO16" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BP16" s="31"/>
       <c r="BQ16" s="32"/>
       <c r="BR16" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS16" s="31"/>
       <c r="BT16" s="32"/>
       <c r="BU16" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV16" s="31"/>
       <c r="BW16" s="56"/>
       <c r="BX16" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="BY16" s="31"/>
@@ -5429,12 +5820,18 @@
       <c r="DF16" s="31"/>
       <c r="DG16" s="34"/>
       <c r="DH16" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI16" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI16" s="31"/>
+      <c r="DJ16" s="34"/>
+      <c r="DK16" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL16" s="35"/>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -5451,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D5</v>
       </c>
       <c r="G17" s="5">
@@ -5487,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R17" s="6" t="s">
@@ -5518,7 +5915,7 @@
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.1377314814814811E-2</v>
       </c>
       <c r="AD17" s="20">
@@ -5526,7 +5923,7 @@
       </c>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.6238425925925924E-2</v>
       </c>
       <c r="AG17" s="21">
@@ -5545,25 +5942,25 @@
       <c r="AL17" s="31"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO17" s="31"/>
       <c r="AP17" s="34"/>
       <c r="AQ17" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AR17" s="31"/>
       <c r="AS17" s="34"/>
       <c r="AT17" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AU17" s="31"/>
       <c r="AV17" s="34"/>
       <c r="AW17" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AX17" s="31"/>
@@ -5585,37 +5982,37 @@
         <v>1.0462962962962962E-2</v>
       </c>
       <c r="BF17" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5.3240740740740731E-3</v>
       </c>
       <c r="BG17" s="31"/>
       <c r="BH17" s="34"/>
       <c r="BI17" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ17" s="31"/>
       <c r="BK17" s="34"/>
       <c r="BL17" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM17" s="31"/>
       <c r="BN17" s="34"/>
       <c r="BO17" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BP17" s="31"/>
       <c r="BQ17" s="34"/>
       <c r="BR17" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS17" s="31"/>
       <c r="BT17" s="34"/>
       <c r="BU17" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV17" s="31">
@@ -5625,7 +6022,7 @@
         <v>6.7592592592592591E-3</v>
       </c>
       <c r="BX17" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.6203703703703701E-3</v>
       </c>
       <c r="BY17" s="31"/>
@@ -5697,12 +6094,18 @@
       <c r="DF17" s="31"/>
       <c r="DG17" s="34"/>
       <c r="DH17" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI17" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI17" s="31"/>
+      <c r="DJ17" s="34"/>
+      <c r="DK17" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL17" s="35"/>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>197</v>
       </c>
@@ -5719,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L4</v>
       </c>
       <c r="G18" s="5">
@@ -5755,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.9305555555555536E-2</v>
       </c>
       <c r="R18" s="6" t="s">
@@ -5786,7 +6189,7 @@
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.2268518518518518E-2</v>
       </c>
       <c r="AD18" s="20">
@@ -5794,7 +6197,7 @@
       </c>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.8483796296296294E-2</v>
       </c>
       <c r="AG18" s="21">
@@ -5813,7 +6216,7 @@
       <c r="AL18" s="31"/>
       <c r="AM18" s="34"/>
       <c r="AN18" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO18" s="31">
@@ -5823,13 +6226,13 @@
         <v>6.4004629629629628E-3</v>
       </c>
       <c r="AQ18" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.6157407407407405E-3</v>
       </c>
       <c r="AR18" s="31"/>
       <c r="AS18" s="34"/>
       <c r="AT18" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AU18" s="31">
@@ -5839,7 +6242,7 @@
         <v>3.0254629629629631E-2</v>
       </c>
       <c r="AW18" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.6469907407407407E-2</v>
       </c>
       <c r="AX18" s="31"/>
@@ -5865,19 +6268,19 @@
         <v>1.3020833333333334E-2</v>
       </c>
       <c r="BF18" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9.2361111111111116E-3</v>
       </c>
       <c r="BG18" s="31"/>
       <c r="BH18" s="34"/>
       <c r="BI18" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ18" s="31"/>
       <c r="BK18" s="34"/>
       <c r="BL18" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM18" s="31">
@@ -5887,25 +6290,25 @@
         <v>4.6412037037037038E-3</v>
       </c>
       <c r="BO18" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.564814814814815E-4</v>
       </c>
       <c r="BP18" s="31"/>
       <c r="BQ18" s="34"/>
       <c r="BR18" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS18" s="31"/>
       <c r="BT18" s="34"/>
       <c r="BU18" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV18" s="31"/>
       <c r="BW18" s="32"/>
       <c r="BX18" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="BY18" s="31"/>
@@ -5977,12 +6380,18 @@
       <c r="DF18" s="31"/>
       <c r="DG18" s="34"/>
       <c r="DH18" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI18" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI18" s="31"/>
+      <c r="DJ18" s="34"/>
+      <c r="DK18" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL18" s="35"/>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>197</v>
       </c>
@@ -5999,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E4</v>
       </c>
       <c r="G19" s="5">
@@ -6035,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.8333333333333293E-2</v>
       </c>
       <c r="R19" s="6" t="s">
@@ -6066,7 +6475,7 @@
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.204861111111111E-2</v>
       </c>
       <c r="AD19" s="20">
@@ -6076,7 +6485,7 @@
         <v>1.5659722222222221E-2</v>
       </c>
       <c r="AF19" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.2048611111111113E-2</v>
       </c>
       <c r="AG19" s="21">
@@ -6099,7 +6508,7 @@
         <v>4.4675925925925924E-3</v>
       </c>
       <c r="AN19" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.2731481481481448E-4</v>
       </c>
       <c r="AO19" s="31">
@@ -6109,7 +6518,7 @@
         <v>3.1550925925925927E-2</v>
       </c>
       <c r="AQ19" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.721064814814815E-2</v>
       </c>
       <c r="AR19" s="31">
@@ -6119,7 +6528,7 @@
         <v>4.417824074074074E-2</v>
       </c>
       <c r="AT19" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.9837962962962964E-2</v>
       </c>
       <c r="AU19" s="31">
@@ -6129,7 +6538,7 @@
         <v>7.2106481481481483E-3</v>
       </c>
       <c r="AW19" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.8703703703703703E-3</v>
       </c>
       <c r="AX19" s="31"/>
@@ -6151,19 +6560,19 @@
         <v>3.9594907407407405E-2</v>
       </c>
       <c r="BF19" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.5254629629629629E-2</v>
       </c>
       <c r="BG19" s="31"/>
       <c r="BH19" s="34"/>
       <c r="BI19" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ19" s="31"/>
       <c r="BK19" s="34"/>
       <c r="BL19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM19" s="31">
@@ -6173,25 +6582,25 @@
         <v>1.125E-2</v>
       </c>
       <c r="BO19" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>6.9097222222222216E-3</v>
       </c>
       <c r="BP19" s="31"/>
       <c r="BQ19" s="34"/>
       <c r="BR19" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS19" s="31"/>
       <c r="BT19" s="34"/>
       <c r="BU19" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV19" s="31"/>
       <c r="BW19" s="32"/>
       <c r="BX19" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="BY19" s="31"/>
@@ -6258,25 +6667,31 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DC19" s="31">
+      <c r="DC19" s="31"/>
+      <c r="DD19" s="34"/>
+      <c r="DE19" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF19" s="31">
         <v>1</v>
       </c>
-      <c r="DD19" s="34">
+      <c r="DG19" s="34">
         <v>9.8379629629629633E-3</v>
       </c>
-      <c r="DE19" s="33">
-        <f t="shared" si="24"/>
+      <c r="DH19" s="33">
+        <f t="shared" si="25"/>
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="DF19" s="31"/>
-      <c r="DG19" s="34"/>
-      <c r="DH19" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI19" s="35"/>
+      <c r="DI19" s="31"/>
+      <c r="DJ19" s="34"/>
+      <c r="DK19" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL19" s="35"/>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>197</v>
       </c>
@@ -6293,7 +6708,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E6</v>
       </c>
       <c r="G20" s="5">
@@ -6329,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="R20" s="6" t="s">
@@ -6358,7 +6773,7 @@
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.3761574074074071E-2</v>
       </c>
       <c r="AD20" s="20">
@@ -6366,7 +6781,7 @@
       </c>
       <c r="AE20" s="20"/>
       <c r="AF20" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.9039351851851846E-2</v>
       </c>
       <c r="AG20" s="21">
@@ -6385,13 +6800,13 @@
       <c r="AL20" s="31"/>
       <c r="AM20" s="34"/>
       <c r="AN20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO20" s="31"/>
       <c r="AP20" s="34"/>
       <c r="AQ20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AR20" s="31">
@@ -6401,13 +6816,13 @@
         <v>2.78125E-2</v>
       </c>
       <c r="AT20" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.3090277777777779E-2</v>
       </c>
       <c r="AU20" s="31"/>
       <c r="AV20" s="34"/>
       <c r="AW20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AX20" s="31"/>
@@ -6425,19 +6840,19 @@
       <c r="BD20" s="31"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BG20" s="31"/>
       <c r="BH20" s="34"/>
       <c r="BI20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ20" s="31"/>
       <c r="BK20" s="34"/>
       <c r="BL20" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM20" s="31">
@@ -6447,19 +6862,19 @@
         <v>3.5439814814814813E-2</v>
       </c>
       <c r="BO20" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.0717592592592591E-2</v>
       </c>
       <c r="BP20" s="31"/>
       <c r="BQ20" s="34"/>
       <c r="BR20" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS20" s="31"/>
       <c r="BT20" s="34"/>
       <c r="BU20" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV20" s="31">
@@ -6469,7 +6884,7 @@
         <v>1.2314814814814815E-2</v>
       </c>
       <c r="BX20" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>7.5925925925925926E-3</v>
       </c>
       <c r="BY20" s="31"/>
@@ -6536,25 +6951,31 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DC20" s="31">
+      <c r="DC20" s="31"/>
+      <c r="DD20" s="34"/>
+      <c r="DE20" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF20" s="31">
         <v>1</v>
       </c>
-      <c r="DD20" s="34">
+      <c r="DG20" s="34">
         <v>1.5868055555555555E-2</v>
       </c>
-      <c r="DE20" s="33">
-        <f t="shared" si="24"/>
+      <c r="DH20" s="33">
+        <f t="shared" si="25"/>
         <v>1.1145833333333334E-2</v>
       </c>
-      <c r="DF20" s="31"/>
-      <c r="DG20" s="34"/>
-      <c r="DH20" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI20" s="35"/>
+      <c r="DI20" s="31"/>
+      <c r="DJ20" s="34"/>
+      <c r="DK20" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL20" s="35"/>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>197</v>
       </c>
@@ -6571,7 +6992,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E5</v>
       </c>
       <c r="G21" s="5">
@@ -6607,7 +7028,7 @@
         <v>3</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -6636,7 +7057,7 @@
       <c r="AA21" s="77"/>
       <c r="AB21" s="77"/>
       <c r="AC21" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.821759259259259E-2</v>
       </c>
       <c r="AD21" s="78">
@@ -6646,7 +7067,7 @@
         <v>1.2731481481481483E-3</v>
       </c>
       <c r="AF21" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.2604166666666665E-2</v>
       </c>
       <c r="AG21" s="21">
@@ -6665,25 +7086,25 @@
       <c r="AL21" s="31"/>
       <c r="AM21" s="32"/>
       <c r="AN21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO21" s="31"/>
       <c r="AP21" s="32"/>
       <c r="AQ21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AR21" s="31"/>
       <c r="AS21" s="32"/>
       <c r="AT21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AU21" s="31"/>
       <c r="AV21" s="32"/>
       <c r="AW21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AX21" s="31"/>
@@ -6701,19 +7122,19 @@
       <c r="BD21" s="31"/>
       <c r="BE21" s="34"/>
       <c r="BF21" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BG21" s="31"/>
       <c r="BH21" s="32"/>
       <c r="BI21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ21" s="31"/>
       <c r="BK21" s="32"/>
       <c r="BL21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM21" s="31">
@@ -6723,25 +7144,25 @@
         <v>1.0254629629629629E-2</v>
       </c>
       <c r="BO21" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.9143518518518512E-3</v>
       </c>
       <c r="BP21" s="31"/>
       <c r="BQ21" s="32"/>
       <c r="BR21" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS21" s="31"/>
       <c r="BT21" s="32"/>
       <c r="BU21" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV21" s="31"/>
       <c r="BW21" s="32"/>
       <c r="BX21" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="BY21" s="31"/>
@@ -6804,36 +7225,42 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DC21" s="31">
+      <c r="DC21" s="31"/>
+      <c r="DD21" s="32"/>
+      <c r="DE21" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DF21" s="31">
         <v>1</v>
       </c>
-      <c r="DD21" s="56">
+      <c r="DG21" s="56">
         <v>1.361111111111111E-2</v>
       </c>
-      <c r="DE21" s="33">
-        <f t="shared" si="24"/>
+      <c r="DH21" s="33">
+        <f t="shared" si="25"/>
         <v>9.2708333333333323E-3</v>
       </c>
-      <c r="DF21" s="31">
+      <c r="DI21" s="31">
         <v>2</v>
       </c>
-      <c r="DG21" s="56">
+      <c r="DJ21" s="56">
         <v>3.005787037037037E-2</v>
       </c>
-      <c r="DH21" s="33">
-        <f t="shared" si="41"/>
+      <c r="DK21" s="33">
+        <f t="shared" si="42"/>
         <v>2.5717592592592591E-2</v>
       </c>
-      <c r="DI21" s="35"/>
+      <c r="DL21" s="35"/>
     </row>
-    <row r="22" spans="1:113" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:116" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G22" s="11"/>
@@ -6853,7 +7280,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R22" s="11"/>
@@ -6868,13 +7295,13 @@
       <c r="AA22" s="69"/>
       <c r="AB22" s="69"/>
       <c r="AC22" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD22" s="80"/>
       <c r="AE22" s="80"/>
       <c r="AF22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG22" s="24"/>
@@ -6885,25 +7312,25 @@
       <c r="AL22" s="38"/>
       <c r="AM22" s="40"/>
       <c r="AN22" s="41" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AO22" s="38"/>
       <c r="AP22" s="40"/>
       <c r="AQ22" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AR22" s="38"/>
       <c r="AS22" s="82"/>
       <c r="AT22" s="41" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AU22" s="38"/>
       <c r="AV22" s="82"/>
       <c r="AW22" s="41" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AX22" s="38"/>
@@ -6921,43 +7348,43 @@
       <c r="BD22" s="38"/>
       <c r="BE22" s="40"/>
       <c r="BF22" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BG22" s="38"/>
       <c r="BH22" s="82"/>
       <c r="BI22" s="41" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BJ22" s="38"/>
       <c r="BK22" s="82"/>
       <c r="BL22" s="41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BM22" s="38"/>
       <c r="BN22" s="40"/>
       <c r="BO22" s="41" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BP22" s="38"/>
       <c r="BQ22" s="82"/>
       <c r="BR22" s="41" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BS22" s="38"/>
       <c r="BT22" s="82"/>
       <c r="BU22" s="41" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BV22" s="38"/>
       <c r="BW22" s="82"/>
       <c r="BX22" s="41" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="BY22" s="38"/>
@@ -7029,10 +7456,16 @@
       <c r="DF22" s="38"/>
       <c r="DG22" s="40"/>
       <c r="DH22" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DI22" s="39"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DI22" s="38"/>
+      <c r="DJ22" s="40"/>
+      <c r="DK22" s="41" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DL22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
